--- a/wide_pipeline/mics_dictionary_setcode.xlsx
+++ b/wide_pipeline/mics_dictionary_setcode.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2717" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2948" uniqueCount="534">
   <si>
     <t>original_name</t>
   </si>
@@ -1613,6 +1613,33 @@
   </si>
   <si>
     <t xml:space="preserve">Subregion </t>
+  </si>
+  <si>
+    <t>Argentina_2019</t>
+  </si>
+  <si>
+    <t>Guyana_2019</t>
+  </si>
+  <si>
+    <t>Malawi_2019</t>
+  </si>
+  <si>
+    <t>Samoa_2019</t>
+  </si>
+  <si>
+    <t>TurksandCaicosIslands_2019</t>
+  </si>
+  <si>
+    <t>Tuvalu_2019</t>
+  </si>
+  <si>
+    <t>Belarus_2019</t>
+  </si>
+  <si>
+    <t>DominicanRepublic_2019</t>
+  </si>
+  <si>
+    <t>Honduras_2019</t>
   </si>
 </sst>
 </file>
@@ -1653,7 +1680,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1661,6 +1688,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4947,10 +4975,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMG542"/>
+  <dimension ref="A1:AMG619"/>
   <sheetViews>
-    <sheetView topLeftCell="A274" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D287" sqref="D287"/>
+    <sheetView topLeftCell="A475" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A490" sqref="A490:C619"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -10349,29 +10377,29 @@
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>514</v>
-      </c>
-      <c r="B490">
-        <v>0</v>
-      </c>
-      <c r="C490">
+        <v>525</v>
+      </c>
+      <c r="B490" s="4">
+        <v>0</v>
+      </c>
+      <c r="C490" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>514</v>
+        <v>525</v>
       </c>
       <c r="B491">
         <v>1</v>
       </c>
-      <c r="C491">
+      <c r="C491" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
-        <v>514</v>
+        <v>525</v>
       </c>
       <c r="B492">
         <v>2</v>
@@ -10382,9 +10410,9 @@
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>514</v>
-      </c>
-      <c r="B493">
+        <v>525</v>
+      </c>
+      <c r="B493" s="4">
         <v>3</v>
       </c>
       <c r="C493">
@@ -10393,540 +10421,1387 @@
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>514</v>
+        <v>525</v>
       </c>
       <c r="B494">
         <v>4</v>
       </c>
-      <c r="C494">
+      <c r="C494" s="4">
         <v>22</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
-        <v>514</v>
-      </c>
-      <c r="B495">
+        <v>525</v>
+      </c>
+      <c r="B495" s="4">
         <v>5</v>
       </c>
-      <c r="C495">
-        <v>3</v>
+      <c r="C495" s="4">
+        <v>51</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>514</v>
-      </c>
-      <c r="B496">
-        <v>8</v>
-      </c>
-      <c r="C496">
-        <v>98</v>
+        <v>525</v>
+      </c>
+      <c r="B496" s="4">
+        <v>6</v>
+      </c>
+      <c r="C496" s="4">
+        <v>3</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>514</v>
+        <v>525</v>
       </c>
       <c r="B497">
-        <v>9</v>
-      </c>
-      <c r="C497">
-        <v>99</v>
+        <v>7</v>
+      </c>
+      <c r="C497" s="4">
+        <v>3</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
-        <v>513</v>
-      </c>
-      <c r="B498" s="4">
-        <v>0</v>
+        <v>525</v>
+      </c>
+      <c r="B498">
+        <v>8</v>
       </c>
       <c r="C498" s="4">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
-        <v>513</v>
-      </c>
-      <c r="B499" s="4">
-        <v>1</v>
+        <v>525</v>
+      </c>
+      <c r="B499">
+        <v>9</v>
       </c>
       <c r="C499" s="4">
-        <v>1</v>
+        <v>80</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
-        <v>513</v>
-      </c>
-      <c r="B500" s="4">
-        <v>2</v>
+        <v>525</v>
+      </c>
+      <c r="B500">
+        <v>98</v>
       </c>
       <c r="C500" s="4">
-        <v>21</v>
+        <v>98</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
-        <v>513</v>
-      </c>
-      <c r="B501" s="4">
-        <v>3</v>
+        <v>525</v>
+      </c>
+      <c r="B501">
+        <v>99</v>
       </c>
       <c r="C501" s="4">
-        <v>22</v>
+        <v>99</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
-        <v>513</v>
+        <v>526</v>
       </c>
       <c r="B502" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C502" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
-        <v>513</v>
-      </c>
-      <c r="B503">
-        <v>8</v>
+        <v>526</v>
+      </c>
+      <c r="B503" s="4">
+        <v>1</v>
       </c>
       <c r="C503" s="4">
-        <v>98</v>
+        <v>1</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
-        <v>513</v>
-      </c>
-      <c r="B504">
-        <v>9</v>
-      </c>
-      <c r="C504" s="4">
-        <v>99</v>
+        <v>526</v>
+      </c>
+      <c r="B504" s="4">
+        <v>2</v>
+      </c>
+      <c r="C504" s="5">
+        <v>21</v>
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
-        <v>512</v>
-      </c>
-      <c r="B505">
-        <v>0</v>
-      </c>
-      <c r="C505" s="4">
-        <v>0</v>
+        <v>526</v>
+      </c>
+      <c r="B505" s="4">
+        <v>3</v>
+      </c>
+      <c r="C505" s="5">
+        <v>22</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
-        <v>512</v>
+        <v>526</v>
       </c>
       <c r="B506">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C506" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
-        <v>512</v>
+        <v>526</v>
       </c>
       <c r="B507">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C507" s="4">
-        <v>21</v>
+        <v>98</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
-        <v>512</v>
+        <v>526</v>
       </c>
       <c r="B508">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C508" s="4">
-        <v>22</v>
+        <v>99</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
-        <v>512</v>
-      </c>
-      <c r="B509">
-        <v>4</v>
+        <v>527</v>
+      </c>
+      <c r="B509" s="4">
+        <v>0</v>
       </c>
       <c r="C509" s="4">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
-        <v>512</v>
-      </c>
-      <c r="B510">
-        <v>5</v>
+        <v>527</v>
+      </c>
+      <c r="B510" s="4">
+        <v>1</v>
       </c>
       <c r="C510" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
-        <v>512</v>
-      </c>
-      <c r="B511">
-        <v>8</v>
+        <v>527</v>
+      </c>
+      <c r="B511" s="4">
+        <v>2</v>
       </c>
       <c r="C511" s="4">
-        <v>98</v>
+        <v>21</v>
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
-        <v>512</v>
-      </c>
-      <c r="B512">
-        <v>9</v>
-      </c>
-      <c r="C512" s="4">
-        <v>99</v>
+        <v>527</v>
+      </c>
+      <c r="B512" s="4">
+        <v>3</v>
+      </c>
+      <c r="C512" s="5">
+        <v>22</v>
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
-        <v>511</v>
+        <v>527</v>
       </c>
       <c r="B513" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C513" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
-        <v>511</v>
-      </c>
-      <c r="B514" s="4">
-        <v>1</v>
-      </c>
-      <c r="C514">
-        <v>1</v>
+        <v>527</v>
+      </c>
+      <c r="B514">
+        <v>5</v>
+      </c>
+      <c r="C514" s="4">
+        <v>33</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
-        <v>511</v>
-      </c>
-      <c r="B515" s="4">
-        <v>2</v>
+        <v>527</v>
+      </c>
+      <c r="B515">
+        <v>8</v>
       </c>
       <c r="C515" s="4">
-        <v>22</v>
+        <v>99</v>
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
-        <v>511</v>
-      </c>
-      <c r="B516" s="4">
-        <v>3</v>
+        <v>527</v>
+      </c>
+      <c r="B516">
+        <v>9</v>
       </c>
       <c r="C516" s="4">
-        <v>3</v>
+        <v>98</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
-        <v>511</v>
+        <v>528</v>
       </c>
       <c r="B517">
-        <v>8</v>
-      </c>
-      <c r="C517" s="4">
-        <v>98</v>
+        <v>0</v>
+      </c>
+      <c r="C517">
+        <v>0</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
-        <v>510</v>
-      </c>
-      <c r="B518">
-        <v>0</v>
+        <v>528</v>
+      </c>
+      <c r="B518" s="4">
+        <v>1</v>
       </c>
       <c r="C518" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
-        <v>510</v>
-      </c>
-      <c r="B519">
-        <v>1</v>
-      </c>
-      <c r="C519" s="4">
-        <v>1</v>
+        <v>528</v>
+      </c>
+      <c r="B519" s="4">
+        <v>2</v>
+      </c>
+      <c r="C519" s="5">
+        <v>22</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
-        <v>510</v>
-      </c>
-      <c r="B520">
-        <v>2</v>
+        <v>528</v>
+      </c>
+      <c r="B520" s="4">
+        <v>4</v>
       </c>
       <c r="C520" s="4">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
-        <v>510</v>
+        <v>528</v>
       </c>
       <c r="B521">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C521" s="4">
-        <v>22</v>
+        <v>50</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
-        <v>510</v>
+        <v>528</v>
       </c>
       <c r="B522">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C522" s="4">
-        <v>22</v>
+        <v>98</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
-        <v>510</v>
+        <v>528</v>
       </c>
       <c r="B523">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C523" s="4">
-        <v>3</v>
+        <v>99</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
-        <v>510</v>
-      </c>
-      <c r="B524">
-        <v>8</v>
+        <v>511</v>
+      </c>
+      <c r="B524" s="4">
+        <v>0</v>
       </c>
       <c r="C524" s="4">
-        <v>98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
-        <v>510</v>
-      </c>
-      <c r="B525">
-        <v>9</v>
+        <v>511</v>
+      </c>
+      <c r="B525" s="4">
+        <v>1</v>
       </c>
       <c r="C525" s="4">
-        <v>99</v>
+        <v>21</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
-        <v>509</v>
-      </c>
-      <c r="B526">
-        <v>0</v>
-      </c>
-      <c r="C526">
-        <v>0</v>
+        <v>511</v>
+      </c>
+      <c r="B526" s="4">
+        <v>2</v>
+      </c>
+      <c r="C526" s="4">
+        <v>22</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
-        <v>509</v>
-      </c>
-      <c r="B527">
-        <v>10</v>
-      </c>
-      <c r="C527">
-        <v>1</v>
+        <v>511</v>
+      </c>
+      <c r="B527" s="4">
+        <v>3</v>
+      </c>
+      <c r="C527" s="4">
+        <v>3</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="B528">
-        <v>20</v>
-      </c>
-      <c r="C528">
-        <v>21</v>
+        <v>8</v>
+      </c>
+      <c r="C528" s="4">
+        <v>98</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
-        <v>509</v>
+        <v>529</v>
       </c>
       <c r="B529">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="C529">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
-        <v>509</v>
-      </c>
-      <c r="B530">
-        <v>30</v>
+        <v>529</v>
+      </c>
+      <c r="B530" s="4">
+        <v>11</v>
       </c>
       <c r="C530">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
-        <v>509</v>
+        <v>529</v>
       </c>
       <c r="B531">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="C531">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
-        <v>509</v>
+        <v>529</v>
       </c>
       <c r="B532">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="C532">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
-        <v>509</v>
+        <v>529</v>
       </c>
       <c r="B533">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="C533">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
-        <v>509</v>
+        <v>529</v>
       </c>
       <c r="B534">
-        <v>98</v>
-      </c>
-      <c r="C534">
-        <v>98</v>
+        <v>15</v>
+      </c>
+      <c r="C534" s="4">
+        <v>33</v>
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
-        <v>515</v>
-      </c>
-      <c r="B535" s="4">
-        <v>0</v>
+        <v>529</v>
+      </c>
+      <c r="B535">
+        <v>16</v>
       </c>
       <c r="C535">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
-        <v>515</v>
-      </c>
-      <c r="B536" s="4">
-        <v>1</v>
+        <v>529</v>
+      </c>
+      <c r="B536">
+        <v>17</v>
       </c>
       <c r="C536">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
-        <v>515</v>
-      </c>
-      <c r="B537" s="4">
-        <v>2</v>
+        <v>529</v>
+      </c>
+      <c r="B537">
+        <v>18</v>
       </c>
       <c r="C537">
-        <v>1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
-        <v>515</v>
-      </c>
-      <c r="B538" s="4">
-        <v>3</v>
+        <v>529</v>
+      </c>
+      <c r="B538">
+        <v>98</v>
       </c>
       <c r="C538">
-        <v>1</v>
+        <v>98</v>
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
-        <v>515</v>
-      </c>
-      <c r="B539" s="4">
-        <v>4</v>
+        <v>529</v>
+      </c>
+      <c r="B539">
+        <v>99</v>
       </c>
       <c r="C539">
-        <v>21</v>
+        <v>99</v>
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
-        <v>515</v>
-      </c>
-      <c r="B540" s="4">
-        <v>5</v>
+        <v>530</v>
+      </c>
+      <c r="B540">
+        <v>0</v>
       </c>
       <c r="C540">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
-        <v>515</v>
-      </c>
-      <c r="B541">
-        <v>6</v>
+        <v>530</v>
+      </c>
+      <c r="B541" s="4">
+        <v>1</v>
       </c>
       <c r="C541">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
+        <v>530</v>
+      </c>
+      <c r="B542" s="4">
+        <v>2</v>
+      </c>
+      <c r="C542" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A543" t="s">
+        <v>530</v>
+      </c>
+      <c r="B543">
+        <v>4</v>
+      </c>
+      <c r="C543">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A544" t="s">
+        <v>530</v>
+      </c>
+      <c r="B544">
+        <v>5</v>
+      </c>
+      <c r="C544">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A545" t="s">
+        <v>530</v>
+      </c>
+      <c r="B545">
+        <v>8</v>
+      </c>
+      <c r="C545">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A546" t="s">
+        <v>531</v>
+      </c>
+      <c r="B546" s="4">
+        <v>0</v>
+      </c>
+      <c r="C546" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A547" t="s">
+        <v>531</v>
+      </c>
+      <c r="B547" s="4">
+        <v>1</v>
+      </c>
+      <c r="C547" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A548" t="s">
+        <v>531</v>
+      </c>
+      <c r="B548" s="4">
+        <v>2</v>
+      </c>
+      <c r="C548" s="5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A549" t="s">
+        <v>531</v>
+      </c>
+      <c r="B549" s="4">
+        <v>3</v>
+      </c>
+      <c r="C549" s="5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A550" t="s">
+        <v>531</v>
+      </c>
+      <c r="B550" s="4">
+        <v>4</v>
+      </c>
+      <c r="C550" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A551" t="s">
+        <v>531</v>
+      </c>
+      <c r="B551" s="4">
+        <v>5</v>
+      </c>
+      <c r="C551" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A552" t="s">
+        <v>531</v>
+      </c>
+      <c r="B552" s="4">
+        <v>6</v>
+      </c>
+      <c r="C552" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A553" t="s">
+        <v>531</v>
+      </c>
+      <c r="B553">
+        <v>7</v>
+      </c>
+      <c r="C553" s="4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A554" t="s">
+        <v>531</v>
+      </c>
+      <c r="B554">
+        <v>9</v>
+      </c>
+      <c r="C554" s="4">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A555" t="s">
+        <v>509</v>
+      </c>
+      <c r="B555">
+        <v>0</v>
+      </c>
+      <c r="C555">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A556" t="s">
+        <v>509</v>
+      </c>
+      <c r="B556" s="4">
+        <v>10</v>
+      </c>
+      <c r="C556" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A557" t="s">
+        <v>509</v>
+      </c>
+      <c r="B557" s="4">
+        <v>20</v>
+      </c>
+      <c r="C557" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A558" t="s">
+        <v>509</v>
+      </c>
+      <c r="B558">
+        <v>21</v>
+      </c>
+      <c r="C558">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A559" t="s">
+        <v>509</v>
+      </c>
+      <c r="B559" s="4">
+        <v>30</v>
+      </c>
+      <c r="C559" s="4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A560" t="s">
+        <v>509</v>
+      </c>
+      <c r="B560">
+        <v>31</v>
+      </c>
+      <c r="C560" s="4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A561" t="s">
+        <v>509</v>
+      </c>
+      <c r="B561">
+        <v>40</v>
+      </c>
+      <c r="C561" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A562" t="s">
+        <v>509</v>
+      </c>
+      <c r="B562">
+        <v>41</v>
+      </c>
+      <c r="C562" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A563" t="s">
+        <v>509</v>
+      </c>
+      <c r="B563">
+        <v>98</v>
+      </c>
+      <c r="C563" s="4">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A564" t="s">
+        <v>512</v>
+      </c>
+      <c r="B564">
+        <v>0</v>
+      </c>
+      <c r="C564" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A565" t="s">
+        <v>512</v>
+      </c>
+      <c r="B565">
+        <v>1</v>
+      </c>
+      <c r="C565" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A566" t="s">
+        <v>512</v>
+      </c>
+      <c r="B566">
+        <v>2</v>
+      </c>
+      <c r="C566" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A567" t="s">
+        <v>512</v>
+      </c>
+      <c r="B567">
+        <v>3</v>
+      </c>
+      <c r="C567" s="4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="568" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A568" t="s">
+        <v>512</v>
+      </c>
+      <c r="B568">
+        <v>4</v>
+      </c>
+      <c r="C568" s="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A569" t="s">
+        <v>512</v>
+      </c>
+      <c r="B569">
+        <v>5</v>
+      </c>
+      <c r="C569" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A570" t="s">
+        <v>512</v>
+      </c>
+      <c r="B570">
+        <v>8</v>
+      </c>
+      <c r="C570" s="4">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="571" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A571" t="s">
+        <v>512</v>
+      </c>
+      <c r="B571">
+        <v>9</v>
+      </c>
+      <c r="C571" s="4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="572" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A572" t="s">
+        <v>532</v>
+      </c>
+      <c r="B572" s="4">
+        <v>0</v>
+      </c>
+      <c r="C572" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="573" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A573" t="s">
+        <v>532</v>
+      </c>
+      <c r="B573" s="4">
+        <v>1</v>
+      </c>
+      <c r="C573" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="574" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A574" t="s">
+        <v>532</v>
+      </c>
+      <c r="B574" s="4">
+        <v>2</v>
+      </c>
+      <c r="C574" s="4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="575" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A575" t="s">
+        <v>532</v>
+      </c>
+      <c r="B575" s="4">
+        <v>4</v>
+      </c>
+      <c r="C575" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="576" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A576" t="s">
+        <v>532</v>
+      </c>
+      <c r="B576">
+        <v>8</v>
+      </c>
+      <c r="C576" s="4">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="577" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A577" t="s">
+        <v>532</v>
+      </c>
+      <c r="B577">
+        <v>9</v>
+      </c>
+      <c r="C577" s="4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="578" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A578" t="s">
+        <v>533</v>
+      </c>
+      <c r="B578">
+        <v>0</v>
+      </c>
+      <c r="C578">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="579" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A579" t="s">
+        <v>533</v>
+      </c>
+      <c r="B579" s="4">
+        <v>1</v>
+      </c>
+      <c r="C579" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="580" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A580" t="s">
+        <v>533</v>
+      </c>
+      <c r="B580" s="4">
+        <v>2</v>
+      </c>
+      <c r="C580" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="581" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A581" t="s">
+        <v>533</v>
+      </c>
+      <c r="B581" s="4">
+        <v>3</v>
+      </c>
+      <c r="C581" s="4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="582" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A582" t="s">
+        <v>533</v>
+      </c>
+      <c r="B582" s="4">
+        <v>4</v>
+      </c>
+      <c r="C582" s="4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="583" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A583" t="s">
+        <v>533</v>
+      </c>
+      <c r="B583">
+        <v>5</v>
+      </c>
+      <c r="C583" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="584" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A584" t="s">
+        <v>533</v>
+      </c>
+      <c r="B584">
+        <v>6</v>
+      </c>
+      <c r="C584">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="585" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A585" t="s">
+        <v>533</v>
+      </c>
+      <c r="B585" s="4">
+        <v>7</v>
+      </c>
+      <c r="C585" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="586" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A586" t="s">
+        <v>533</v>
+      </c>
+      <c r="B586">
+        <v>8</v>
+      </c>
+      <c r="C586">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="587" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A587" t="s">
+        <v>533</v>
+      </c>
+      <c r="B587">
+        <v>98</v>
+      </c>
+      <c r="C587">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="588" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A588" t="s">
+        <v>533</v>
+      </c>
+      <c r="B588">
+        <v>99</v>
+      </c>
+      <c r="C588">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="589" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A589" t="s">
         <v>515</v>
       </c>
-      <c r="B542">
+      <c r="B589" s="4">
+        <v>0</v>
+      </c>
+      <c r="C589" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="590" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A590" t="s">
+        <v>515</v>
+      </c>
+      <c r="B590" s="4">
+        <v>1</v>
+      </c>
+      <c r="C590" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="591" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A591" t="s">
+        <v>515</v>
+      </c>
+      <c r="B591" s="4">
+        <v>2</v>
+      </c>
+      <c r="C591" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="592" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A592" t="s">
+        <v>515</v>
+      </c>
+      <c r="B592" s="4">
+        <v>3</v>
+      </c>
+      <c r="C592" s="5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="593" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A593" t="s">
+        <v>515</v>
+      </c>
+      <c r="B593" s="4">
+        <v>4</v>
+      </c>
+      <c r="C593" s="5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="594" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A594" t="s">
+        <v>515</v>
+      </c>
+      <c r="B594" s="4">
+        <v>5</v>
+      </c>
+      <c r="C594" s="5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="595" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A595" t="s">
+        <v>515</v>
+      </c>
+      <c r="B595" s="4">
+        <v>6</v>
+      </c>
+      <c r="C595" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="596" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A596" t="s">
+        <v>515</v>
+      </c>
+      <c r="B596">
         <v>9</v>
       </c>
-      <c r="C542">
+      <c r="C596" s="4">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="597" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A597" t="s">
+        <v>510</v>
+      </c>
+      <c r="B597" s="4">
+        <v>0</v>
+      </c>
+      <c r="C597" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="598" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A598" t="s">
+        <v>510</v>
+      </c>
+      <c r="B598" s="4">
+        <v>1</v>
+      </c>
+      <c r="C598" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="599" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A599" t="s">
+        <v>510</v>
+      </c>
+      <c r="B599" s="4">
+        <v>2</v>
+      </c>
+      <c r="C599" s="4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="600" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A600" t="s">
+        <v>510</v>
+      </c>
+      <c r="B600">
+        <v>3</v>
+      </c>
+      <c r="C600" s="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="601" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A601" t="s">
+        <v>510</v>
+      </c>
+      <c r="B601">
+        <v>4</v>
+      </c>
+      <c r="C601" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="602" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A602" t="s">
+        <v>510</v>
+      </c>
+      <c r="B602">
+        <v>5</v>
+      </c>
+      <c r="C602" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="603" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A603" t="s">
+        <v>510</v>
+      </c>
+      <c r="B603">
+        <v>8</v>
+      </c>
+      <c r="C603" s="4">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="604" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A604" t="s">
+        <v>510</v>
+      </c>
+      <c r="B604">
+        <v>9</v>
+      </c>
+      <c r="C604" s="4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="605" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A605" t="s">
+        <v>513</v>
+      </c>
+      <c r="B605" s="4">
+        <v>0</v>
+      </c>
+      <c r="C605" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="606" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A606" t="s">
+        <v>513</v>
+      </c>
+      <c r="B606" s="4">
+        <v>1</v>
+      </c>
+      <c r="C606" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="607" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A607" t="s">
+        <v>513</v>
+      </c>
+      <c r="B607" s="4">
+        <v>2</v>
+      </c>
+      <c r="C607" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="608" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A608" t="s">
+        <v>513</v>
+      </c>
+      <c r="B608" s="4">
+        <v>3</v>
+      </c>
+      <c r="C608" s="4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="609" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A609" t="s">
+        <v>513</v>
+      </c>
+      <c r="B609" s="4">
+        <v>4</v>
+      </c>
+      <c r="C609" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="610" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A610" t="s">
+        <v>513</v>
+      </c>
+      <c r="B610">
+        <v>8</v>
+      </c>
+      <c r="C610" s="4">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="611" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A611" t="s">
+        <v>513</v>
+      </c>
+      <c r="B611">
+        <v>9</v>
+      </c>
+      <c r="C611" s="4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="612" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A612" t="s">
+        <v>514</v>
+      </c>
+      <c r="B612">
+        <v>0</v>
+      </c>
+      <c r="C612">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="613" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A613" t="s">
+        <v>514</v>
+      </c>
+      <c r="B613" s="4">
+        <v>1</v>
+      </c>
+      <c r="C613" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="614" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A614" t="s">
+        <v>514</v>
+      </c>
+      <c r="B614" s="4">
+        <v>2</v>
+      </c>
+      <c r="C614" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="615" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A615" t="s">
+        <v>514</v>
+      </c>
+      <c r="B615" s="4">
+        <v>3</v>
+      </c>
+      <c r="C615" s="4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="616" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A616" t="s">
+        <v>514</v>
+      </c>
+      <c r="B616">
+        <v>4</v>
+      </c>
+      <c r="C616" s="4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="617" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A617" t="s">
+        <v>514</v>
+      </c>
+      <c r="B617">
+        <v>5</v>
+      </c>
+      <c r="C617" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="618" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A618" t="s">
+        <v>514</v>
+      </c>
+      <c r="B618">
+        <v>8</v>
+      </c>
+      <c r="C618" s="4">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="619" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A619" t="s">
+        <v>514</v>
+      </c>
+      <c r="B619">
+        <v>9</v>
+      </c>
+      <c r="C619" s="4">
         <v>99</v>
       </c>
     </row>
@@ -10942,10 +11817,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMH531"/>
+  <dimension ref="A1:AMH608"/>
   <sheetViews>
-    <sheetView topLeftCell="A263" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C277" sqref="C277"/>
+    <sheetView topLeftCell="A464" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A479" sqref="A479:C608"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -16218,29 +17093,29 @@
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>514</v>
-      </c>
-      <c r="B479">
-        <v>0</v>
-      </c>
-      <c r="C479">
+        <v>525</v>
+      </c>
+      <c r="B479" s="4">
+        <v>0</v>
+      </c>
+      <c r="C479" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>514</v>
+        <v>525</v>
       </c>
       <c r="B480">
         <v>1</v>
       </c>
-      <c r="C480">
+      <c r="C480" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>514</v>
+        <v>525</v>
       </c>
       <c r="B481">
         <v>2</v>
@@ -16251,9 +17126,9 @@
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>514</v>
-      </c>
-      <c r="B482">
+        <v>525</v>
+      </c>
+      <c r="B482" s="4">
         <v>3</v>
       </c>
       <c r="C482">
@@ -16262,540 +17137,1387 @@
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>514</v>
+        <v>525</v>
       </c>
       <c r="B483">
         <v>4</v>
       </c>
-      <c r="C483">
+      <c r="C483" s="4">
         <v>22</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>514</v>
-      </c>
-      <c r="B484">
+        <v>525</v>
+      </c>
+      <c r="B484" s="4">
         <v>5</v>
       </c>
-      <c r="C484">
-        <v>3</v>
+      <c r="C484" s="4">
+        <v>51</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>514</v>
-      </c>
-      <c r="B485">
-        <v>8</v>
-      </c>
-      <c r="C485">
-        <v>98</v>
+        <v>525</v>
+      </c>
+      <c r="B485" s="4">
+        <v>6</v>
+      </c>
+      <c r="C485" s="4">
+        <v>3</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>514</v>
+        <v>525</v>
       </c>
       <c r="B486">
-        <v>9</v>
-      </c>
-      <c r="C486">
-        <v>99</v>
+        <v>7</v>
+      </c>
+      <c r="C486" s="4">
+        <v>3</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>513</v>
-      </c>
-      <c r="B487" s="4">
-        <v>0</v>
+        <v>525</v>
+      </c>
+      <c r="B487">
+        <v>8</v>
       </c>
       <c r="C487" s="4">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>513</v>
-      </c>
-      <c r="B488" s="4">
-        <v>1</v>
+        <v>525</v>
+      </c>
+      <c r="B488">
+        <v>9</v>
       </c>
       <c r="C488" s="4">
-        <v>1</v>
+        <v>80</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>513</v>
-      </c>
-      <c r="B489" s="4">
-        <v>2</v>
+        <v>525</v>
+      </c>
+      <c r="B489">
+        <v>98</v>
       </c>
       <c r="C489" s="4">
-        <v>21</v>
+        <v>98</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>513</v>
-      </c>
-      <c r="B490" s="4">
-        <v>3</v>
+        <v>525</v>
+      </c>
+      <c r="B490">
+        <v>99</v>
       </c>
       <c r="C490" s="4">
-        <v>22</v>
+        <v>99</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>513</v>
+        <v>526</v>
       </c>
       <c r="B491" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C491" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
-        <v>513</v>
-      </c>
-      <c r="B492">
-        <v>8</v>
+        <v>526</v>
+      </c>
+      <c r="B492" s="4">
+        <v>1</v>
       </c>
       <c r="C492" s="4">
-        <v>98</v>
+        <v>1</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>513</v>
-      </c>
-      <c r="B493">
-        <v>9</v>
-      </c>
-      <c r="C493" s="4">
-        <v>99</v>
+        <v>526</v>
+      </c>
+      <c r="B493" s="4">
+        <v>2</v>
+      </c>
+      <c r="C493" s="5">
+        <v>21</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>512</v>
-      </c>
-      <c r="B494">
-        <v>0</v>
-      </c>
-      <c r="C494" s="4">
-        <v>0</v>
+        <v>526</v>
+      </c>
+      <c r="B494" s="4">
+        <v>3</v>
+      </c>
+      <c r="C494" s="5">
+        <v>22</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
-        <v>512</v>
+        <v>526</v>
       </c>
       <c r="B495">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C495" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>512</v>
+        <v>526</v>
       </c>
       <c r="B496">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C496" s="4">
-        <v>21</v>
+        <v>98</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>512</v>
+        <v>526</v>
       </c>
       <c r="B497">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C497" s="4">
-        <v>22</v>
+        <v>99</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
-        <v>512</v>
-      </c>
-      <c r="B498">
-        <v>4</v>
+        <v>527</v>
+      </c>
+      <c r="B498" s="4">
+        <v>0</v>
       </c>
       <c r="C498" s="4">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
-        <v>512</v>
-      </c>
-      <c r="B499">
-        <v>5</v>
+        <v>527</v>
+      </c>
+      <c r="B499" s="4">
+        <v>1</v>
       </c>
       <c r="C499" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
-        <v>512</v>
-      </c>
-      <c r="B500">
-        <v>8</v>
+        <v>527</v>
+      </c>
+      <c r="B500" s="4">
+        <v>2</v>
       </c>
       <c r="C500" s="4">
-        <v>98</v>
+        <v>21</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
-        <v>512</v>
-      </c>
-      <c r="B501">
-        <v>9</v>
-      </c>
-      <c r="C501" s="4">
-        <v>99</v>
+        <v>527</v>
+      </c>
+      <c r="B501" s="4">
+        <v>3</v>
+      </c>
+      <c r="C501" s="5">
+        <v>22</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
-        <v>511</v>
+        <v>527</v>
       </c>
       <c r="B502" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C502" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
-        <v>511</v>
-      </c>
-      <c r="B503" s="4">
-        <v>1</v>
-      </c>
-      <c r="C503">
-        <v>1</v>
+        <v>527</v>
+      </c>
+      <c r="B503">
+        <v>5</v>
+      </c>
+      <c r="C503" s="4">
+        <v>33</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
-        <v>511</v>
-      </c>
-      <c r="B504" s="4">
-        <v>2</v>
+        <v>527</v>
+      </c>
+      <c r="B504">
+        <v>8</v>
       </c>
       <c r="C504" s="4">
-        <v>22</v>
+        <v>99</v>
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
-        <v>511</v>
-      </c>
-      <c r="B505" s="4">
-        <v>3</v>
+        <v>527</v>
+      </c>
+      <c r="B505">
+        <v>9</v>
       </c>
       <c r="C505" s="4">
-        <v>3</v>
+        <v>98</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
-        <v>511</v>
+        <v>528</v>
       </c>
       <c r="B506">
-        <v>8</v>
-      </c>
-      <c r="C506" s="4">
-        <v>98</v>
+        <v>0</v>
+      </c>
+      <c r="C506">
+        <v>0</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
-        <v>510</v>
-      </c>
-      <c r="B507">
-        <v>0</v>
+        <v>528</v>
+      </c>
+      <c r="B507" s="4">
+        <v>1</v>
       </c>
       <c r="C507" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
-        <v>510</v>
-      </c>
-      <c r="B508">
-        <v>1</v>
-      </c>
-      <c r="C508" s="4">
-        <v>1</v>
+        <v>528</v>
+      </c>
+      <c r="B508" s="4">
+        <v>2</v>
+      </c>
+      <c r="C508" s="5">
+        <v>22</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
-        <v>510</v>
-      </c>
-      <c r="B509">
-        <v>2</v>
+        <v>528</v>
+      </c>
+      <c r="B509" s="4">
+        <v>4</v>
       </c>
       <c r="C509" s="4">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
-        <v>510</v>
+        <v>528</v>
       </c>
       <c r="B510">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C510" s="4">
-        <v>22</v>
+        <v>50</v>
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
-        <v>510</v>
+        <v>528</v>
       </c>
       <c r="B511">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C511" s="4">
-        <v>22</v>
+        <v>98</v>
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
-        <v>510</v>
+        <v>528</v>
       </c>
       <c r="B512">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C512" s="4">
-        <v>3</v>
+        <v>99</v>
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
-        <v>510</v>
-      </c>
-      <c r="B513">
-        <v>8</v>
+        <v>511</v>
+      </c>
+      <c r="B513" s="4">
+        <v>0</v>
       </c>
       <c r="C513" s="4">
-        <v>98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
-        <v>510</v>
-      </c>
-      <c r="B514">
-        <v>9</v>
+        <v>511</v>
+      </c>
+      <c r="B514" s="4">
+        <v>1</v>
       </c>
       <c r="C514" s="4">
-        <v>99</v>
+        <v>21</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
-        <v>509</v>
-      </c>
-      <c r="B515">
-        <v>0</v>
-      </c>
-      <c r="C515">
-        <v>0</v>
+        <v>511</v>
+      </c>
+      <c r="B515" s="4">
+        <v>2</v>
+      </c>
+      <c r="C515" s="4">
+        <v>22</v>
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
-        <v>509</v>
-      </c>
-      <c r="B516">
-        <v>10</v>
-      </c>
-      <c r="C516">
-        <v>1</v>
+        <v>511</v>
+      </c>
+      <c r="B516" s="4">
+        <v>3</v>
+      </c>
+      <c r="C516" s="4">
+        <v>3</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="B517">
-        <v>20</v>
-      </c>
-      <c r="C517">
-        <v>21</v>
+        <v>8</v>
+      </c>
+      <c r="C517" s="4">
+        <v>98</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
-        <v>509</v>
+        <v>529</v>
       </c>
       <c r="B518">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="C518">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
-        <v>509</v>
-      </c>
-      <c r="B519">
-        <v>30</v>
+        <v>529</v>
+      </c>
+      <c r="B519" s="4">
+        <v>11</v>
       </c>
       <c r="C519">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
-        <v>509</v>
+        <v>529</v>
       </c>
       <c r="B520">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="C520">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
-        <v>509</v>
+        <v>529</v>
       </c>
       <c r="B521">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="C521">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
-        <v>509</v>
+        <v>529</v>
       </c>
       <c r="B522">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="C522">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
-        <v>509</v>
+        <v>529</v>
       </c>
       <c r="B523">
-        <v>98</v>
-      </c>
-      <c r="C523">
-        <v>98</v>
+        <v>15</v>
+      </c>
+      <c r="C523" s="4">
+        <v>33</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
-        <v>515</v>
-      </c>
-      <c r="B524" s="4">
-        <v>0</v>
+        <v>529</v>
+      </c>
+      <c r="B524">
+        <v>16</v>
       </c>
       <c r="C524">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
-        <v>515</v>
-      </c>
-      <c r="B525" s="4">
-        <v>1</v>
+        <v>529</v>
+      </c>
+      <c r="B525">
+        <v>17</v>
       </c>
       <c r="C525">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
-        <v>515</v>
-      </c>
-      <c r="B526" s="4">
-        <v>2</v>
+        <v>529</v>
+      </c>
+      <c r="B526">
+        <v>18</v>
       </c>
       <c r="C526">
-        <v>1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
-        <v>515</v>
-      </c>
-      <c r="B527" s="4">
-        <v>3</v>
+        <v>529</v>
+      </c>
+      <c r="B527">
+        <v>98</v>
       </c>
       <c r="C527">
-        <v>1</v>
+        <v>98</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
-        <v>515</v>
-      </c>
-      <c r="B528" s="4">
-        <v>4</v>
+        <v>529</v>
+      </c>
+      <c r="B528">
+        <v>99</v>
       </c>
       <c r="C528">
-        <v>21</v>
+        <v>99</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
-        <v>515</v>
-      </c>
-      <c r="B529" s="4">
-        <v>5</v>
+        <v>530</v>
+      </c>
+      <c r="B529">
+        <v>0</v>
       </c>
       <c r="C529">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
-        <v>515</v>
-      </c>
-      <c r="B530">
-        <v>6</v>
+        <v>530</v>
+      </c>
+      <c r="B530" s="4">
+        <v>1</v>
       </c>
       <c r="C530">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
+        <v>530</v>
+      </c>
+      <c r="B531" s="4">
+        <v>2</v>
+      </c>
+      <c r="C531" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A532" t="s">
+        <v>530</v>
+      </c>
+      <c r="B532">
+        <v>4</v>
+      </c>
+      <c r="C532">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A533" t="s">
+        <v>530</v>
+      </c>
+      <c r="B533">
+        <v>5</v>
+      </c>
+      <c r="C533">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A534" t="s">
+        <v>530</v>
+      </c>
+      <c r="B534">
+        <v>8</v>
+      </c>
+      <c r="C534">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A535" t="s">
+        <v>531</v>
+      </c>
+      <c r="B535" s="4">
+        <v>0</v>
+      </c>
+      <c r="C535" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A536" t="s">
+        <v>531</v>
+      </c>
+      <c r="B536" s="4">
+        <v>1</v>
+      </c>
+      <c r="C536" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A537" t="s">
+        <v>531</v>
+      </c>
+      <c r="B537" s="4">
+        <v>2</v>
+      </c>
+      <c r="C537" s="5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A538" t="s">
+        <v>531</v>
+      </c>
+      <c r="B538" s="4">
+        <v>3</v>
+      </c>
+      <c r="C538" s="5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A539" t="s">
+        <v>531</v>
+      </c>
+      <c r="B539" s="4">
+        <v>4</v>
+      </c>
+      <c r="C539" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A540" t="s">
+        <v>531</v>
+      </c>
+      <c r="B540" s="4">
+        <v>5</v>
+      </c>
+      <c r="C540" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A541" t="s">
+        <v>531</v>
+      </c>
+      <c r="B541" s="4">
+        <v>6</v>
+      </c>
+      <c r="C541" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A542" t="s">
+        <v>531</v>
+      </c>
+      <c r="B542">
+        <v>7</v>
+      </c>
+      <c r="C542" s="4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A543" t="s">
+        <v>531</v>
+      </c>
+      <c r="B543">
+        <v>9</v>
+      </c>
+      <c r="C543" s="4">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A544" t="s">
+        <v>509</v>
+      </c>
+      <c r="B544">
+        <v>0</v>
+      </c>
+      <c r="C544">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A545" t="s">
+        <v>509</v>
+      </c>
+      <c r="B545" s="4">
+        <v>10</v>
+      </c>
+      <c r="C545" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A546" t="s">
+        <v>509</v>
+      </c>
+      <c r="B546" s="4">
+        <v>20</v>
+      </c>
+      <c r="C546" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A547" t="s">
+        <v>509</v>
+      </c>
+      <c r="B547">
+        <v>21</v>
+      </c>
+      <c r="C547">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A548" t="s">
+        <v>509</v>
+      </c>
+      <c r="B548" s="4">
+        <v>30</v>
+      </c>
+      <c r="C548" s="4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A549" t="s">
+        <v>509</v>
+      </c>
+      <c r="B549">
+        <v>31</v>
+      </c>
+      <c r="C549" s="4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A550" t="s">
+        <v>509</v>
+      </c>
+      <c r="B550">
+        <v>40</v>
+      </c>
+      <c r="C550" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A551" t="s">
+        <v>509</v>
+      </c>
+      <c r="B551">
+        <v>41</v>
+      </c>
+      <c r="C551" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A552" t="s">
+        <v>509</v>
+      </c>
+      <c r="B552">
+        <v>98</v>
+      </c>
+      <c r="C552" s="4">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A553" t="s">
+        <v>512</v>
+      </c>
+      <c r="B553">
+        <v>0</v>
+      </c>
+      <c r="C553" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A554" t="s">
+        <v>512</v>
+      </c>
+      <c r="B554">
+        <v>1</v>
+      </c>
+      <c r="C554" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A555" t="s">
+        <v>512</v>
+      </c>
+      <c r="B555">
+        <v>2</v>
+      </c>
+      <c r="C555" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A556" t="s">
+        <v>512</v>
+      </c>
+      <c r="B556">
+        <v>3</v>
+      </c>
+      <c r="C556" s="4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A557" t="s">
+        <v>512</v>
+      </c>
+      <c r="B557">
+        <v>4</v>
+      </c>
+      <c r="C557" s="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A558" t="s">
+        <v>512</v>
+      </c>
+      <c r="B558">
+        <v>5</v>
+      </c>
+      <c r="C558" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A559" t="s">
+        <v>512</v>
+      </c>
+      <c r="B559">
+        <v>8</v>
+      </c>
+      <c r="C559" s="4">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A560" t="s">
+        <v>512</v>
+      </c>
+      <c r="B560">
+        <v>9</v>
+      </c>
+      <c r="C560" s="4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A561" t="s">
+        <v>532</v>
+      </c>
+      <c r="B561" s="4">
+        <v>0</v>
+      </c>
+      <c r="C561" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A562" t="s">
+        <v>532</v>
+      </c>
+      <c r="B562" s="4">
+        <v>1</v>
+      </c>
+      <c r="C562" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A563" t="s">
+        <v>532</v>
+      </c>
+      <c r="B563" s="4">
+        <v>2</v>
+      </c>
+      <c r="C563" s="4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A564" t="s">
+        <v>532</v>
+      </c>
+      <c r="B564" s="4">
+        <v>4</v>
+      </c>
+      <c r="C564" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A565" t="s">
+        <v>532</v>
+      </c>
+      <c r="B565">
+        <v>8</v>
+      </c>
+      <c r="C565" s="4">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A566" t="s">
+        <v>532</v>
+      </c>
+      <c r="B566">
+        <v>9</v>
+      </c>
+      <c r="C566" s="4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A567" t="s">
+        <v>533</v>
+      </c>
+      <c r="B567">
+        <v>0</v>
+      </c>
+      <c r="C567">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="568" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A568" t="s">
+        <v>533</v>
+      </c>
+      <c r="B568" s="4">
+        <v>1</v>
+      </c>
+      <c r="C568" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A569" t="s">
+        <v>533</v>
+      </c>
+      <c r="B569" s="4">
+        <v>2</v>
+      </c>
+      <c r="C569" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A570" t="s">
+        <v>533</v>
+      </c>
+      <c r="B570" s="4">
+        <v>3</v>
+      </c>
+      <c r="C570" s="4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="571" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A571" t="s">
+        <v>533</v>
+      </c>
+      <c r="B571" s="4">
+        <v>4</v>
+      </c>
+      <c r="C571" s="4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="572" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A572" t="s">
+        <v>533</v>
+      </c>
+      <c r="B572">
+        <v>5</v>
+      </c>
+      <c r="C572" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="573" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A573" t="s">
+        <v>533</v>
+      </c>
+      <c r="B573">
+        <v>6</v>
+      </c>
+      <c r="C573">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="574" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A574" t="s">
+        <v>533</v>
+      </c>
+      <c r="B574" s="4">
+        <v>7</v>
+      </c>
+      <c r="C574" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="575" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A575" t="s">
+        <v>533</v>
+      </c>
+      <c r="B575">
+        <v>8</v>
+      </c>
+      <c r="C575">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="576" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A576" t="s">
+        <v>533</v>
+      </c>
+      <c r="B576">
+        <v>98</v>
+      </c>
+      <c r="C576">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="577" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A577" t="s">
+        <v>533</v>
+      </c>
+      <c r="B577">
+        <v>99</v>
+      </c>
+      <c r="C577">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="578" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A578" t="s">
         <v>515</v>
       </c>
-      <c r="B531">
+      <c r="B578" s="4">
+        <v>0</v>
+      </c>
+      <c r="C578" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="579" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A579" t="s">
+        <v>515</v>
+      </c>
+      <c r="B579" s="4">
+        <v>1</v>
+      </c>
+      <c r="C579" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="580" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A580" t="s">
+        <v>515</v>
+      </c>
+      <c r="B580" s="4">
+        <v>2</v>
+      </c>
+      <c r="C580" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="581" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A581" t="s">
+        <v>515</v>
+      </c>
+      <c r="B581" s="4">
+        <v>3</v>
+      </c>
+      <c r="C581" s="5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="582" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A582" t="s">
+        <v>515</v>
+      </c>
+      <c r="B582" s="4">
+        <v>4</v>
+      </c>
+      <c r="C582" s="5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="583" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A583" t="s">
+        <v>515</v>
+      </c>
+      <c r="B583" s="4">
+        <v>5</v>
+      </c>
+      <c r="C583" s="5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="584" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A584" t="s">
+        <v>515</v>
+      </c>
+      <c r="B584" s="4">
+        <v>6</v>
+      </c>
+      <c r="C584" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="585" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A585" t="s">
+        <v>515</v>
+      </c>
+      <c r="B585">
         <v>9</v>
       </c>
-      <c r="C531">
+      <c r="C585" s="4">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="586" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A586" t="s">
+        <v>510</v>
+      </c>
+      <c r="B586" s="4">
+        <v>0</v>
+      </c>
+      <c r="C586" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="587" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A587" t="s">
+        <v>510</v>
+      </c>
+      <c r="B587" s="4">
+        <v>1</v>
+      </c>
+      <c r="C587" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="588" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A588" t="s">
+        <v>510</v>
+      </c>
+      <c r="B588" s="4">
+        <v>2</v>
+      </c>
+      <c r="C588" s="4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="589" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A589" t="s">
+        <v>510</v>
+      </c>
+      <c r="B589">
+        <v>3</v>
+      </c>
+      <c r="C589" s="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="590" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A590" t="s">
+        <v>510</v>
+      </c>
+      <c r="B590">
+        <v>4</v>
+      </c>
+      <c r="C590" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="591" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A591" t="s">
+        <v>510</v>
+      </c>
+      <c r="B591">
+        <v>5</v>
+      </c>
+      <c r="C591" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="592" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A592" t="s">
+        <v>510</v>
+      </c>
+      <c r="B592">
+        <v>8</v>
+      </c>
+      <c r="C592" s="4">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="593" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A593" t="s">
+        <v>510</v>
+      </c>
+      <c r="B593">
+        <v>9</v>
+      </c>
+      <c r="C593" s="4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="594" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A594" t="s">
+        <v>513</v>
+      </c>
+      <c r="B594" s="4">
+        <v>0</v>
+      </c>
+      <c r="C594" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="595" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A595" t="s">
+        <v>513</v>
+      </c>
+      <c r="B595" s="4">
+        <v>1</v>
+      </c>
+      <c r="C595" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="596" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A596" t="s">
+        <v>513</v>
+      </c>
+      <c r="B596" s="4">
+        <v>2</v>
+      </c>
+      <c r="C596" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="597" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A597" t="s">
+        <v>513</v>
+      </c>
+      <c r="B597" s="4">
+        <v>3</v>
+      </c>
+      <c r="C597" s="4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="598" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A598" t="s">
+        <v>513</v>
+      </c>
+      <c r="B598" s="4">
+        <v>4</v>
+      </c>
+      <c r="C598" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="599" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A599" t="s">
+        <v>513</v>
+      </c>
+      <c r="B599">
+        <v>8</v>
+      </c>
+      <c r="C599" s="4">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="600" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A600" t="s">
+        <v>513</v>
+      </c>
+      <c r="B600">
+        <v>9</v>
+      </c>
+      <c r="C600" s="4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="601" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A601" t="s">
+        <v>514</v>
+      </c>
+      <c r="B601">
+        <v>0</v>
+      </c>
+      <c r="C601">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="602" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A602" t="s">
+        <v>514</v>
+      </c>
+      <c r="B602" s="4">
+        <v>1</v>
+      </c>
+      <c r="C602" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="603" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A603" t="s">
+        <v>514</v>
+      </c>
+      <c r="B603" s="4">
+        <v>2</v>
+      </c>
+      <c r="C603" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="604" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A604" t="s">
+        <v>514</v>
+      </c>
+      <c r="B604" s="4">
+        <v>3</v>
+      </c>
+      <c r="C604" s="4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="605" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A605" t="s">
+        <v>514</v>
+      </c>
+      <c r="B605">
+        <v>4</v>
+      </c>
+      <c r="C605" s="4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="606" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A606" t="s">
+        <v>514</v>
+      </c>
+      <c r="B606">
+        <v>5</v>
+      </c>
+      <c r="C606" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="607" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A607" t="s">
+        <v>514</v>
+      </c>
+      <c r="B607">
+        <v>8</v>
+      </c>
+      <c r="C607" s="4">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="608" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A608" t="s">
+        <v>514</v>
+      </c>
+      <c r="B608">
+        <v>9</v>
+      </c>
+      <c r="C608" s="4">
         <v>99</v>
       </c>
     </row>
@@ -16811,10 +18533,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMH532"/>
+  <dimension ref="A1:AMH609"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A264" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C278" sqref="C278"/>
+    <sheetView tabSelected="1" topLeftCell="A464" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A480" sqref="A480:C609"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -22098,29 +23820,29 @@
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>514</v>
-      </c>
-      <c r="B480">
-        <v>0</v>
-      </c>
-      <c r="C480">
+        <v>525</v>
+      </c>
+      <c r="B480" s="4">
+        <v>0</v>
+      </c>
+      <c r="C480" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>514</v>
+        <v>525</v>
       </c>
       <c r="B481">
         <v>1</v>
       </c>
-      <c r="C481">
+      <c r="C481" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>514</v>
+        <v>525</v>
       </c>
       <c r="B482">
         <v>2</v>
@@ -22131,9 +23853,9 @@
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>514</v>
-      </c>
-      <c r="B483">
+        <v>525</v>
+      </c>
+      <c r="B483" s="4">
         <v>3</v>
       </c>
       <c r="C483">
@@ -22142,540 +23864,1387 @@
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>514</v>
+        <v>525</v>
       </c>
       <c r="B484">
         <v>4</v>
       </c>
-      <c r="C484">
+      <c r="C484" s="4">
         <v>22</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>514</v>
-      </c>
-      <c r="B485">
+        <v>525</v>
+      </c>
+      <c r="B485" s="4">
         <v>5</v>
       </c>
-      <c r="C485">
-        <v>3</v>
+      <c r="C485" s="4">
+        <v>51</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>514</v>
-      </c>
-      <c r="B486">
-        <v>8</v>
-      </c>
-      <c r="C486">
-        <v>98</v>
+        <v>525</v>
+      </c>
+      <c r="B486" s="4">
+        <v>6</v>
+      </c>
+      <c r="C486" s="4">
+        <v>3</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>514</v>
+        <v>525</v>
       </c>
       <c r="B487">
-        <v>9</v>
-      </c>
-      <c r="C487">
-        <v>99</v>
+        <v>7</v>
+      </c>
+      <c r="C487" s="4">
+        <v>3</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>513</v>
-      </c>
-      <c r="B488" s="4">
-        <v>0</v>
+        <v>525</v>
+      </c>
+      <c r="B488">
+        <v>8</v>
       </c>
       <c r="C488" s="4">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>513</v>
-      </c>
-      <c r="B489" s="4">
-        <v>1</v>
+        <v>525</v>
+      </c>
+      <c r="B489">
+        <v>9</v>
       </c>
       <c r="C489" s="4">
-        <v>1</v>
+        <v>80</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>513</v>
-      </c>
-      <c r="B490" s="4">
-        <v>2</v>
+        <v>525</v>
+      </c>
+      <c r="B490">
+        <v>98</v>
       </c>
       <c r="C490" s="4">
-        <v>21</v>
+        <v>98</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>513</v>
-      </c>
-      <c r="B491" s="4">
-        <v>3</v>
+        <v>525</v>
+      </c>
+      <c r="B491">
+        <v>99</v>
       </c>
       <c r="C491" s="4">
-        <v>22</v>
+        <v>99</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
-        <v>513</v>
+        <v>526</v>
       </c>
       <c r="B492" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C492" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>513</v>
-      </c>
-      <c r="B493">
-        <v>8</v>
+        <v>526</v>
+      </c>
+      <c r="B493" s="4">
+        <v>1</v>
       </c>
       <c r="C493" s="4">
-        <v>98</v>
+        <v>1</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>513</v>
-      </c>
-      <c r="B494">
-        <v>9</v>
-      </c>
-      <c r="C494" s="4">
-        <v>99</v>
+        <v>526</v>
+      </c>
+      <c r="B494" s="4">
+        <v>2</v>
+      </c>
+      <c r="C494" s="5">
+        <v>21</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
-        <v>512</v>
-      </c>
-      <c r="B495">
-        <v>0</v>
-      </c>
-      <c r="C495" s="4">
-        <v>0</v>
+        <v>526</v>
+      </c>
+      <c r="B495" s="4">
+        <v>3</v>
+      </c>
+      <c r="C495" s="5">
+        <v>22</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>512</v>
+        <v>526</v>
       </c>
       <c r="B496">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C496" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>512</v>
+        <v>526</v>
       </c>
       <c r="B497">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C497" s="4">
-        <v>21</v>
+        <v>98</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
-        <v>512</v>
+        <v>526</v>
       </c>
       <c r="B498">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C498" s="4">
-        <v>22</v>
+        <v>99</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
-        <v>512</v>
-      </c>
-      <c r="B499">
-        <v>4</v>
+        <v>527</v>
+      </c>
+      <c r="B499" s="4">
+        <v>0</v>
       </c>
       <c r="C499" s="4">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
-        <v>512</v>
-      </c>
-      <c r="B500">
-        <v>5</v>
+        <v>527</v>
+      </c>
+      <c r="B500" s="4">
+        <v>1</v>
       </c>
       <c r="C500" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
-        <v>512</v>
-      </c>
-      <c r="B501">
-        <v>8</v>
+        <v>527</v>
+      </c>
+      <c r="B501" s="4">
+        <v>2</v>
       </c>
       <c r="C501" s="4">
-        <v>98</v>
+        <v>21</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
-        <v>512</v>
-      </c>
-      <c r="B502">
-        <v>9</v>
-      </c>
-      <c r="C502" s="4">
-        <v>99</v>
+        <v>527</v>
+      </c>
+      <c r="B502" s="4">
+        <v>3</v>
+      </c>
+      <c r="C502" s="5">
+        <v>22</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
-        <v>511</v>
+        <v>527</v>
       </c>
       <c r="B503" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C503" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
-        <v>511</v>
-      </c>
-      <c r="B504" s="4">
-        <v>1</v>
-      </c>
-      <c r="C504">
-        <v>1</v>
+        <v>527</v>
+      </c>
+      <c r="B504">
+        <v>5</v>
+      </c>
+      <c r="C504" s="4">
+        <v>33</v>
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
-        <v>511</v>
-      </c>
-      <c r="B505" s="4">
-        <v>2</v>
+        <v>527</v>
+      </c>
+      <c r="B505">
+        <v>8</v>
       </c>
       <c r="C505" s="4">
-        <v>22</v>
+        <v>99</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
-        <v>511</v>
-      </c>
-      <c r="B506" s="4">
-        <v>3</v>
+        <v>527</v>
+      </c>
+      <c r="B506">
+        <v>9</v>
       </c>
       <c r="C506" s="4">
-        <v>3</v>
+        <v>98</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
-        <v>511</v>
+        <v>528</v>
       </c>
       <c r="B507">
-        <v>8</v>
-      </c>
-      <c r="C507" s="4">
-        <v>98</v>
+        <v>0</v>
+      </c>
+      <c r="C507">
+        <v>0</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
-        <v>510</v>
-      </c>
-      <c r="B508">
-        <v>0</v>
+        <v>528</v>
+      </c>
+      <c r="B508" s="4">
+        <v>1</v>
       </c>
       <c r="C508" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
-        <v>510</v>
-      </c>
-      <c r="B509">
-        <v>1</v>
-      </c>
-      <c r="C509" s="4">
-        <v>1</v>
+        <v>528</v>
+      </c>
+      <c r="B509" s="4">
+        <v>2</v>
+      </c>
+      <c r="C509" s="5">
+        <v>22</v>
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
-        <v>510</v>
-      </c>
-      <c r="B510">
-        <v>2</v>
+        <v>528</v>
+      </c>
+      <c r="B510" s="4">
+        <v>4</v>
       </c>
       <c r="C510" s="4">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
-        <v>510</v>
+        <v>528</v>
       </c>
       <c r="B511">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C511" s="4">
-        <v>22</v>
+        <v>50</v>
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
-        <v>510</v>
+        <v>528</v>
       </c>
       <c r="B512">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C512" s="4">
-        <v>22</v>
+        <v>98</v>
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
-        <v>510</v>
+        <v>528</v>
       </c>
       <c r="B513">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C513" s="4">
-        <v>3</v>
+        <v>99</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
-        <v>510</v>
-      </c>
-      <c r="B514">
-        <v>8</v>
+        <v>511</v>
+      </c>
+      <c r="B514" s="4">
+        <v>0</v>
       </c>
       <c r="C514" s="4">
-        <v>98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
-        <v>510</v>
-      </c>
-      <c r="B515">
-        <v>9</v>
+        <v>511</v>
+      </c>
+      <c r="B515" s="4">
+        <v>1</v>
       </c>
       <c r="C515" s="4">
-        <v>99</v>
+        <v>21</v>
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
-        <v>509</v>
-      </c>
-      <c r="B516">
-        <v>0</v>
-      </c>
-      <c r="C516">
-        <v>0</v>
+        <v>511</v>
+      </c>
+      <c r="B516" s="4">
+        <v>2</v>
+      </c>
+      <c r="C516" s="4">
+        <v>22</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
-        <v>509</v>
-      </c>
-      <c r="B517">
-        <v>10</v>
-      </c>
-      <c r="C517">
-        <v>1</v>
+        <v>511</v>
+      </c>
+      <c r="B517" s="4">
+        <v>3</v>
+      </c>
+      <c r="C517" s="4">
+        <v>3</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="B518">
-        <v>20</v>
-      </c>
-      <c r="C518">
-        <v>21</v>
+        <v>8</v>
+      </c>
+      <c r="C518" s="4">
+        <v>98</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
-        <v>509</v>
+        <v>529</v>
       </c>
       <c r="B519">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="C519">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
-        <v>509</v>
-      </c>
-      <c r="B520">
-        <v>30</v>
+        <v>529</v>
+      </c>
+      <c r="B520" s="4">
+        <v>11</v>
       </c>
       <c r="C520">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
-        <v>509</v>
+        <v>529</v>
       </c>
       <c r="B521">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="C521">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
-        <v>509</v>
+        <v>529</v>
       </c>
       <c r="B522">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="C522">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
-        <v>509</v>
+        <v>529</v>
       </c>
       <c r="B523">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="C523">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
-        <v>509</v>
+        <v>529</v>
       </c>
       <c r="B524">
-        <v>98</v>
-      </c>
-      <c r="C524">
-        <v>98</v>
+        <v>15</v>
+      </c>
+      <c r="C524" s="4">
+        <v>33</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
-        <v>515</v>
-      </c>
-      <c r="B525" s="4">
-        <v>0</v>
+        <v>529</v>
+      </c>
+      <c r="B525">
+        <v>16</v>
       </c>
       <c r="C525">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
-        <v>515</v>
-      </c>
-      <c r="B526" s="4">
-        <v>1</v>
+        <v>529</v>
+      </c>
+      <c r="B526">
+        <v>17</v>
       </c>
       <c r="C526">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
-        <v>515</v>
-      </c>
-      <c r="B527" s="4">
-        <v>2</v>
+        <v>529</v>
+      </c>
+      <c r="B527">
+        <v>18</v>
       </c>
       <c r="C527">
-        <v>1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
-        <v>515</v>
-      </c>
-      <c r="B528" s="4">
-        <v>3</v>
+        <v>529</v>
+      </c>
+      <c r="B528">
+        <v>98</v>
       </c>
       <c r="C528">
-        <v>1</v>
+        <v>98</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
-        <v>515</v>
-      </c>
-      <c r="B529" s="4">
-        <v>4</v>
+        <v>529</v>
+      </c>
+      <c r="B529">
+        <v>99</v>
       </c>
       <c r="C529">
-        <v>21</v>
+        <v>99</v>
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
-        <v>515</v>
-      </c>
-      <c r="B530" s="4">
-        <v>5</v>
+        <v>530</v>
+      </c>
+      <c r="B530">
+        <v>0</v>
       </c>
       <c r="C530">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
-        <v>515</v>
-      </c>
-      <c r="B531">
-        <v>6</v>
+        <v>530</v>
+      </c>
+      <c r="B531" s="4">
+        <v>1</v>
       </c>
       <c r="C531">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
+        <v>530</v>
+      </c>
+      <c r="B532" s="4">
+        <v>2</v>
+      </c>
+      <c r="C532" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A533" t="s">
+        <v>530</v>
+      </c>
+      <c r="B533">
+        <v>4</v>
+      </c>
+      <c r="C533">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A534" t="s">
+        <v>530</v>
+      </c>
+      <c r="B534">
+        <v>5</v>
+      </c>
+      <c r="C534">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A535" t="s">
+        <v>530</v>
+      </c>
+      <c r="B535">
+        <v>8</v>
+      </c>
+      <c r="C535">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A536" t="s">
+        <v>531</v>
+      </c>
+      <c r="B536" s="4">
+        <v>0</v>
+      </c>
+      <c r="C536" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A537" t="s">
+        <v>531</v>
+      </c>
+      <c r="B537" s="4">
+        <v>1</v>
+      </c>
+      <c r="C537" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A538" t="s">
+        <v>531</v>
+      </c>
+      <c r="B538" s="4">
+        <v>2</v>
+      </c>
+      <c r="C538" s="5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A539" t="s">
+        <v>531</v>
+      </c>
+      <c r="B539" s="4">
+        <v>3</v>
+      </c>
+      <c r="C539" s="5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A540" t="s">
+        <v>531</v>
+      </c>
+      <c r="B540" s="4">
+        <v>4</v>
+      </c>
+      <c r="C540" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A541" t="s">
+        <v>531</v>
+      </c>
+      <c r="B541" s="4">
+        <v>5</v>
+      </c>
+      <c r="C541" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A542" t="s">
+        <v>531</v>
+      </c>
+      <c r="B542" s="4">
+        <v>6</v>
+      </c>
+      <c r="C542" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A543" t="s">
+        <v>531</v>
+      </c>
+      <c r="B543">
+        <v>7</v>
+      </c>
+      <c r="C543" s="4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A544" t="s">
+        <v>531</v>
+      </c>
+      <c r="B544">
+        <v>9</v>
+      </c>
+      <c r="C544" s="4">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A545" t="s">
+        <v>509</v>
+      </c>
+      <c r="B545">
+        <v>0</v>
+      </c>
+      <c r="C545">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A546" t="s">
+        <v>509</v>
+      </c>
+      <c r="B546" s="4">
+        <v>10</v>
+      </c>
+      <c r="C546" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A547" t="s">
+        <v>509</v>
+      </c>
+      <c r="B547" s="4">
+        <v>20</v>
+      </c>
+      <c r="C547" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A548" t="s">
+        <v>509</v>
+      </c>
+      <c r="B548">
+        <v>21</v>
+      </c>
+      <c r="C548">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A549" t="s">
+        <v>509</v>
+      </c>
+      <c r="B549" s="4">
+        <v>30</v>
+      </c>
+      <c r="C549" s="4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A550" t="s">
+        <v>509</v>
+      </c>
+      <c r="B550">
+        <v>31</v>
+      </c>
+      <c r="C550" s="4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A551" t="s">
+        <v>509</v>
+      </c>
+      <c r="B551">
+        <v>40</v>
+      </c>
+      <c r="C551" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A552" t="s">
+        <v>509</v>
+      </c>
+      <c r="B552">
+        <v>41</v>
+      </c>
+      <c r="C552" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A553" t="s">
+        <v>509</v>
+      </c>
+      <c r="B553">
+        <v>98</v>
+      </c>
+      <c r="C553" s="4">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A554" t="s">
+        <v>512</v>
+      </c>
+      <c r="B554">
+        <v>0</v>
+      </c>
+      <c r="C554" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A555" t="s">
+        <v>512</v>
+      </c>
+      <c r="B555">
+        <v>1</v>
+      </c>
+      <c r="C555" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A556" t="s">
+        <v>512</v>
+      </c>
+      <c r="B556">
+        <v>2</v>
+      </c>
+      <c r="C556" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A557" t="s">
+        <v>512</v>
+      </c>
+      <c r="B557">
+        <v>3</v>
+      </c>
+      <c r="C557" s="4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A558" t="s">
+        <v>512</v>
+      </c>
+      <c r="B558">
+        <v>4</v>
+      </c>
+      <c r="C558" s="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A559" t="s">
+        <v>512</v>
+      </c>
+      <c r="B559">
+        <v>5</v>
+      </c>
+      <c r="C559" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A560" t="s">
+        <v>512</v>
+      </c>
+      <c r="B560">
+        <v>8</v>
+      </c>
+      <c r="C560" s="4">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A561" t="s">
+        <v>512</v>
+      </c>
+      <c r="B561">
+        <v>9</v>
+      </c>
+      <c r="C561" s="4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A562" t="s">
+        <v>532</v>
+      </c>
+      <c r="B562" s="4">
+        <v>0</v>
+      </c>
+      <c r="C562" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A563" t="s">
+        <v>532</v>
+      </c>
+      <c r="B563" s="4">
+        <v>1</v>
+      </c>
+      <c r="C563" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A564" t="s">
+        <v>532</v>
+      </c>
+      <c r="B564" s="4">
+        <v>2</v>
+      </c>
+      <c r="C564" s="4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A565" t="s">
+        <v>532</v>
+      </c>
+      <c r="B565" s="4">
+        <v>4</v>
+      </c>
+      <c r="C565" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A566" t="s">
+        <v>532</v>
+      </c>
+      <c r="B566">
+        <v>8</v>
+      </c>
+      <c r="C566" s="4">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A567" t="s">
+        <v>532</v>
+      </c>
+      <c r="B567">
+        <v>9</v>
+      </c>
+      <c r="C567" s="4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="568" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A568" t="s">
+        <v>533</v>
+      </c>
+      <c r="B568">
+        <v>0</v>
+      </c>
+      <c r="C568">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A569" t="s">
+        <v>533</v>
+      </c>
+      <c r="B569" s="4">
+        <v>1</v>
+      </c>
+      <c r="C569" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A570" t="s">
+        <v>533</v>
+      </c>
+      <c r="B570" s="4">
+        <v>2</v>
+      </c>
+      <c r="C570" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="571" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A571" t="s">
+        <v>533</v>
+      </c>
+      <c r="B571" s="4">
+        <v>3</v>
+      </c>
+      <c r="C571" s="4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="572" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A572" t="s">
+        <v>533</v>
+      </c>
+      <c r="B572" s="4">
+        <v>4</v>
+      </c>
+      <c r="C572" s="4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="573" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A573" t="s">
+        <v>533</v>
+      </c>
+      <c r="B573">
+        <v>5</v>
+      </c>
+      <c r="C573" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="574" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A574" t="s">
+        <v>533</v>
+      </c>
+      <c r="B574">
+        <v>6</v>
+      </c>
+      <c r="C574">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="575" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A575" t="s">
+        <v>533</v>
+      </c>
+      <c r="B575" s="4">
+        <v>7</v>
+      </c>
+      <c r="C575" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="576" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A576" t="s">
+        <v>533</v>
+      </c>
+      <c r="B576">
+        <v>8</v>
+      </c>
+      <c r="C576">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="577" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A577" t="s">
+        <v>533</v>
+      </c>
+      <c r="B577">
+        <v>98</v>
+      </c>
+      <c r="C577">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="578" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A578" t="s">
+        <v>533</v>
+      </c>
+      <c r="B578">
+        <v>99</v>
+      </c>
+      <c r="C578">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="579" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A579" t="s">
         <v>515</v>
       </c>
-      <c r="B532">
+      <c r="B579" s="4">
+        <v>0</v>
+      </c>
+      <c r="C579" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="580" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A580" t="s">
+        <v>515</v>
+      </c>
+      <c r="B580" s="4">
+        <v>1</v>
+      </c>
+      <c r="C580" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="581" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A581" t="s">
+        <v>515</v>
+      </c>
+      <c r="B581" s="4">
+        <v>2</v>
+      </c>
+      <c r="C581" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="582" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A582" t="s">
+        <v>515</v>
+      </c>
+      <c r="B582" s="4">
+        <v>3</v>
+      </c>
+      <c r="C582" s="5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="583" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A583" t="s">
+        <v>515</v>
+      </c>
+      <c r="B583" s="4">
+        <v>4</v>
+      </c>
+      <c r="C583" s="5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="584" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A584" t="s">
+        <v>515</v>
+      </c>
+      <c r="B584" s="4">
+        <v>5</v>
+      </c>
+      <c r="C584" s="5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="585" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A585" t="s">
+        <v>515</v>
+      </c>
+      <c r="B585" s="4">
+        <v>6</v>
+      </c>
+      <c r="C585" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="586" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A586" t="s">
+        <v>515</v>
+      </c>
+      <c r="B586">
         <v>9</v>
       </c>
-      <c r="C532">
+      <c r="C586" s="4">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="587" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A587" t="s">
+        <v>510</v>
+      </c>
+      <c r="B587" s="4">
+        <v>0</v>
+      </c>
+      <c r="C587" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="588" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A588" t="s">
+        <v>510</v>
+      </c>
+      <c r="B588" s="4">
+        <v>1</v>
+      </c>
+      <c r="C588" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="589" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A589" t="s">
+        <v>510</v>
+      </c>
+      <c r="B589" s="4">
+        <v>2</v>
+      </c>
+      <c r="C589" s="4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="590" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A590" t="s">
+        <v>510</v>
+      </c>
+      <c r="B590">
+        <v>3</v>
+      </c>
+      <c r="C590" s="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="591" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A591" t="s">
+        <v>510</v>
+      </c>
+      <c r="B591">
+        <v>4</v>
+      </c>
+      <c r="C591" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="592" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A592" t="s">
+        <v>510</v>
+      </c>
+      <c r="B592">
+        <v>5</v>
+      </c>
+      <c r="C592" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="593" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A593" t="s">
+        <v>510</v>
+      </c>
+      <c r="B593">
+        <v>8</v>
+      </c>
+      <c r="C593" s="4">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="594" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A594" t="s">
+        <v>510</v>
+      </c>
+      <c r="B594">
+        <v>9</v>
+      </c>
+      <c r="C594" s="4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="595" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A595" t="s">
+        <v>513</v>
+      </c>
+      <c r="B595" s="4">
+        <v>0</v>
+      </c>
+      <c r="C595" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="596" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A596" t="s">
+        <v>513</v>
+      </c>
+      <c r="B596" s="4">
+        <v>1</v>
+      </c>
+      <c r="C596" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="597" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A597" t="s">
+        <v>513</v>
+      </c>
+      <c r="B597" s="4">
+        <v>2</v>
+      </c>
+      <c r="C597" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="598" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A598" t="s">
+        <v>513</v>
+      </c>
+      <c r="B598" s="4">
+        <v>3</v>
+      </c>
+      <c r="C598" s="4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="599" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A599" t="s">
+        <v>513</v>
+      </c>
+      <c r="B599" s="4">
+        <v>4</v>
+      </c>
+      <c r="C599" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="600" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A600" t="s">
+        <v>513</v>
+      </c>
+      <c r="B600">
+        <v>8</v>
+      </c>
+      <c r="C600" s="4">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="601" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A601" t="s">
+        <v>513</v>
+      </c>
+      <c r="B601">
+        <v>9</v>
+      </c>
+      <c r="C601" s="4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="602" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A602" t="s">
+        <v>514</v>
+      </c>
+      <c r="B602">
+        <v>0</v>
+      </c>
+      <c r="C602">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="603" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A603" t="s">
+        <v>514</v>
+      </c>
+      <c r="B603" s="4">
+        <v>1</v>
+      </c>
+      <c r="C603" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="604" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A604" t="s">
+        <v>514</v>
+      </c>
+      <c r="B604" s="4">
+        <v>2</v>
+      </c>
+      <c r="C604" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="605" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A605" t="s">
+        <v>514</v>
+      </c>
+      <c r="B605" s="4">
+        <v>3</v>
+      </c>
+      <c r="C605" s="4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="606" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A606" t="s">
+        <v>514</v>
+      </c>
+      <c r="B606">
+        <v>4</v>
+      </c>
+      <c r="C606" s="4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="607" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A607" t="s">
+        <v>514</v>
+      </c>
+      <c r="B607">
+        <v>5</v>
+      </c>
+      <c r="C607" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="608" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A608" t="s">
+        <v>514</v>
+      </c>
+      <c r="B608">
+        <v>8</v>
+      </c>
+      <c r="C608" s="4">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="609" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A609" t="s">
+        <v>514</v>
+      </c>
+      <c r="B609">
+        <v>9</v>
+      </c>
+      <c r="C609" s="4">
         <v>99</v>
       </c>
     </row>

--- a/wide_pipeline/mics_dictionary_setcode.xlsx
+++ b/wide_pipeline/mics_dictionary_setcode.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ado\personal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1779765C-C9F8-433A-9F9C-237DCD41B572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77C66A4-2D9E-4B9A-95A6-072BE8C1C2F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="605" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="605" firstSheet="5" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dictionary" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2957" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2961" uniqueCount="540">
   <si>
     <t>original_name</t>
   </si>
@@ -1665,9 +1665,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -1699,10 +1705,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1990,7 +1995,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H65" sqref="H65"/>
     </sheetView>
   </sheetViews>
@@ -2598,7 +2603,7 @@
       <c r="C38" t="s">
         <v>64</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" t="s">
         <v>63</v>
       </c>
       <c r="F38">
@@ -2631,7 +2636,7 @@
       <c r="B41" t="s">
         <v>68</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" t="s">
         <v>68</v>
       </c>
       <c r="E41" t="s">
@@ -3068,7 +3073,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:AMJ25"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
@@ -3079,7 +3084,6 @@
     <col min="1" max="1" width="22.28515625" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
     <col min="3" max="64" width="7.85546875" customWidth="1"/>
-    <col min="65" max="1024" width="10.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -3294,7 +3298,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:AMJ25"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
@@ -3305,7 +3309,6 @@
     <col min="1" max="1" width="22.28515625" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
     <col min="3" max="64" width="7.85546875" customWidth="1"/>
-    <col min="65" max="1024" width="10.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -3520,7 +3523,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:AMJ6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -3533,7 +3536,6 @@
     <col min="3" max="3" width="4.85546875" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" customWidth="1"/>
     <col min="5" max="64" width="7.85546875" customWidth="1"/>
-    <col min="65" max="1024" width="10.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -3632,7 +3634,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:AMJ7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
@@ -3640,8 +3642,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="1" max="2" width="17.85546875" customWidth="1"/>
     <col min="3" max="3" width="8.85546875" customWidth="1"/>
     <col min="4" max="4" width="13.140625" customWidth="1"/>
     <col min="5" max="5" width="15.5703125" customWidth="1"/>
@@ -3649,11 +3650,10 @@
     <col min="7" max="7" width="14" customWidth="1"/>
     <col min="8" max="8" width="21.140625" customWidth="1"/>
     <col min="9" max="65" width="7.85546875" customWidth="1"/>
-    <col min="66" max="1024" width="10.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>167</v>
       </c>
       <c r="B1" t="s">
@@ -3679,7 +3679,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>173</v>
       </c>
       <c r="B2" t="s">
@@ -3696,7 +3696,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>176</v>
       </c>
       <c r="B3" t="s">
@@ -3713,7 +3713,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>176</v>
       </c>
       <c r="B4" t="s">
@@ -3730,7 +3730,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>179</v>
       </c>
       <c r="B5" t="s">
@@ -3747,7 +3747,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>181</v>
       </c>
       <c r="B6" t="s">
@@ -3764,7 +3764,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>183</v>
       </c>
       <c r="B7" t="s">
@@ -3792,7 +3792,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:AMJ24"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
@@ -3803,7 +3803,6 @@
     <col min="1" max="1" width="21.42578125" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" customWidth="1"/>
     <col min="3" max="64" width="7.85546875" customWidth="1"/>
-    <col min="65" max="1024" width="10.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -4010,10 +4009,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:AMJ47"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="A7" sqref="A7:C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4022,7 +4021,6 @@
     <col min="2" max="2" width="27.85546875" customWidth="1"/>
     <col min="3" max="3" width="28.140625" customWidth="1"/>
     <col min="4" max="64" width="7.85546875" customWidth="1"/>
-    <col min="65" max="1024" width="10.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -4535,10 +4533,10 @@
       <c r="A47" t="s">
         <v>320</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="1" t="s">
         <v>322</v>
       </c>
     </row>
@@ -4554,7 +4552,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:AMJ57"/>
+  <dimension ref="A1:B57"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
@@ -4565,7 +4563,6 @@
     <col min="1" max="1" width="24.7109375" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" customWidth="1"/>
     <col min="3" max="64" width="7.85546875" customWidth="1"/>
-    <col min="65" max="1024" width="10.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -5036,10 +5033,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:AMG619"/>
+  <dimension ref="A1:J623"/>
   <sheetViews>
-    <sheetView topLeftCell="A475" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A490" sqref="A490:C619"/>
+    <sheetView tabSelected="1" topLeftCell="A252" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B278" sqref="B278:C284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5048,7 +5045,6 @@
     <col min="2" max="2" width="9.140625" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" customWidth="1"/>
     <col min="4" max="63" width="7.85546875" customWidth="1"/>
-    <col min="64" max="1021" width="10.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -8103,10 +8099,10 @@
         <v>454</v>
       </c>
       <c r="B278">
-        <v>4</v>
-      </c>
-      <c r="C278">
-        <v>23</v>
+        <v>0</v>
+      </c>
+      <c r="C278" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.2">
@@ -8114,10 +8110,10 @@
         <v>454</v>
       </c>
       <c r="B279">
-        <v>8</v>
-      </c>
-      <c r="C279">
-        <v>98</v>
+        <v>1</v>
+      </c>
+      <c r="C279" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.2">
@@ -8125,54 +8121,54 @@
         <v>454</v>
       </c>
       <c r="B280">
-        <v>9</v>
-      </c>
-      <c r="C280">
-        <v>99</v>
+        <v>2</v>
+      </c>
+      <c r="C280" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B281">
-        <v>4</v>
-      </c>
-      <c r="C281">
-        <v>23</v>
+        <v>3</v>
+      </c>
+      <c r="C281" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B282">
-        <v>2</v>
-      </c>
-      <c r="C282">
-        <v>21</v>
+        <v>4</v>
+      </c>
+      <c r="C282" s="3">
+        <v>23</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B283">
-        <v>3</v>
-      </c>
-      <c r="C283">
-        <v>22</v>
+        <v>8</v>
+      </c>
+      <c r="C283" s="3">
+        <v>98</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B284">
-        <v>8</v>
-      </c>
-      <c r="C284">
-        <v>98</v>
+        <v>9</v>
+      </c>
+      <c r="C284" s="3">
+        <v>99</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.2">
@@ -8180,54 +8176,54 @@
         <v>455</v>
       </c>
       <c r="B285">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C285">
-        <v>99</v>
+        <v>23</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B286">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C286">
-        <v>60</v>
+        <v>21</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B287">
         <v>3</v>
       </c>
       <c r="C287">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B288">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C288">
-        <v>3</v>
+        <v>98</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B289">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C289">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.2">
@@ -8235,54 +8231,54 @@
         <v>456</v>
       </c>
       <c r="B290">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C290">
-        <v>99</v>
+        <v>60</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B291">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C291">
-        <v>60</v>
+        <v>24</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B292">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C292">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B293">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C293">
-        <v>23</v>
+        <v>98</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B294">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C294">
-        <v>22</v>
+        <v>99</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.2">
@@ -8290,10 +8286,10 @@
         <v>457</v>
       </c>
       <c r="B295">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C295">
-        <v>24</v>
+        <v>60</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.2">
@@ -8301,10 +8297,10 @@
         <v>457</v>
       </c>
       <c r="B296">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C296">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.2">
@@ -8312,10 +8308,10 @@
         <v>457</v>
       </c>
       <c r="B297">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C297">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.2">
@@ -8323,10 +8319,10 @@
         <v>457</v>
       </c>
       <c r="B298">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C298">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.2">
@@ -8334,10 +8330,10 @@
         <v>457</v>
       </c>
       <c r="B299">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C299">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.2">
@@ -8345,54 +8341,54 @@
         <v>457</v>
       </c>
       <c r="B300">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C300">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B301">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C301">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B302">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C302">
-        <v>22</v>
+        <v>3</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B303">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C303">
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B304">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C304">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.2">
@@ -8400,10 +8396,10 @@
         <v>458</v>
       </c>
       <c r="B305">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C305">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.2">
@@ -8411,10 +8407,10 @@
         <v>458</v>
       </c>
       <c r="B306">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C306">
-        <v>98</v>
+        <v>22</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.2">
@@ -8422,55 +8418,54 @@
         <v>458</v>
       </c>
       <c r="B307">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C307">
-        <v>99</v>
+        <v>24</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>482</v>
+        <v>458</v>
       </c>
       <c r="B308">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C308">
-        <v>0</v>
-      </c>
-      <c r="D308" s="3"/>
+        <v>33</v>
+      </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>482</v>
+        <v>458</v>
       </c>
       <c r="B309">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C309">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>482</v>
+        <v>458</v>
       </c>
       <c r="B310">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C310">
-        <v>2</v>
+        <v>98</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>482</v>
+        <v>458</v>
       </c>
       <c r="B311">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C311">
-        <v>3</v>
+        <v>99</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.2">
@@ -8478,65 +8473,66 @@
         <v>482</v>
       </c>
       <c r="B312">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C312">
-        <v>98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D312" s="2"/>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>482</v>
       </c>
       <c r="B313">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C313">
-        <v>99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B314">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C314">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B315">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C315">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B316">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C316">
-        <v>21</v>
+        <v>98</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B317">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C317">
-        <v>22</v>
+        <v>99</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.2">
@@ -8544,10 +8540,10 @@
         <v>483</v>
       </c>
       <c r="B318">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C318">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.2">
@@ -8555,10 +8551,10 @@
         <v>483</v>
       </c>
       <c r="B319">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C319">
-        <v>98</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.2">
@@ -8566,54 +8562,54 @@
         <v>483</v>
       </c>
       <c r="B320">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C320">
-        <v>99</v>
+        <v>21</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B321">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C321">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B322">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C322">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B323">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C323">
-        <v>2</v>
+        <v>98</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B324">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C324">
-        <v>3</v>
+        <v>99</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.2">
@@ -8621,10 +8617,10 @@
         <v>484</v>
       </c>
       <c r="B325">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C325">
-        <v>98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.2">
@@ -8632,54 +8628,54 @@
         <v>484</v>
       </c>
       <c r="B326">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C326">
-        <v>99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B327">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B328">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C328">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B329">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C329">
-        <v>21</v>
+        <v>98</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B330">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C330">
-        <v>22</v>
+        <v>99</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.2">
@@ -8687,10 +8683,10 @@
         <v>485</v>
       </c>
       <c r="B331">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C331">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.2">
@@ -8698,10 +8694,10 @@
         <v>485</v>
       </c>
       <c r="B332">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C332">
-        <v>24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.2">
@@ -8709,10 +8705,10 @@
         <v>485</v>
       </c>
       <c r="B333">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C333">
-        <v>98</v>
+        <v>21</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.2">
@@ -8720,54 +8716,54 @@
         <v>485</v>
       </c>
       <c r="B334">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C334">
-        <v>99</v>
+        <v>22</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B335">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C335">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B336">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C336">
-        <v>70</v>
+        <v>24</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B337">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C337">
-        <v>23</v>
+        <v>98</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B338">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C338">
-        <v>24</v>
+        <v>99</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.2">
@@ -8775,10 +8771,10 @@
         <v>486</v>
       </c>
       <c r="B339">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C339">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.2">
@@ -8786,54 +8782,54 @@
         <v>486</v>
       </c>
       <c r="B340">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C340">
-        <v>98</v>
+        <v>70</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B341">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C341">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B342">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C342">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B343">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C343">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B344">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C344">
-        <v>22</v>
+        <v>98</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.2">
@@ -8841,10 +8837,10 @@
         <v>487</v>
       </c>
       <c r="B345">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C345">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.2">
@@ -8852,10 +8848,10 @@
         <v>487</v>
       </c>
       <c r="B346">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C346">
-        <v>97</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.2">
@@ -8863,54 +8859,54 @@
         <v>487</v>
       </c>
       <c r="B347">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C347">
-        <v>98</v>
+        <v>21</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B348">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C348">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B349">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C349">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B350">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C350">
-        <v>21</v>
+        <v>97</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B351">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C351">
-        <v>21</v>
+        <v>98</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.2">
@@ -8918,10 +8914,10 @@
         <v>488</v>
       </c>
       <c r="B352">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C352">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.2">
@@ -8929,10 +8925,10 @@
         <v>488</v>
       </c>
       <c r="B353">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C353">
-        <v>24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.2">
@@ -8940,10 +8936,10 @@
         <v>488</v>
       </c>
       <c r="B354">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C354">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.2">
@@ -8951,10 +8947,10 @@
         <v>488</v>
       </c>
       <c r="B355">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C355">
-        <v>98</v>
+        <v>21</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.2">
@@ -8962,54 +8958,54 @@
         <v>488</v>
       </c>
       <c r="B356">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C356">
-        <v>99</v>
+        <v>24</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B357">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C357">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B358">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C358">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B359">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C359">
-        <v>21</v>
+        <v>98</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B360">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C360">
-        <v>22</v>
+        <v>99</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.2">
@@ -9017,10 +9013,10 @@
         <v>489</v>
       </c>
       <c r="B361">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C361">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.2">
@@ -9028,10 +9024,10 @@
         <v>489</v>
       </c>
       <c r="B362">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C362">
-        <v>98</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.2">
@@ -9039,54 +9035,54 @@
         <v>489</v>
       </c>
       <c r="B363">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C363">
-        <v>99</v>
+        <v>21</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B364">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C364">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B365">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C365">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B366">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C366">
-        <v>21</v>
+        <v>98</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B367">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C367">
-        <v>22</v>
+        <v>99</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.2">
@@ -9094,10 +9090,10 @@
         <v>490</v>
       </c>
       <c r="B368">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C368">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.2">
@@ -9105,10 +9101,10 @@
         <v>490</v>
       </c>
       <c r="B369">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C369">
-        <v>98</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.2">
@@ -9116,54 +9112,54 @@
         <v>490</v>
       </c>
       <c r="B370">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C370">
-        <v>99</v>
+        <v>21</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B371">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C371">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B372">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C372">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B373">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C373">
-        <v>21</v>
+        <v>98</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B374">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="C374">
-        <v>22</v>
+        <v>99</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.2">
@@ -9171,10 +9167,10 @@
         <v>491</v>
       </c>
       <c r="B375">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="C375">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.2">
@@ -9182,10 +9178,10 @@
         <v>491</v>
       </c>
       <c r="B376">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C376">
-        <v>24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.2">
@@ -9193,10 +9189,10 @@
         <v>491</v>
       </c>
       <c r="B377">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C377">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.2">
@@ -9204,10 +9200,10 @@
         <v>491</v>
       </c>
       <c r="B378">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C378">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.2">
@@ -9215,10 +9211,10 @@
         <v>491</v>
       </c>
       <c r="B379">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="C379">
-        <v>98</v>
+        <v>24</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.2">
@@ -9226,54 +9222,54 @@
         <v>491</v>
       </c>
       <c r="B380">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="C380">
-        <v>99</v>
+        <v>24</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B381">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="C381">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B382">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="C382">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B383">
-        <v>2</v>
+        <v>98</v>
       </c>
       <c r="C383">
-        <v>21</v>
+        <v>98</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B384">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="C384">
-        <v>22</v>
+        <v>99</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.2">
@@ -9281,10 +9277,10 @@
         <v>492</v>
       </c>
       <c r="B385">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C385">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.2">
@@ -9292,10 +9288,10 @@
         <v>492</v>
       </c>
       <c r="B386">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C386">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.2">
@@ -9303,10 +9299,10 @@
         <v>492</v>
       </c>
       <c r="B387">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C387">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.2">
@@ -9314,54 +9310,54 @@
         <v>492</v>
       </c>
       <c r="B388">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C388">
-        <v>98</v>
+        <v>22</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B389">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C389">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B390">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C390">
-        <v>70</v>
+        <v>22</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B391">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C391">
-        <v>22</v>
+        <v>3</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B392">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C392">
-        <v>23</v>
+        <v>98</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.2">
@@ -9369,10 +9365,10 @@
         <v>493</v>
       </c>
       <c r="B393">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C393">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.2">
@@ -9380,10 +9376,10 @@
         <v>493</v>
       </c>
       <c r="B394">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C394">
-        <v>3</v>
+        <v>70</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.2">
@@ -9391,54 +9387,54 @@
         <v>493</v>
       </c>
       <c r="B395">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C395">
-        <v>98</v>
+        <v>22</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B396">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C396">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B397">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C397">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B398">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C398">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B399">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C399">
-        <v>22</v>
+        <v>98</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.2">
@@ -9446,10 +9442,10 @@
         <v>494</v>
       </c>
       <c r="B400">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C400">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.2">
@@ -9457,10 +9453,10 @@
         <v>494</v>
       </c>
       <c r="B401">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C401">
-        <v>98</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.2">
@@ -9468,54 +9464,54 @@
         <v>494</v>
       </c>
       <c r="B402">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C402">
-        <v>99</v>
+        <v>21</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B403">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C403">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B404">
-        <v>1</v>
-      </c>
-      <c r="C404" s="4">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="C404">
+        <v>3</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B405">
-        <v>2</v>
-      </c>
-      <c r="C405" s="4">
-        <v>21</v>
+        <v>8</v>
+      </c>
+      <c r="C405">
+        <v>98</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B406">
-        <v>3</v>
-      </c>
-      <c r="C406" s="4">
-        <v>22</v>
+        <v>9</v>
+      </c>
+      <c r="C406">
+        <v>99</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.2">
@@ -9523,10 +9519,10 @@
         <v>495</v>
       </c>
       <c r="B407">
-        <v>4</v>
-      </c>
-      <c r="C407" s="4">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="C407">
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.2">
@@ -9534,54 +9530,54 @@
         <v>495</v>
       </c>
       <c r="B408">
-        <v>8</v>
-      </c>
-      <c r="C408" s="4">
-        <v>98</v>
+        <v>1</v>
+      </c>
+      <c r="C408" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B409">
-        <v>0</v>
-      </c>
-      <c r="C409">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="C409" s="3">
+        <v>21</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B410">
-        <v>1</v>
-      </c>
-      <c r="C410" s="4">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="C410" s="3">
+        <v>22</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B411">
-        <v>2</v>
-      </c>
-      <c r="C411" s="4">
-        <v>21</v>
+        <v>4</v>
+      </c>
+      <c r="C411" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B412">
-        <v>3</v>
-      </c>
-      <c r="C412">
-        <v>22</v>
+        <v>8</v>
+      </c>
+      <c r="C412" s="3">
+        <v>98</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.2">
@@ -9589,10 +9585,10 @@
         <v>496</v>
       </c>
       <c r="B413">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C413">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.2">
@@ -9600,54 +9596,54 @@
         <v>496</v>
       </c>
       <c r="B414">
-        <v>8</v>
-      </c>
-      <c r="C414">
-        <v>98</v>
+        <v>1</v>
+      </c>
+      <c r="C414" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B415">
-        <v>0</v>
-      </c>
-      <c r="C415">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="C415" s="3">
+        <v>21</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B416">
-        <v>1</v>
-      </c>
-      <c r="C416" s="4">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="C416">
+        <v>22</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B417">
-        <v>2</v>
-      </c>
-      <c r="C417" s="4">
-        <v>21</v>
+        <v>4</v>
+      </c>
+      <c r="C417">
+        <v>3</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B418">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C418">
-        <v>22</v>
+        <v>98</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.2">
@@ -9655,10 +9651,10 @@
         <v>497</v>
       </c>
       <c r="B419">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C419">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.2">
@@ -9666,10 +9662,10 @@
         <v>497</v>
       </c>
       <c r="B420">
-        <v>5</v>
-      </c>
-      <c r="C420">
-        <v>22</v>
+        <v>1</v>
+      </c>
+      <c r="C420" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.2">
@@ -9677,10 +9673,10 @@
         <v>497</v>
       </c>
       <c r="B421">
-        <v>6</v>
-      </c>
-      <c r="C421">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="C421" s="3">
+        <v>21</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.2">
@@ -9688,54 +9684,54 @@
         <v>497</v>
       </c>
       <c r="B422">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C422">
-        <v>98</v>
+        <v>22</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B423">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C423">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B424">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C424">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
-        <v>498</v>
-      </c>
-      <c r="B425" s="4">
-        <v>2</v>
+        <v>497</v>
+      </c>
+      <c r="B425">
+        <v>6</v>
       </c>
       <c r="C425">
-        <v>70</v>
+        <v>3</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B426">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C426">
-        <v>22</v>
+        <v>98</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.2">
@@ -9743,10 +9739,10 @@
         <v>498</v>
       </c>
       <c r="B427">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C427">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.2">
@@ -9754,65 +9750,65 @@
         <v>498</v>
       </c>
       <c r="B428">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C428">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>498</v>
       </c>
-      <c r="B429">
-        <v>8</v>
+      <c r="B429" s="3">
+        <v>2</v>
       </c>
       <c r="C429">
-        <v>98</v>
+        <v>70</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B430">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C430">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B431">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C431">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B432">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C432">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B433">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C433">
-        <v>22</v>
+        <v>98</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.2">
@@ -9820,10 +9816,10 @@
         <v>499</v>
       </c>
       <c r="B434">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C434">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.2">
@@ -9831,10 +9827,10 @@
         <v>499</v>
       </c>
       <c r="B435">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C435">
-        <v>98</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.2">
@@ -9842,54 +9838,54 @@
         <v>499</v>
       </c>
       <c r="B436">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C436">
-        <v>99</v>
+        <v>21</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B437">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C437">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B438">
-        <v>1</v>
-      </c>
-      <c r="C438" s="4">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="C438">
+        <v>3</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B439">
-        <v>2</v>
-      </c>
-      <c r="C439" s="4">
-        <v>21</v>
+        <v>8</v>
+      </c>
+      <c r="C439">
+        <v>98</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B440">
-        <v>3</v>
-      </c>
-      <c r="C440" s="4">
-        <v>22</v>
+        <v>9</v>
+      </c>
+      <c r="C440">
+        <v>99</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.2">
@@ -9897,10 +9893,10 @@
         <v>500</v>
       </c>
       <c r="B441">
-        <v>4</v>
-      </c>
-      <c r="C441" s="4">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="C441">
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.2">
@@ -9908,10 +9904,10 @@
         <v>500</v>
       </c>
       <c r="B442">
-        <v>8</v>
-      </c>
-      <c r="C442" s="4">
-        <v>98</v>
+        <v>1</v>
+      </c>
+      <c r="C442" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.2">
@@ -9919,54 +9915,54 @@
         <v>500</v>
       </c>
       <c r="B443">
-        <v>9</v>
-      </c>
-      <c r="C443" s="4">
-        <v>99</v>
+        <v>2</v>
+      </c>
+      <c r="C443" s="3">
+        <v>21</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B444">
-        <v>0</v>
-      </c>
-      <c r="C444">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="C444" s="3">
+        <v>22</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B445">
-        <v>1</v>
-      </c>
-      <c r="C445" s="4">
-        <v>70</v>
+        <v>4</v>
+      </c>
+      <c r="C445" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B446">
-        <v>2</v>
-      </c>
-      <c r="C446">
-        <v>22</v>
+        <v>8</v>
+      </c>
+      <c r="C446" s="3">
+        <v>98</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B447">
-        <v>3</v>
-      </c>
-      <c r="C447">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="C447" s="3">
+        <v>99</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.2">
@@ -9974,257 +9970,256 @@
         <v>501</v>
       </c>
       <c r="B448">
+        <v>0</v>
+      </c>
+      <c r="C448">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A449" t="s">
+        <v>501</v>
+      </c>
+      <c r="B449">
+        <v>1</v>
+      </c>
+      <c r="C449" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A450" t="s">
+        <v>501</v>
+      </c>
+      <c r="B450">
+        <v>2</v>
+      </c>
+      <c r="C450">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A451" t="s">
+        <v>501</v>
+      </c>
+      <c r="B451">
+        <v>3</v>
+      </c>
+      <c r="C451">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A452" t="s">
+        <v>501</v>
+      </c>
+      <c r="B452">
         <v>9</v>
       </c>
-      <c r="C448">
+      <c r="C452">
         <v>99</v>
       </c>
     </row>
-    <row r="449" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A449" t="s">
-        <v>502</v>
-      </c>
-      <c r="B449">
-        <v>0</v>
-      </c>
-      <c r="C449">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="450" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A450" t="s">
-        <v>502</v>
-      </c>
-      <c r="B450">
-        <v>1</v>
-      </c>
-      <c r="C450">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="451" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A451" t="s">
-        <v>502</v>
-      </c>
-      <c r="B451" s="4">
-        <v>2</v>
-      </c>
-      <c r="C451" s="4">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="452" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A452" t="s">
-        <v>502</v>
-      </c>
-      <c r="B452">
-        <v>3</v>
-      </c>
-      <c r="C452">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="453" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>502</v>
       </c>
       <c r="B453">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C453">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="454" spans="1:10" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>502</v>
       </c>
       <c r="B454">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C454">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="455" spans="1:10" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>502</v>
       </c>
-      <c r="B455">
+      <c r="B455" s="3">
+        <v>2</v>
+      </c>
+      <c r="C455" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A456" t="s">
+        <v>502</v>
+      </c>
+      <c r="B456">
+        <v>3</v>
+      </c>
+      <c r="C456">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A457" t="s">
+        <v>502</v>
+      </c>
+      <c r="B457">
+        <v>4</v>
+      </c>
+      <c r="C457">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A458" t="s">
+        <v>502</v>
+      </c>
+      <c r="B458">
+        <v>8</v>
+      </c>
+      <c r="C458">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A459" t="s">
+        <v>502</v>
+      </c>
+      <c r="B459">
         <v>9</v>
       </c>
-      <c r="C455">
+      <c r="C459">
         <v>99</v>
       </c>
     </row>
-    <row r="456" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A456" t="s">
+    <row r="460" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A460" t="s">
         <v>503</v>
       </c>
-      <c r="B456">
-        <v>0</v>
-      </c>
-      <c r="C456">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="457" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A457" t="s">
+      <c r="B460">
+        <v>0</v>
+      </c>
+      <c r="C460">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A461" t="s">
         <v>503</v>
       </c>
-      <c r="B457" s="4">
-        <v>1</v>
-      </c>
-      <c r="C457">
+      <c r="B461" s="3">
+        <v>1</v>
+      </c>
+      <c r="C461">
         <v>70</v>
       </c>
     </row>
-    <row r="458" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A458" t="s">
+    <row r="462" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A462" t="s">
         <v>503</v>
       </c>
-      <c r="B458">
-        <v>2</v>
-      </c>
-      <c r="C458">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="459" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A459" t="s">
+      <c r="B462">
+        <v>2</v>
+      </c>
+      <c r="C462">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A463" t="s">
         <v>503</v>
       </c>
-      <c r="B459">
-        <v>3</v>
-      </c>
-      <c r="C459">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="460" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A460" t="s">
-        <v>504</v>
-      </c>
-      <c r="B460">
-        <v>0</v>
-      </c>
-      <c r="C460">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="461" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A461" t="s">
-        <v>504</v>
-      </c>
-      <c r="B461">
-        <v>1</v>
-      </c>
-      <c r="C461" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="462" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A462" t="s">
-        <v>504</v>
-      </c>
-      <c r="B462">
-        <v>2</v>
-      </c>
-      <c r="C462" s="4">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="463" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A463" t="s">
-        <v>504</v>
-      </c>
       <c r="B463">
         <v>3</v>
       </c>
       <c r="C463">
-        <v>22</v>
-      </c>
-      <c r="J463" s="4"/>
-    </row>
-    <row r="464" spans="1:10" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>504</v>
       </c>
       <c r="B464">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C464">
-        <v>3</v>
-      </c>
-      <c r="J464" s="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="465" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>504</v>
       </c>
       <c r="B465">
-        <v>9</v>
-      </c>
-      <c r="C465">
-        <v>99</v>
-      </c>
-      <c r="D465" s="3"/>
-      <c r="J465" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="C465" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="466" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B466">
-        <v>0</v>
-      </c>
-      <c r="C466">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="C466" s="3">
+        <v>70</v>
       </c>
     </row>
     <row r="467" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B467">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C467">
-        <v>0</v>
-      </c>
-      <c r="J467" s="4"/>
+        <v>22</v>
+      </c>
+      <c r="J467" s="3"/>
     </row>
     <row r="468" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
-        <v>505</v>
-      </c>
-      <c r="B468" s="4">
-        <v>2</v>
+        <v>504</v>
+      </c>
+      <c r="B468">
+        <v>4</v>
       </c>
       <c r="C468">
-        <v>70</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="J468" s="3"/>
     </row>
     <row r="469" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B469">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C469">
-        <v>22</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="D469" s="2"/>
+      <c r="J469" s="3"/>
     </row>
     <row r="470" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>505</v>
       </c>
       <c r="B470">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C470">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:10" x14ac:dyDescent="0.2">
@@ -10232,65 +10227,66 @@
         <v>505</v>
       </c>
       <c r="B471">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C471">
-        <v>3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J471" s="3"/>
     </row>
     <row r="472" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>505</v>
       </c>
-      <c r="B472">
-        <v>8</v>
+      <c r="B472" s="3">
+        <v>2</v>
       </c>
       <c r="C472">
-        <v>98</v>
+        <v>70</v>
       </c>
     </row>
     <row r="473" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B473">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C473">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="474" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B474">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C474">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="475" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B475">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C475">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="476" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B476">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C476">
-        <v>22</v>
+        <v>98</v>
       </c>
     </row>
     <row r="477" spans="1:10" x14ac:dyDescent="0.2">
@@ -10298,10 +10294,10 @@
         <v>506</v>
       </c>
       <c r="B477">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C477">
-        <v>33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:10" x14ac:dyDescent="0.2">
@@ -10309,10 +10305,10 @@
         <v>506</v>
       </c>
       <c r="B478">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C478">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="479" spans="1:10" x14ac:dyDescent="0.2">
@@ -10320,54 +10316,54 @@
         <v>506</v>
       </c>
       <c r="B479">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C479">
-        <v>98</v>
+        <v>21</v>
       </c>
     </row>
     <row r="480" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B480">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C480">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B481">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C481">
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B482">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C482">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B483">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C483">
-        <v>22</v>
+        <v>98</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.2">
@@ -10375,10 +10371,10 @@
         <v>507</v>
       </c>
       <c r="B484">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C484">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.2">
@@ -10386,10 +10382,10 @@
         <v>507</v>
       </c>
       <c r="B485">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C485">
-        <v>33</v>
+        <v>1</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.2">
@@ -10397,10 +10393,10 @@
         <v>507</v>
       </c>
       <c r="B486">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C486">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.2">
@@ -10408,10 +10404,10 @@
         <v>507</v>
       </c>
       <c r="B487">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C487">
-        <v>40</v>
+        <v>22</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.2">
@@ -10419,10 +10415,10 @@
         <v>507</v>
       </c>
       <c r="B488">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C488">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.2">
@@ -10430,98 +10426,98 @@
         <v>507</v>
       </c>
       <c r="B489">
-        <v>98</v>
+        <v>5</v>
       </c>
       <c r="C489">
-        <v>98</v>
+        <v>33</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
-        <v>525</v>
-      </c>
-      <c r="B490" s="4">
-        <v>0</v>
-      </c>
-      <c r="C490" s="4">
-        <v>0</v>
+        <v>507</v>
+      </c>
+      <c r="B490">
+        <v>6</v>
+      </c>
+      <c r="C490">
+        <v>3</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
-        <v>525</v>
+        <v>507</v>
       </c>
       <c r="B491">
-        <v>1</v>
-      </c>
-      <c r="C491" s="4">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="C491">
+        <v>40</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
-        <v>525</v>
+        <v>507</v>
       </c>
       <c r="B492">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C492">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
-        <v>525</v>
-      </c>
-      <c r="B493" s="4">
-        <v>3</v>
+        <v>507</v>
+      </c>
+      <c r="B493">
+        <v>98</v>
       </c>
       <c r="C493">
-        <v>22</v>
+        <v>98</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>525</v>
       </c>
-      <c r="B494">
-        <v>4</v>
-      </c>
-      <c r="C494" s="4">
-        <v>22</v>
+      <c r="B494" s="3">
+        <v>0</v>
+      </c>
+      <c r="C494" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>525</v>
       </c>
-      <c r="B495" s="4">
-        <v>5</v>
-      </c>
-      <c r="C495" s="4">
-        <v>51</v>
+      <c r="B495">
+        <v>1</v>
+      </c>
+      <c r="C495" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>525</v>
       </c>
-      <c r="B496" s="4">
-        <v>6</v>
-      </c>
-      <c r="C496" s="4">
-        <v>3</v>
+      <c r="B496">
+        <v>2</v>
+      </c>
+      <c r="C496">
+        <v>21</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>525</v>
       </c>
-      <c r="B497">
-        <v>7</v>
-      </c>
-      <c r="C497" s="4">
-        <v>3</v>
+      <c r="B497" s="3">
+        <v>3</v>
+      </c>
+      <c r="C497">
+        <v>22</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.2">
@@ -10529,32 +10525,32 @@
         <v>525</v>
       </c>
       <c r="B498">
-        <v>8</v>
-      </c>
-      <c r="C498" s="4">
-        <v>40</v>
+        <v>4</v>
+      </c>
+      <c r="C498" s="3">
+        <v>22</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>525</v>
       </c>
-      <c r="B499">
-        <v>9</v>
-      </c>
-      <c r="C499" s="4">
-        <v>80</v>
+      <c r="B499" s="3">
+        <v>5</v>
+      </c>
+      <c r="C499" s="3">
+        <v>51</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>525</v>
       </c>
-      <c r="B500">
-        <v>98</v>
-      </c>
-      <c r="C500" s="4">
-        <v>98</v>
+      <c r="B500" s="3">
+        <v>6</v>
+      </c>
+      <c r="C500" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.2">
@@ -10562,219 +10558,219 @@
         <v>525</v>
       </c>
       <c r="B501">
-        <v>99</v>
-      </c>
-      <c r="C501" s="4">
-        <v>99</v>
+        <v>7</v>
+      </c>
+      <c r="C501" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
-        <v>526</v>
-      </c>
-      <c r="B502" s="4">
-        <v>0</v>
-      </c>
-      <c r="C502" s="4">
-        <v>0</v>
+        <v>525</v>
+      </c>
+      <c r="B502">
+        <v>8</v>
+      </c>
+      <c r="C502" s="3">
+        <v>40</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
-        <v>526</v>
-      </c>
-      <c r="B503" s="4">
-        <v>1</v>
-      </c>
-      <c r="C503" s="4">
-        <v>1</v>
+        <v>525</v>
+      </c>
+      <c r="B503">
+        <v>9</v>
+      </c>
+      <c r="C503" s="3">
+        <v>80</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
-        <v>526</v>
-      </c>
-      <c r="B504" s="4">
-        <v>2</v>
-      </c>
-      <c r="C504" s="5">
-        <v>21</v>
+        <v>525</v>
+      </c>
+      <c r="B504">
+        <v>98</v>
+      </c>
+      <c r="C504" s="3">
+        <v>98</v>
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
-        <v>526</v>
-      </c>
-      <c r="B505" s="4">
-        <v>3</v>
-      </c>
-      <c r="C505" s="5">
-        <v>22</v>
+        <v>525</v>
+      </c>
+      <c r="B505">
+        <v>99</v>
+      </c>
+      <c r="C505" s="3">
+        <v>99</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>526</v>
       </c>
-      <c r="B506">
-        <v>4</v>
-      </c>
-      <c r="C506" s="4">
-        <v>3</v>
+      <c r="B506" s="3">
+        <v>0</v>
+      </c>
+      <c r="C506" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>526</v>
       </c>
-      <c r="B507">
-        <v>8</v>
-      </c>
-      <c r="C507" s="4">
-        <v>98</v>
+      <c r="B507" s="3">
+        <v>1</v>
+      </c>
+      <c r="C507" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>526</v>
       </c>
-      <c r="B508">
-        <v>9</v>
+      <c r="B508" s="3">
+        <v>2</v>
       </c>
       <c r="C508" s="4">
-        <v>99</v>
+        <v>21</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
-        <v>527</v>
-      </c>
-      <c r="B509" s="4">
-        <v>0</v>
+        <v>526</v>
+      </c>
+      <c r="B509" s="3">
+        <v>3</v>
       </c>
       <c r="C509" s="4">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
-        <v>527</v>
-      </c>
-      <c r="B510" s="4">
-        <v>1</v>
-      </c>
-      <c r="C510" s="4">
-        <v>1</v>
+        <v>526</v>
+      </c>
+      <c r="B510">
+        <v>4</v>
+      </c>
+      <c r="C510" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
-        <v>527</v>
-      </c>
-      <c r="B511" s="4">
-        <v>2</v>
-      </c>
-      <c r="C511" s="4">
-        <v>21</v>
+        <v>526</v>
+      </c>
+      <c r="B511">
+        <v>8</v>
+      </c>
+      <c r="C511" s="3">
+        <v>98</v>
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
-        <v>527</v>
-      </c>
-      <c r="B512" s="4">
-        <v>3</v>
-      </c>
-      <c r="C512" s="5">
-        <v>22</v>
+        <v>526</v>
+      </c>
+      <c r="B512">
+        <v>9</v>
+      </c>
+      <c r="C512" s="3">
+        <v>99</v>
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>527</v>
       </c>
-      <c r="B513" s="4">
-        <v>4</v>
-      </c>
-      <c r="C513" s="4">
-        <v>3</v>
+      <c r="B513" s="3">
+        <v>0</v>
+      </c>
+      <c r="C513" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>527</v>
       </c>
-      <c r="B514">
-        <v>5</v>
-      </c>
-      <c r="C514" s="4">
-        <v>33</v>
+      <c r="B514" s="3">
+        <v>1</v>
+      </c>
+      <c r="C514" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>527</v>
       </c>
-      <c r="B515">
-        <v>8</v>
-      </c>
-      <c r="C515" s="4">
-        <v>99</v>
+      <c r="B515" s="3">
+        <v>2</v>
+      </c>
+      <c r="C515" s="3">
+        <v>21</v>
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>527</v>
       </c>
-      <c r="B516">
-        <v>9</v>
+      <c r="B516" s="3">
+        <v>3</v>
       </c>
       <c r="C516" s="4">
-        <v>98</v>
+        <v>22</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
-        <v>528</v>
-      </c>
-      <c r="B517">
-        <v>0</v>
-      </c>
-      <c r="C517">
-        <v>0</v>
+        <v>527</v>
+      </c>
+      <c r="B517" s="3">
+        <v>4</v>
+      </c>
+      <c r="C517" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
-        <v>528</v>
-      </c>
-      <c r="B518" s="4">
-        <v>1</v>
-      </c>
-      <c r="C518" s="4">
-        <v>1</v>
+        <v>527</v>
+      </c>
+      <c r="B518">
+        <v>5</v>
+      </c>
+      <c r="C518" s="3">
+        <v>33</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
-        <v>528</v>
-      </c>
-      <c r="B519" s="4">
-        <v>2</v>
-      </c>
-      <c r="C519" s="5">
-        <v>22</v>
+        <v>527</v>
+      </c>
+      <c r="B519">
+        <v>8</v>
+      </c>
+      <c r="C519" s="3">
+        <v>99</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
-        <v>528</v>
-      </c>
-      <c r="B520" s="4">
-        <v>4</v>
-      </c>
-      <c r="C520" s="4">
-        <v>3</v>
+        <v>527</v>
+      </c>
+      <c r="B520">
+        <v>9</v>
+      </c>
+      <c r="C520" s="3">
+        <v>98</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.2">
@@ -10782,131 +10778,131 @@
         <v>528</v>
       </c>
       <c r="B521">
-        <v>5</v>
-      </c>
-      <c r="C521" s="4">
-        <v>50</v>
+        <v>0</v>
+      </c>
+      <c r="C521">
+        <v>0</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
         <v>528</v>
       </c>
-      <c r="B522">
-        <v>8</v>
-      </c>
-      <c r="C522" s="4">
-        <v>98</v>
+      <c r="B522" s="3">
+        <v>1</v>
+      </c>
+      <c r="C522" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>528</v>
       </c>
-      <c r="B523">
-        <v>9</v>
+      <c r="B523" s="3">
+        <v>2</v>
       </c>
       <c r="C523" s="4">
-        <v>99</v>
+        <v>22</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
-        <v>511</v>
-      </c>
-      <c r="B524" s="4">
-        <v>0</v>
-      </c>
-      <c r="C524" s="4">
-        <v>0</v>
+        <v>528</v>
+      </c>
+      <c r="B524" s="3">
+        <v>4</v>
+      </c>
+      <c r="C524" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
-        <v>511</v>
-      </c>
-      <c r="B525" s="4">
-        <v>1</v>
-      </c>
-      <c r="C525" s="4">
-        <v>21</v>
+        <v>528</v>
+      </c>
+      <c r="B525">
+        <v>5</v>
+      </c>
+      <c r="C525" s="3">
+        <v>50</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
-        <v>511</v>
-      </c>
-      <c r="B526" s="4">
-        <v>2</v>
-      </c>
-      <c r="C526" s="4">
-        <v>22</v>
+        <v>528</v>
+      </c>
+      <c r="B526">
+        <v>8</v>
+      </c>
+      <c r="C526" s="3">
+        <v>98</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
-        <v>511</v>
-      </c>
-      <c r="B527" s="4">
-        <v>3</v>
-      </c>
-      <c r="C527" s="4">
-        <v>3</v>
+        <v>528</v>
+      </c>
+      <c r="B527">
+        <v>9</v>
+      </c>
+      <c r="C527" s="3">
+        <v>99</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
         <v>511</v>
       </c>
-      <c r="B528">
-        <v>8</v>
-      </c>
-      <c r="C528" s="4">
-        <v>98</v>
+      <c r="B528" s="3">
+        <v>0</v>
+      </c>
+      <c r="C528" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
-        <v>529</v>
-      </c>
-      <c r="B529">
-        <v>0</v>
-      </c>
-      <c r="C529">
-        <v>0</v>
+        <v>511</v>
+      </c>
+      <c r="B529" s="3">
+        <v>1</v>
+      </c>
+      <c r="C529" s="3">
+        <v>21</v>
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
-        <v>529</v>
-      </c>
-      <c r="B530" s="4">
-        <v>11</v>
-      </c>
-      <c r="C530">
-        <v>1</v>
+        <v>511</v>
+      </c>
+      <c r="B530" s="3">
+        <v>2</v>
+      </c>
+      <c r="C530" s="3">
+        <v>22</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
-        <v>529</v>
-      </c>
-      <c r="B531">
-        <v>12</v>
-      </c>
-      <c r="C531">
-        <v>21</v>
+        <v>511</v>
+      </c>
+      <c r="B531" s="3">
+        <v>3</v>
+      </c>
+      <c r="C531" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
-        <v>529</v>
+        <v>511</v>
       </c>
       <c r="B532">
-        <v>13</v>
-      </c>
-      <c r="C532">
-        <v>22</v>
+        <v>8</v>
+      </c>
+      <c r="C532" s="3">
+        <v>98</v>
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.2">
@@ -10914,21 +10910,21 @@
         <v>529</v>
       </c>
       <c r="B533">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="C533">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>529</v>
       </c>
-      <c r="B534">
-        <v>15</v>
-      </c>
-      <c r="C534" s="4">
-        <v>33</v>
+      <c r="B534" s="3">
+        <v>11</v>
+      </c>
+      <c r="C534">
+        <v>1</v>
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.2">
@@ -10936,10 +10932,10 @@
         <v>529</v>
       </c>
       <c r="B535">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C535">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.2">
@@ -10947,10 +10943,10 @@
         <v>529</v>
       </c>
       <c r="B536">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C536">
-        <v>40</v>
+        <v>22</v>
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.2">
@@ -10958,10 +10954,10 @@
         <v>529</v>
       </c>
       <c r="B537">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C537">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.2">
@@ -10969,10 +10965,10 @@
         <v>529</v>
       </c>
       <c r="B538">
-        <v>98</v>
-      </c>
-      <c r="C538">
-        <v>98</v>
+        <v>15</v>
+      </c>
+      <c r="C538" s="3">
+        <v>33</v>
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.2">
@@ -10980,54 +10976,54 @@
         <v>529</v>
       </c>
       <c r="B539">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="C539">
-        <v>99</v>
+        <v>3</v>
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B540">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C540">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
-        <v>530</v>
-      </c>
-      <c r="B541" s="4">
-        <v>1</v>
+        <v>529</v>
+      </c>
+      <c r="B541">
+        <v>18</v>
       </c>
       <c r="C541">
-        <v>1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
-        <v>530</v>
-      </c>
-      <c r="B542" s="4">
-        <v>2</v>
-      </c>
-      <c r="C542" s="3">
-        <v>22</v>
+        <v>529</v>
+      </c>
+      <c r="B542">
+        <v>98</v>
+      </c>
+      <c r="C542">
+        <v>98</v>
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B543">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C543">
-        <v>3</v>
+        <v>99</v>
       </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.2">
@@ -11035,197 +11031,197 @@
         <v>530</v>
       </c>
       <c r="B544">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C544">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
         <v>530</v>
       </c>
-      <c r="B545">
-        <v>8</v>
+      <c r="B545" s="3">
+        <v>1</v>
       </c>
       <c r="C545">
-        <v>99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
-        <v>531</v>
-      </c>
-      <c r="B546" s="4">
-        <v>0</v>
-      </c>
-      <c r="C546" s="4">
-        <v>0</v>
+        <v>530</v>
+      </c>
+      <c r="B546" s="3">
+        <v>2</v>
+      </c>
+      <c r="C546" s="2">
+        <v>22</v>
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
-        <v>531</v>
-      </c>
-      <c r="B547" s="4">
-        <v>1</v>
-      </c>
-      <c r="C547" s="4">
-        <v>1</v>
+        <v>530</v>
+      </c>
+      <c r="B547">
+        <v>4</v>
+      </c>
+      <c r="C547">
+        <v>3</v>
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
-        <v>531</v>
-      </c>
-      <c r="B548" s="4">
-        <v>2</v>
-      </c>
-      <c r="C548" s="5">
-        <v>21</v>
+        <v>530</v>
+      </c>
+      <c r="B548">
+        <v>5</v>
+      </c>
+      <c r="C548">
+        <v>50</v>
       </c>
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
-        <v>531</v>
-      </c>
-      <c r="B549" s="4">
-        <v>3</v>
-      </c>
-      <c r="C549" s="5">
-        <v>22</v>
+        <v>530</v>
+      </c>
+      <c r="B549">
+        <v>8</v>
+      </c>
+      <c r="C549">
+        <v>99</v>
       </c>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
         <v>531</v>
       </c>
-      <c r="B550" s="4">
-        <v>4</v>
-      </c>
-      <c r="C550" s="4">
-        <v>24</v>
+      <c r="B550" s="3">
+        <v>0</v>
+      </c>
+      <c r="C550" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
         <v>531</v>
       </c>
-      <c r="B551" s="4">
-        <v>5</v>
-      </c>
-      <c r="C551" s="4">
-        <v>24</v>
+      <c r="B551" s="3">
+        <v>1</v>
+      </c>
+      <c r="C551" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
         <v>531</v>
       </c>
-      <c r="B552" s="4">
-        <v>6</v>
+      <c r="B552" s="3">
+        <v>2</v>
       </c>
       <c r="C552" s="4">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
         <v>531</v>
       </c>
-      <c r="B553">
-        <v>7</v>
+      <c r="B553" s="3">
+        <v>3</v>
       </c>
       <c r="C553" s="4">
-        <v>40</v>
+        <v>22</v>
       </c>
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
         <v>531</v>
       </c>
-      <c r="B554">
-        <v>9</v>
-      </c>
-      <c r="C554" s="4">
-        <v>98</v>
+      <c r="B554" s="3">
+        <v>4</v>
+      </c>
+      <c r="C554" s="3">
+        <v>24</v>
       </c>
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
-        <v>509</v>
-      </c>
-      <c r="B555">
-        <v>0</v>
-      </c>
-      <c r="C555">
-        <v>0</v>
+        <v>531</v>
+      </c>
+      <c r="B555" s="3">
+        <v>5</v>
+      </c>
+      <c r="C555" s="3">
+        <v>24</v>
       </c>
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
-        <v>509</v>
-      </c>
-      <c r="B556" s="4">
-        <v>10</v>
-      </c>
-      <c r="C556" s="4">
-        <v>1</v>
+        <v>531</v>
+      </c>
+      <c r="B556" s="3">
+        <v>6</v>
+      </c>
+      <c r="C556" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
-        <v>509</v>
-      </c>
-      <c r="B557" s="4">
-        <v>20</v>
-      </c>
-      <c r="C557" s="4">
-        <v>21</v>
+        <v>531</v>
+      </c>
+      <c r="B557">
+        <v>7</v>
+      </c>
+      <c r="C557" s="3">
+        <v>40</v>
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
-        <v>509</v>
+        <v>531</v>
       </c>
       <c r="B558">
-        <v>21</v>
-      </c>
-      <c r="C558">
-        <v>21</v>
+        <v>9</v>
+      </c>
+      <c r="C558" s="3">
+        <v>98</v>
       </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
         <v>509</v>
       </c>
-      <c r="B559" s="4">
-        <v>30</v>
-      </c>
-      <c r="C559" s="4">
-        <v>22</v>
+      <c r="B559">
+        <v>0</v>
+      </c>
+      <c r="C559">
+        <v>0</v>
       </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
         <v>509</v>
       </c>
-      <c r="B560">
-        <v>31</v>
-      </c>
-      <c r="C560" s="4">
-        <v>22</v>
+      <c r="B560" s="3">
+        <v>10</v>
+      </c>
+      <c r="C560" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
         <v>509</v>
       </c>
-      <c r="B561">
-        <v>40</v>
-      </c>
-      <c r="C561" s="4">
-        <v>3</v>
+      <c r="B561" s="3">
+        <v>20</v>
+      </c>
+      <c r="C561" s="3">
+        <v>21</v>
       </c>
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.2">
@@ -11233,65 +11229,65 @@
         <v>509</v>
       </c>
       <c r="B562">
-        <v>41</v>
-      </c>
-      <c r="C562" s="4">
-        <v>3</v>
+        <v>21</v>
+      </c>
+      <c r="C562">
+        <v>21</v>
       </c>
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
         <v>509</v>
       </c>
-      <c r="B563">
-        <v>98</v>
-      </c>
-      <c r="C563" s="4">
-        <v>98</v>
+      <c r="B563" s="3">
+        <v>30</v>
+      </c>
+      <c r="C563" s="3">
+        <v>22</v>
       </c>
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B564">
-        <v>0</v>
-      </c>
-      <c r="C564" s="4">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="C564" s="3">
+        <v>22</v>
       </c>
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B565">
-        <v>1</v>
-      </c>
-      <c r="C565" s="4">
-        <v>1</v>
+        <v>40</v>
+      </c>
+      <c r="C565" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B566">
-        <v>2</v>
-      </c>
-      <c r="C566" s="4">
-        <v>21</v>
+        <v>41</v>
+      </c>
+      <c r="C566" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B567">
-        <v>3</v>
-      </c>
-      <c r="C567" s="4">
-        <v>22</v>
+        <v>98</v>
+      </c>
+      <c r="C567" s="3">
+        <v>98</v>
       </c>
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.2">
@@ -11299,10 +11295,10 @@
         <v>512</v>
       </c>
       <c r="B568">
-        <v>4</v>
-      </c>
-      <c r="C568" s="4">
-        <v>33</v>
+        <v>0</v>
+      </c>
+      <c r="C568" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.2">
@@ -11310,10 +11306,10 @@
         <v>512</v>
       </c>
       <c r="B569">
-        <v>5</v>
-      </c>
-      <c r="C569" s="4">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="C569" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.2">
@@ -11321,10 +11317,10 @@
         <v>512</v>
       </c>
       <c r="B570">
-        <v>8</v>
-      </c>
-      <c r="C570" s="4">
-        <v>98</v>
+        <v>2</v>
+      </c>
+      <c r="C570" s="3">
+        <v>21</v>
       </c>
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.2">
@@ -11332,175 +11328,175 @@
         <v>512</v>
       </c>
       <c r="B571">
-        <v>9</v>
-      </c>
-      <c r="C571" s="4">
-        <v>99</v>
+        <v>3</v>
+      </c>
+      <c r="C571" s="3">
+        <v>22</v>
       </c>
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
-        <v>532</v>
-      </c>
-      <c r="B572" s="4">
-        <v>0</v>
-      </c>
-      <c r="C572" s="4">
-        <v>0</v>
+        <v>512</v>
+      </c>
+      <c r="B572">
+        <v>4</v>
+      </c>
+      <c r="C572" s="3">
+        <v>33</v>
       </c>
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
-        <v>532</v>
-      </c>
-      <c r="B573" s="4">
-        <v>1</v>
-      </c>
-      <c r="C573" s="4">
-        <v>21</v>
+        <v>512</v>
+      </c>
+      <c r="B573">
+        <v>5</v>
+      </c>
+      <c r="C573" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
-        <v>532</v>
-      </c>
-      <c r="B574" s="4">
-        <v>2</v>
-      </c>
-      <c r="C574" s="4">
-        <v>22</v>
+        <v>512</v>
+      </c>
+      <c r="B574">
+        <v>8</v>
+      </c>
+      <c r="C574" s="3">
+        <v>98</v>
       </c>
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
-        <v>532</v>
-      </c>
-      <c r="B575" s="4">
-        <v>4</v>
-      </c>
-      <c r="C575" s="4">
-        <v>3</v>
+        <v>512</v>
+      </c>
+      <c r="B575">
+        <v>9</v>
+      </c>
+      <c r="C575" s="3">
+        <v>99</v>
       </c>
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
         <v>532</v>
       </c>
-      <c r="B576">
-        <v>8</v>
-      </c>
-      <c r="C576" s="4">
-        <v>98</v>
+      <c r="B576" s="3">
+        <v>0</v>
+      </c>
+      <c r="C576" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
         <v>532</v>
       </c>
-      <c r="B577">
-        <v>9</v>
-      </c>
-      <c r="C577" s="4">
-        <v>99</v>
+      <c r="B577" s="3">
+        <v>1</v>
+      </c>
+      <c r="C577" s="3">
+        <v>21</v>
       </c>
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
-        <v>533</v>
-      </c>
-      <c r="B578">
-        <v>0</v>
-      </c>
-      <c r="C578">
-        <v>0</v>
+        <v>532</v>
+      </c>
+      <c r="B578" s="3">
+        <v>2</v>
+      </c>
+      <c r="C578" s="3">
+        <v>22</v>
       </c>
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
-        <v>533</v>
-      </c>
-      <c r="B579" s="4">
-        <v>1</v>
-      </c>
-      <c r="C579" s="4">
-        <v>0</v>
+        <v>532</v>
+      </c>
+      <c r="B579" s="3">
+        <v>4</v>
+      </c>
+      <c r="C579" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
-        <v>533</v>
-      </c>
-      <c r="B580" s="4">
-        <v>2</v>
-      </c>
-      <c r="C580" s="4">
-        <v>21</v>
+        <v>532</v>
+      </c>
+      <c r="B580">
+        <v>8</v>
+      </c>
+      <c r="C580" s="3">
+        <v>98</v>
       </c>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
-        <v>533</v>
-      </c>
-      <c r="B581" s="4">
-        <v>3</v>
-      </c>
-      <c r="C581" s="4">
-        <v>22</v>
+        <v>532</v>
+      </c>
+      <c r="B581">
+        <v>9</v>
+      </c>
+      <c r="C581" s="3">
+        <v>99</v>
       </c>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
         <v>533</v>
       </c>
-      <c r="B582" s="4">
-        <v>4</v>
-      </c>
-      <c r="C582" s="4">
-        <v>22</v>
+      <c r="B582">
+        <v>0</v>
+      </c>
+      <c r="C582">
+        <v>0</v>
       </c>
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
         <v>533</v>
       </c>
-      <c r="B583">
-        <v>5</v>
-      </c>
-      <c r="C583" s="4">
-        <v>24</v>
+      <c r="B583" s="3">
+        <v>1</v>
+      </c>
+      <c r="C583" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
         <v>533</v>
       </c>
-      <c r="B584">
-        <v>6</v>
-      </c>
-      <c r="C584">
-        <v>33</v>
+      <c r="B584" s="3">
+        <v>2</v>
+      </c>
+      <c r="C584" s="3">
+        <v>21</v>
       </c>
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
         <v>533</v>
       </c>
-      <c r="B585" s="4">
-        <v>7</v>
-      </c>
-      <c r="C585" s="4">
-        <v>3</v>
+      <c r="B585" s="3">
+        <v>3</v>
+      </c>
+      <c r="C585" s="3">
+        <v>22</v>
       </c>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
         <v>533</v>
       </c>
-      <c r="B586">
-        <v>8</v>
-      </c>
-      <c r="C586">
-        <v>40</v>
+      <c r="B586" s="3">
+        <v>4</v>
+      </c>
+      <c r="C586" s="3">
+        <v>22</v>
       </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.2">
@@ -11508,10 +11504,10 @@
         <v>533</v>
       </c>
       <c r="B587">
-        <v>98</v>
-      </c>
-      <c r="C587">
-        <v>98</v>
+        <v>5</v>
+      </c>
+      <c r="C587" s="3">
+        <v>24</v>
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.2">
@@ -11519,175 +11515,175 @@
         <v>533</v>
       </c>
       <c r="B588">
-        <v>99</v>
+        <v>6</v>
       </c>
       <c r="C588">
-        <v>99</v>
+        <v>33</v>
       </c>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
-        <v>515</v>
-      </c>
-      <c r="B589" s="4">
-        <v>0</v>
-      </c>
-      <c r="C589" s="4">
-        <v>0</v>
+        <v>533</v>
+      </c>
+      <c r="B589" s="3">
+        <v>7</v>
+      </c>
+      <c r="C589" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
-        <v>515</v>
-      </c>
-      <c r="B590" s="4">
-        <v>1</v>
-      </c>
-      <c r="C590" s="4">
-        <v>0</v>
+        <v>533</v>
+      </c>
+      <c r="B590">
+        <v>8</v>
+      </c>
+      <c r="C590">
+        <v>40</v>
       </c>
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
-        <v>515</v>
-      </c>
-      <c r="B591" s="4">
-        <v>2</v>
-      </c>
-      <c r="C591" s="4">
-        <v>1</v>
+        <v>533</v>
+      </c>
+      <c r="B591">
+        <v>98</v>
+      </c>
+      <c r="C591">
+        <v>98</v>
       </c>
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
-        <v>515</v>
-      </c>
-      <c r="B592" s="4">
-        <v>3</v>
-      </c>
-      <c r="C592" s="5">
-        <v>21</v>
+        <v>533</v>
+      </c>
+      <c r="B592">
+        <v>99</v>
+      </c>
+      <c r="C592">
+        <v>99</v>
       </c>
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
         <v>515</v>
       </c>
-      <c r="B593" s="4">
-        <v>4</v>
-      </c>
-      <c r="C593" s="5">
-        <v>21</v>
+      <c r="B593" s="3">
+        <v>0</v>
+      </c>
+      <c r="C593" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
         <v>515</v>
       </c>
-      <c r="B594" s="4">
-        <v>5</v>
-      </c>
-      <c r="C594" s="5">
-        <v>22</v>
+      <c r="B594" s="3">
+        <v>1</v>
+      </c>
+      <c r="C594" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
         <v>515</v>
       </c>
-      <c r="B595" s="4">
-        <v>6</v>
-      </c>
-      <c r="C595" s="4">
-        <v>3</v>
+      <c r="B595" s="3">
+        <v>2</v>
+      </c>
+      <c r="C595" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
         <v>515</v>
       </c>
-      <c r="B596">
-        <v>9</v>
+      <c r="B596" s="3">
+        <v>3</v>
       </c>
       <c r="C596" s="4">
-        <v>98</v>
+        <v>21</v>
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
-        <v>510</v>
-      </c>
-      <c r="B597" s="4">
-        <v>0</v>
+        <v>515</v>
+      </c>
+      <c r="B597" s="3">
+        <v>4</v>
       </c>
       <c r="C597" s="4">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
-        <v>510</v>
-      </c>
-      <c r="B598" s="4">
-        <v>1</v>
+        <v>515</v>
+      </c>
+      <c r="B598" s="3">
+        <v>5</v>
       </c>
       <c r="C598" s="4">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
-        <v>510</v>
-      </c>
-      <c r="B599" s="4">
-        <v>2</v>
-      </c>
-      <c r="C599" s="4">
-        <v>22</v>
+        <v>515</v>
+      </c>
+      <c r="B599" s="3">
+        <v>6</v>
+      </c>
+      <c r="C599" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="B600">
-        <v>3</v>
-      </c>
-      <c r="C600" s="4">
-        <v>33</v>
+        <v>9</v>
+      </c>
+      <c r="C600" s="3">
+        <v>98</v>
       </c>
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
         <v>510</v>
       </c>
-      <c r="B601">
-        <v>4</v>
-      </c>
-      <c r="C601" s="4">
-        <v>3</v>
+      <c r="B601" s="3">
+        <v>0</v>
+      </c>
+      <c r="C601" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
         <v>510</v>
       </c>
-      <c r="B602">
-        <v>5</v>
-      </c>
-      <c r="C602" s="4">
-        <v>3</v>
+      <c r="B602" s="3">
+        <v>1</v>
+      </c>
+      <c r="C602" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
         <v>510</v>
       </c>
-      <c r="B603">
-        <v>8</v>
-      </c>
-      <c r="C603" s="4">
-        <v>98</v>
+      <c r="B603" s="3">
+        <v>2</v>
+      </c>
+      <c r="C603" s="3">
+        <v>22</v>
       </c>
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.2">
@@ -11695,131 +11691,131 @@
         <v>510</v>
       </c>
       <c r="B604">
-        <v>9</v>
-      </c>
-      <c r="C604" s="4">
-        <v>99</v>
+        <v>3</v>
+      </c>
+      <c r="C604" s="3">
+        <v>33</v>
       </c>
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
-        <v>513</v>
-      </c>
-      <c r="B605" s="4">
-        <v>0</v>
-      </c>
-      <c r="C605" s="4">
-        <v>0</v>
+        <v>510</v>
+      </c>
+      <c r="B605">
+        <v>4</v>
+      </c>
+      <c r="C605" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
-        <v>513</v>
-      </c>
-      <c r="B606" s="4">
-        <v>1</v>
-      </c>
-      <c r="C606" s="4">
-        <v>1</v>
+        <v>510</v>
+      </c>
+      <c r="B606">
+        <v>5</v>
+      </c>
+      <c r="C606" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
-        <v>513</v>
-      </c>
-      <c r="B607" s="4">
-        <v>2</v>
-      </c>
-      <c r="C607" s="4">
-        <v>21</v>
+        <v>510</v>
+      </c>
+      <c r="B607">
+        <v>8</v>
+      </c>
+      <c r="C607" s="3">
+        <v>98</v>
       </c>
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
-        <v>513</v>
-      </c>
-      <c r="B608" s="4">
-        <v>3</v>
-      </c>
-      <c r="C608" s="4">
-        <v>22</v>
+        <v>510</v>
+      </c>
+      <c r="B608">
+        <v>9</v>
+      </c>
+      <c r="C608" s="3">
+        <v>99</v>
       </c>
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
         <v>513</v>
       </c>
-      <c r="B609" s="4">
-        <v>4</v>
-      </c>
-      <c r="C609" s="4">
-        <v>3</v>
+      <c r="B609" s="3">
+        <v>0</v>
+      </c>
+      <c r="C609" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
         <v>513</v>
       </c>
-      <c r="B610">
-        <v>8</v>
-      </c>
-      <c r="C610" s="4">
-        <v>98</v>
+      <c r="B610" s="3">
+        <v>1</v>
+      </c>
+      <c r="C610" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
         <v>513</v>
       </c>
-      <c r="B611">
-        <v>9</v>
-      </c>
-      <c r="C611" s="4">
-        <v>99</v>
+      <c r="B611" s="3">
+        <v>2</v>
+      </c>
+      <c r="C611" s="3">
+        <v>21</v>
       </c>
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
-        <v>514</v>
-      </c>
-      <c r="B612">
-        <v>0</v>
-      </c>
-      <c r="C612">
-        <v>0</v>
+        <v>513</v>
+      </c>
+      <c r="B612" s="3">
+        <v>3</v>
+      </c>
+      <c r="C612" s="3">
+        <v>22</v>
       </c>
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
-        <v>514</v>
-      </c>
-      <c r="B613" s="4">
-        <v>1</v>
-      </c>
-      <c r="C613" s="4">
-        <v>1</v>
+        <v>513</v>
+      </c>
+      <c r="B613" s="3">
+        <v>4</v>
+      </c>
+      <c r="C613" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
-        <v>514</v>
-      </c>
-      <c r="B614" s="4">
-        <v>2</v>
-      </c>
-      <c r="C614" s="4">
-        <v>21</v>
+        <v>513</v>
+      </c>
+      <c r="B614">
+        <v>8</v>
+      </c>
+      <c r="C614" s="3">
+        <v>98</v>
       </c>
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
-        <v>514</v>
-      </c>
-      <c r="B615" s="4">
-        <v>3</v>
-      </c>
-      <c r="C615" s="4">
-        <v>22</v>
+        <v>513</v>
+      </c>
+      <c r="B615">
+        <v>9</v>
+      </c>
+      <c r="C615" s="3">
+        <v>99</v>
       </c>
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.2">
@@ -11827,46 +11823,91 @@
         <v>514</v>
       </c>
       <c r="B616">
-        <v>4</v>
-      </c>
-      <c r="C616" s="4">
-        <v>22</v>
+        <v>0</v>
+      </c>
+      <c r="C616">
+        <v>0</v>
       </c>
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
         <v>514</v>
       </c>
-      <c r="B617">
-        <v>5</v>
-      </c>
-      <c r="C617" s="4">
-        <v>3</v>
+      <c r="B617" s="3">
+        <v>1</v>
+      </c>
+      <c r="C617" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
         <v>514</v>
       </c>
-      <c r="B618">
-        <v>8</v>
-      </c>
-      <c r="C618" s="4">
-        <v>98</v>
+      <c r="B618" s="3">
+        <v>2</v>
+      </c>
+      <c r="C618" s="3">
+        <v>21</v>
       </c>
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
         <v>514</v>
       </c>
-      <c r="B619">
+      <c r="B619" s="3">
+        <v>3</v>
+      </c>
+      <c r="C619" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="620" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A620" t="s">
+        <v>514</v>
+      </c>
+      <c r="B620">
+        <v>4</v>
+      </c>
+      <c r="C620" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="621" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A621" t="s">
+        <v>514</v>
+      </c>
+      <c r="B621">
+        <v>5</v>
+      </c>
+      <c r="C621" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="622" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A622" t="s">
+        <v>514</v>
+      </c>
+      <c r="B622">
+        <v>8</v>
+      </c>
+      <c r="C622" s="3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="623" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A623" t="s">
+        <v>514</v>
+      </c>
+      <c r="B623">
         <v>9</v>
       </c>
-      <c r="C619" s="4">
+      <c r="C623" s="3">
         <v>99</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
@@ -11878,7 +11919,7 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
-  <dimension ref="A1:AMH608"/>
+  <dimension ref="A1:D608"/>
   <sheetViews>
     <sheetView topLeftCell="A464" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A479" sqref="A479:C608"/>
@@ -11890,7 +11931,6 @@
     <col min="2" max="2" width="9.140625" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" customWidth="1"/>
     <col min="4" max="63" width="7.85546875" customWidth="1"/>
-    <col min="64" max="1022" width="10.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -15159,7 +15199,7 @@
       <c r="C297">
         <v>0</v>
       </c>
-      <c r="D297" s="3"/>
+      <c r="D297" s="2"/>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
@@ -16213,7 +16253,7 @@
       <c r="B393">
         <v>1</v>
       </c>
-      <c r="C393" s="4">
+      <c r="C393" s="3">
         <v>1</v>
       </c>
     </row>
@@ -16224,7 +16264,7 @@
       <c r="B394">
         <v>2</v>
       </c>
-      <c r="C394" s="4">
+      <c r="C394" s="3">
         <v>21</v>
       </c>
     </row>
@@ -16235,7 +16275,7 @@
       <c r="B395">
         <v>3</v>
       </c>
-      <c r="C395" s="4">
+      <c r="C395" s="3">
         <v>22</v>
       </c>
     </row>
@@ -16246,7 +16286,7 @@
       <c r="B396">
         <v>4</v>
       </c>
-      <c r="C396" s="4">
+      <c r="C396" s="3">
         <v>3</v>
       </c>
     </row>
@@ -16257,7 +16297,7 @@
       <c r="B397">
         <v>8</v>
       </c>
-      <c r="C397" s="4">
+      <c r="C397" s="3">
         <v>98</v>
       </c>
     </row>
@@ -16279,7 +16319,7 @@
       <c r="B399">
         <v>1</v>
       </c>
-      <c r="C399" s="4">
+      <c r="C399" s="3">
         <v>1</v>
       </c>
     </row>
@@ -16290,7 +16330,7 @@
       <c r="B400">
         <v>2</v>
       </c>
-      <c r="C400" s="4">
+      <c r="C400" s="3">
         <v>21</v>
       </c>
     </row>
@@ -16345,7 +16385,7 @@
       <c r="B405">
         <v>1</v>
       </c>
-      <c r="C405" s="4">
+      <c r="C405" s="3">
         <v>1</v>
       </c>
     </row>
@@ -16356,7 +16396,7 @@
       <c r="B406">
         <v>2</v>
       </c>
-      <c r="C406" s="4">
+      <c r="C406" s="3">
         <v>21</v>
       </c>
     </row>
@@ -16441,7 +16481,7 @@
       <c r="A414" t="s">
         <v>498</v>
       </c>
-      <c r="B414" s="4">
+      <c r="B414" s="3">
         <v>2</v>
       </c>
       <c r="C414">
@@ -16587,7 +16627,7 @@
       <c r="B427">
         <v>1</v>
       </c>
-      <c r="C427" s="4">
+      <c r="C427" s="3">
         <v>1</v>
       </c>
     </row>
@@ -16598,7 +16638,7 @@
       <c r="B428">
         <v>2</v>
       </c>
-      <c r="C428" s="4">
+      <c r="C428" s="3">
         <v>21</v>
       </c>
     </row>
@@ -16609,7 +16649,7 @@
       <c r="B429">
         <v>3</v>
       </c>
-      <c r="C429" s="4">
+      <c r="C429" s="3">
         <v>22</v>
       </c>
     </row>
@@ -16620,7 +16660,7 @@
       <c r="B430">
         <v>4</v>
       </c>
-      <c r="C430" s="4">
+      <c r="C430" s="3">
         <v>3</v>
       </c>
     </row>
@@ -16631,7 +16671,7 @@
       <c r="B431">
         <v>8</v>
       </c>
-      <c r="C431" s="4">
+      <c r="C431" s="3">
         <v>98</v>
       </c>
     </row>
@@ -16642,7 +16682,7 @@
       <c r="B432">
         <v>9</v>
       </c>
-      <c r="C432" s="4">
+      <c r="C432" s="3">
         <v>99</v>
       </c>
     </row>
@@ -16664,7 +16704,7 @@
       <c r="B434">
         <v>1</v>
       </c>
-      <c r="C434" s="4">
+      <c r="C434" s="3">
         <v>70</v>
       </c>
     </row>
@@ -16727,10 +16767,10 @@
       <c r="A440" t="s">
         <v>502</v>
       </c>
-      <c r="B440" s="4">
-        <v>2</v>
-      </c>
-      <c r="C440" s="4">
+      <c r="B440" s="3">
+        <v>2</v>
+      </c>
+      <c r="C440" s="3">
         <v>70</v>
       </c>
     </row>
@@ -16793,7 +16833,7 @@
       <c r="A446" t="s">
         <v>503</v>
       </c>
-      <c r="B446" s="4">
+      <c r="B446" s="3">
         <v>1</v>
       </c>
       <c r="C446">
@@ -16840,7 +16880,7 @@
       <c r="B450">
         <v>1</v>
       </c>
-      <c r="C450" s="4">
+      <c r="C450" s="3">
         <v>0</v>
       </c>
     </row>
@@ -16851,7 +16891,7 @@
       <c r="B451">
         <v>2</v>
       </c>
-      <c r="C451" s="4">
+      <c r="C451" s="3">
         <v>70</v>
       </c>
     </row>
@@ -16914,7 +16954,7 @@
       <c r="A457" t="s">
         <v>505</v>
       </c>
-      <c r="B457" s="4">
+      <c r="B457" s="3">
         <v>2</v>
       </c>
       <c r="C457">
@@ -17156,10 +17196,10 @@
       <c r="A479" t="s">
         <v>525</v>
       </c>
-      <c r="B479" s="4">
-        <v>0</v>
-      </c>
-      <c r="C479" s="4">
+      <c r="B479" s="3">
+        <v>0</v>
+      </c>
+      <c r="C479" s="3">
         <v>0</v>
       </c>
     </row>
@@ -17170,7 +17210,7 @@
       <c r="B480">
         <v>1</v>
       </c>
-      <c r="C480" s="4">
+      <c r="C480" s="3">
         <v>1</v>
       </c>
     </row>
@@ -17189,7 +17229,7 @@
       <c r="A482" t="s">
         <v>525</v>
       </c>
-      <c r="B482" s="4">
+      <c r="B482" s="3">
         <v>3</v>
       </c>
       <c r="C482">
@@ -17203,7 +17243,7 @@
       <c r="B483">
         <v>4</v>
       </c>
-      <c r="C483" s="4">
+      <c r="C483" s="3">
         <v>22</v>
       </c>
     </row>
@@ -17211,10 +17251,10 @@
       <c r="A484" t="s">
         <v>525</v>
       </c>
-      <c r="B484" s="4">
+      <c r="B484" s="3">
         <v>5</v>
       </c>
-      <c r="C484" s="4">
+      <c r="C484" s="3">
         <v>51</v>
       </c>
     </row>
@@ -17222,10 +17262,10 @@
       <c r="A485" t="s">
         <v>525</v>
       </c>
-      <c r="B485" s="4">
+      <c r="B485" s="3">
         <v>6</v>
       </c>
-      <c r="C485" s="4">
+      <c r="C485" s="3">
         <v>3</v>
       </c>
     </row>
@@ -17236,7 +17276,7 @@
       <c r="B486">
         <v>7</v>
       </c>
-      <c r="C486" s="4">
+      <c r="C486" s="3">
         <v>3</v>
       </c>
     </row>
@@ -17247,7 +17287,7 @@
       <c r="B487">
         <v>8</v>
       </c>
-      <c r="C487" s="4">
+      <c r="C487" s="3">
         <v>40</v>
       </c>
     </row>
@@ -17258,7 +17298,7 @@
       <c r="B488">
         <v>9</v>
       </c>
-      <c r="C488" s="4">
+      <c r="C488" s="3">
         <v>80</v>
       </c>
     </row>
@@ -17269,7 +17309,7 @@
       <c r="B489">
         <v>98</v>
       </c>
-      <c r="C489" s="4">
+      <c r="C489" s="3">
         <v>98</v>
       </c>
     </row>
@@ -17280,7 +17320,7 @@
       <c r="B490">
         <v>99</v>
       </c>
-      <c r="C490" s="4">
+      <c r="C490" s="3">
         <v>99</v>
       </c>
     </row>
@@ -17288,10 +17328,10 @@
       <c r="A491" t="s">
         <v>526</v>
       </c>
-      <c r="B491" s="4">
-        <v>0</v>
-      </c>
-      <c r="C491" s="4">
+      <c r="B491" s="3">
+        <v>0</v>
+      </c>
+      <c r="C491" s="3">
         <v>0</v>
       </c>
     </row>
@@ -17299,10 +17339,10 @@
       <c r="A492" t="s">
         <v>526</v>
       </c>
-      <c r="B492" s="4">
-        <v>1</v>
-      </c>
-      <c r="C492" s="4">
+      <c r="B492" s="3">
+        <v>1</v>
+      </c>
+      <c r="C492" s="3">
         <v>1</v>
       </c>
     </row>
@@ -17310,10 +17350,10 @@
       <c r="A493" t="s">
         <v>526</v>
       </c>
-      <c r="B493" s="4">
-        <v>2</v>
-      </c>
-      <c r="C493" s="5">
+      <c r="B493" s="3">
+        <v>2</v>
+      </c>
+      <c r="C493" s="4">
         <v>21</v>
       </c>
     </row>
@@ -17321,10 +17361,10 @@
       <c r="A494" t="s">
         <v>526</v>
       </c>
-      <c r="B494" s="4">
-        <v>3</v>
-      </c>
-      <c r="C494" s="5">
+      <c r="B494" s="3">
+        <v>3</v>
+      </c>
+      <c r="C494" s="4">
         <v>22</v>
       </c>
     </row>
@@ -17335,7 +17375,7 @@
       <c r="B495">
         <v>4</v>
       </c>
-      <c r="C495" s="4">
+      <c r="C495" s="3">
         <v>3</v>
       </c>
     </row>
@@ -17346,7 +17386,7 @@
       <c r="B496">
         <v>8</v>
       </c>
-      <c r="C496" s="4">
+      <c r="C496" s="3">
         <v>98</v>
       </c>
     </row>
@@ -17357,7 +17397,7 @@
       <c r="B497">
         <v>9</v>
       </c>
-      <c r="C497" s="4">
+      <c r="C497" s="3">
         <v>99</v>
       </c>
     </row>
@@ -17365,10 +17405,10 @@
       <c r="A498" t="s">
         <v>527</v>
       </c>
-      <c r="B498" s="4">
-        <v>0</v>
-      </c>
-      <c r="C498" s="4">
+      <c r="B498" s="3">
+        <v>0</v>
+      </c>
+      <c r="C498" s="3">
         <v>0</v>
       </c>
     </row>
@@ -17376,10 +17416,10 @@
       <c r="A499" t="s">
         <v>527</v>
       </c>
-      <c r="B499" s="4">
-        <v>1</v>
-      </c>
-      <c r="C499" s="4">
+      <c r="B499" s="3">
+        <v>1</v>
+      </c>
+      <c r="C499" s="3">
         <v>1</v>
       </c>
     </row>
@@ -17387,10 +17427,10 @@
       <c r="A500" t="s">
         <v>527</v>
       </c>
-      <c r="B500" s="4">
-        <v>2</v>
-      </c>
-      <c r="C500" s="4">
+      <c r="B500" s="3">
+        <v>2</v>
+      </c>
+      <c r="C500" s="3">
         <v>21</v>
       </c>
     </row>
@@ -17398,10 +17438,10 @@
       <c r="A501" t="s">
         <v>527</v>
       </c>
-      <c r="B501" s="4">
-        <v>3</v>
-      </c>
-      <c r="C501" s="5">
+      <c r="B501" s="3">
+        <v>3</v>
+      </c>
+      <c r="C501" s="4">
         <v>22</v>
       </c>
     </row>
@@ -17409,10 +17449,10 @@
       <c r="A502" t="s">
         <v>527</v>
       </c>
-      <c r="B502" s="4">
-        <v>4</v>
-      </c>
-      <c r="C502" s="4">
+      <c r="B502" s="3">
+        <v>4</v>
+      </c>
+      <c r="C502" s="3">
         <v>3</v>
       </c>
     </row>
@@ -17423,7 +17463,7 @@
       <c r="B503">
         <v>5</v>
       </c>
-      <c r="C503" s="4">
+      <c r="C503" s="3">
         <v>33</v>
       </c>
     </row>
@@ -17434,7 +17474,7 @@
       <c r="B504">
         <v>8</v>
       </c>
-      <c r="C504" s="4">
+      <c r="C504" s="3">
         <v>99</v>
       </c>
     </row>
@@ -17445,7 +17485,7 @@
       <c r="B505">
         <v>9</v>
       </c>
-      <c r="C505" s="4">
+      <c r="C505" s="3">
         <v>98</v>
       </c>
     </row>
@@ -17464,10 +17504,10 @@
       <c r="A507" t="s">
         <v>528</v>
       </c>
-      <c r="B507" s="4">
-        <v>1</v>
-      </c>
-      <c r="C507" s="4">
+      <c r="B507" s="3">
+        <v>1</v>
+      </c>
+      <c r="C507" s="3">
         <v>1</v>
       </c>
     </row>
@@ -17475,10 +17515,10 @@
       <c r="A508" t="s">
         <v>528</v>
       </c>
-      <c r="B508" s="4">
-        <v>2</v>
-      </c>
-      <c r="C508" s="5">
+      <c r="B508" s="3">
+        <v>2</v>
+      </c>
+      <c r="C508" s="4">
         <v>22</v>
       </c>
     </row>
@@ -17486,10 +17526,10 @@
       <c r="A509" t="s">
         <v>528</v>
       </c>
-      <c r="B509" s="4">
-        <v>4</v>
-      </c>
-      <c r="C509" s="4">
+      <c r="B509" s="3">
+        <v>4</v>
+      </c>
+      <c r="C509" s="3">
         <v>3</v>
       </c>
     </row>
@@ -17500,7 +17540,7 @@
       <c r="B510">
         <v>5</v>
       </c>
-      <c r="C510" s="4">
+      <c r="C510" s="3">
         <v>50</v>
       </c>
     </row>
@@ -17511,7 +17551,7 @@
       <c r="B511">
         <v>8</v>
       </c>
-      <c r="C511" s="4">
+      <c r="C511" s="3">
         <v>98</v>
       </c>
     </row>
@@ -17522,7 +17562,7 @@
       <c r="B512">
         <v>9</v>
       </c>
-      <c r="C512" s="4">
+      <c r="C512" s="3">
         <v>99</v>
       </c>
     </row>
@@ -17530,10 +17570,10 @@
       <c r="A513" t="s">
         <v>511</v>
       </c>
-      <c r="B513" s="4">
-        <v>0</v>
-      </c>
-      <c r="C513" s="4">
+      <c r="B513" s="3">
+        <v>0</v>
+      </c>
+      <c r="C513" s="3">
         <v>0</v>
       </c>
     </row>
@@ -17541,10 +17581,10 @@
       <c r="A514" t="s">
         <v>511</v>
       </c>
-      <c r="B514" s="4">
-        <v>1</v>
-      </c>
-      <c r="C514" s="4">
+      <c r="B514" s="3">
+        <v>1</v>
+      </c>
+      <c r="C514" s="3">
         <v>21</v>
       </c>
     </row>
@@ -17552,10 +17592,10 @@
       <c r="A515" t="s">
         <v>511</v>
       </c>
-      <c r="B515" s="4">
-        <v>2</v>
-      </c>
-      <c r="C515" s="4">
+      <c r="B515" s="3">
+        <v>2</v>
+      </c>
+      <c r="C515" s="3">
         <v>22</v>
       </c>
     </row>
@@ -17563,10 +17603,10 @@
       <c r="A516" t="s">
         <v>511</v>
       </c>
-      <c r="B516" s="4">
-        <v>3</v>
-      </c>
-      <c r="C516" s="4">
+      <c r="B516" s="3">
+        <v>3</v>
+      </c>
+      <c r="C516" s="3">
         <v>3</v>
       </c>
     </row>
@@ -17577,7 +17617,7 @@
       <c r="B517">
         <v>8</v>
       </c>
-      <c r="C517" s="4">
+      <c r="C517" s="3">
         <v>98</v>
       </c>
     </row>
@@ -17596,7 +17636,7 @@
       <c r="A519" t="s">
         <v>529</v>
       </c>
-      <c r="B519" s="4">
+      <c r="B519" s="3">
         <v>11</v>
       </c>
       <c r="C519">
@@ -17643,7 +17683,7 @@
       <c r="B523">
         <v>15</v>
       </c>
-      <c r="C523" s="4">
+      <c r="C523" s="3">
         <v>33</v>
       </c>
     </row>
@@ -17717,7 +17757,7 @@
       <c r="A530" t="s">
         <v>530</v>
       </c>
-      <c r="B530" s="4">
+      <c r="B530" s="3">
         <v>1</v>
       </c>
       <c r="C530">
@@ -17728,10 +17768,10 @@
       <c r="A531" t="s">
         <v>530</v>
       </c>
-      <c r="B531" s="4">
-        <v>2</v>
-      </c>
-      <c r="C531" s="3">
+      <c r="B531" s="3">
+        <v>2</v>
+      </c>
+      <c r="C531" s="2">
         <v>22</v>
       </c>
     </row>
@@ -17772,10 +17812,10 @@
       <c r="A535" t="s">
         <v>531</v>
       </c>
-      <c r="B535" s="4">
-        <v>0</v>
-      </c>
-      <c r="C535" s="4">
+      <c r="B535" s="3">
+        <v>0</v>
+      </c>
+      <c r="C535" s="3">
         <v>0</v>
       </c>
     </row>
@@ -17783,10 +17823,10 @@
       <c r="A536" t="s">
         <v>531</v>
       </c>
-      <c r="B536" s="4">
-        <v>1</v>
-      </c>
-      <c r="C536" s="4">
+      <c r="B536" s="3">
+        <v>1</v>
+      </c>
+      <c r="C536" s="3">
         <v>1</v>
       </c>
     </row>
@@ -17794,10 +17834,10 @@
       <c r="A537" t="s">
         <v>531</v>
       </c>
-      <c r="B537" s="4">
-        <v>2</v>
-      </c>
-      <c r="C537" s="5">
+      <c r="B537" s="3">
+        <v>2</v>
+      </c>
+      <c r="C537" s="4">
         <v>21</v>
       </c>
     </row>
@@ -17805,10 +17845,10 @@
       <c r="A538" t="s">
         <v>531</v>
       </c>
-      <c r="B538" s="4">
-        <v>3</v>
-      </c>
-      <c r="C538" s="5">
+      <c r="B538" s="3">
+        <v>3</v>
+      </c>
+      <c r="C538" s="4">
         <v>22</v>
       </c>
     </row>
@@ -17816,10 +17856,10 @@
       <c r="A539" t="s">
         <v>531</v>
       </c>
-      <c r="B539" s="4">
-        <v>4</v>
-      </c>
-      <c r="C539" s="4">
+      <c r="B539" s="3">
+        <v>4</v>
+      </c>
+      <c r="C539" s="3">
         <v>24</v>
       </c>
     </row>
@@ -17827,10 +17867,10 @@
       <c r="A540" t="s">
         <v>531</v>
       </c>
-      <c r="B540" s="4">
+      <c r="B540" s="3">
         <v>5</v>
       </c>
-      <c r="C540" s="4">
+      <c r="C540" s="3">
         <v>24</v>
       </c>
     </row>
@@ -17838,10 +17878,10 @@
       <c r="A541" t="s">
         <v>531</v>
       </c>
-      <c r="B541" s="4">
+      <c r="B541" s="3">
         <v>6</v>
       </c>
-      <c r="C541" s="4">
+      <c r="C541" s="3">
         <v>3</v>
       </c>
     </row>
@@ -17852,7 +17892,7 @@
       <c r="B542">
         <v>7</v>
       </c>
-      <c r="C542" s="4">
+      <c r="C542" s="3">
         <v>40</v>
       </c>
     </row>
@@ -17863,7 +17903,7 @@
       <c r="B543">
         <v>9</v>
       </c>
-      <c r="C543" s="4">
+      <c r="C543" s="3">
         <v>98</v>
       </c>
     </row>
@@ -17882,10 +17922,10 @@
       <c r="A545" t="s">
         <v>509</v>
       </c>
-      <c r="B545" s="4">
+      <c r="B545" s="3">
         <v>10</v>
       </c>
-      <c r="C545" s="4">
+      <c r="C545" s="3">
         <v>1</v>
       </c>
     </row>
@@ -17893,10 +17933,10 @@
       <c r="A546" t="s">
         <v>509</v>
       </c>
-      <c r="B546" s="4">
+      <c r="B546" s="3">
         <v>20</v>
       </c>
-      <c r="C546" s="4">
+      <c r="C546" s="3">
         <v>21</v>
       </c>
     </row>
@@ -17915,10 +17955,10 @@
       <c r="A548" t="s">
         <v>509</v>
       </c>
-      <c r="B548" s="4">
+      <c r="B548" s="3">
         <v>30</v>
       </c>
-      <c r="C548" s="4">
+      <c r="C548" s="3">
         <v>22</v>
       </c>
     </row>
@@ -17929,7 +17969,7 @@
       <c r="B549">
         <v>31</v>
       </c>
-      <c r="C549" s="4">
+      <c r="C549" s="3">
         <v>22</v>
       </c>
     </row>
@@ -17940,7 +17980,7 @@
       <c r="B550">
         <v>40</v>
       </c>
-      <c r="C550" s="4">
+      <c r="C550" s="3">
         <v>3</v>
       </c>
     </row>
@@ -17951,7 +17991,7 @@
       <c r="B551">
         <v>41</v>
       </c>
-      <c r="C551" s="4">
+      <c r="C551" s="3">
         <v>3</v>
       </c>
     </row>
@@ -17962,7 +18002,7 @@
       <c r="B552">
         <v>98</v>
       </c>
-      <c r="C552" s="4">
+      <c r="C552" s="3">
         <v>98</v>
       </c>
     </row>
@@ -17973,7 +18013,7 @@
       <c r="B553">
         <v>0</v>
       </c>
-      <c r="C553" s="4">
+      <c r="C553" s="3">
         <v>0</v>
       </c>
     </row>
@@ -17984,7 +18024,7 @@
       <c r="B554">
         <v>1</v>
       </c>
-      <c r="C554" s="4">
+      <c r="C554" s="3">
         <v>1</v>
       </c>
     </row>
@@ -17995,7 +18035,7 @@
       <c r="B555">
         <v>2</v>
       </c>
-      <c r="C555" s="4">
+      <c r="C555" s="3">
         <v>21</v>
       </c>
     </row>
@@ -18006,7 +18046,7 @@
       <c r="B556">
         <v>3</v>
       </c>
-      <c r="C556" s="4">
+      <c r="C556" s="3">
         <v>22</v>
       </c>
     </row>
@@ -18017,7 +18057,7 @@
       <c r="B557">
         <v>4</v>
       </c>
-      <c r="C557" s="4">
+      <c r="C557" s="3">
         <v>33</v>
       </c>
     </row>
@@ -18028,7 +18068,7 @@
       <c r="B558">
         <v>5</v>
       </c>
-      <c r="C558" s="4">
+      <c r="C558" s="3">
         <v>3</v>
       </c>
     </row>
@@ -18039,7 +18079,7 @@
       <c r="B559">
         <v>8</v>
       </c>
-      <c r="C559" s="4">
+      <c r="C559" s="3">
         <v>98</v>
       </c>
     </row>
@@ -18050,7 +18090,7 @@
       <c r="B560">
         <v>9</v>
       </c>
-      <c r="C560" s="4">
+      <c r="C560" s="3">
         <v>99</v>
       </c>
     </row>
@@ -18058,10 +18098,10 @@
       <c r="A561" t="s">
         <v>532</v>
       </c>
-      <c r="B561" s="4">
-        <v>0</v>
-      </c>
-      <c r="C561" s="4">
+      <c r="B561" s="3">
+        <v>0</v>
+      </c>
+      <c r="C561" s="3">
         <v>0</v>
       </c>
     </row>
@@ -18069,10 +18109,10 @@
       <c r="A562" t="s">
         <v>532</v>
       </c>
-      <c r="B562" s="4">
-        <v>1</v>
-      </c>
-      <c r="C562" s="4">
+      <c r="B562" s="3">
+        <v>1</v>
+      </c>
+      <c r="C562" s="3">
         <v>21</v>
       </c>
     </row>
@@ -18080,10 +18120,10 @@
       <c r="A563" t="s">
         <v>532</v>
       </c>
-      <c r="B563" s="4">
-        <v>2</v>
-      </c>
-      <c r="C563" s="4">
+      <c r="B563" s="3">
+        <v>2</v>
+      </c>
+      <c r="C563" s="3">
         <v>22</v>
       </c>
     </row>
@@ -18091,10 +18131,10 @@
       <c r="A564" t="s">
         <v>532</v>
       </c>
-      <c r="B564" s="4">
-        <v>4</v>
-      </c>
-      <c r="C564" s="4">
+      <c r="B564" s="3">
+        <v>4</v>
+      </c>
+      <c r="C564" s="3">
         <v>3</v>
       </c>
     </row>
@@ -18105,7 +18145,7 @@
       <c r="B565">
         <v>8</v>
       </c>
-      <c r="C565" s="4">
+      <c r="C565" s="3">
         <v>98</v>
       </c>
     </row>
@@ -18116,7 +18156,7 @@
       <c r="B566">
         <v>9</v>
       </c>
-      <c r="C566" s="4">
+      <c r="C566" s="3">
         <v>99</v>
       </c>
     </row>
@@ -18135,10 +18175,10 @@
       <c r="A568" t="s">
         <v>533</v>
       </c>
-      <c r="B568" s="4">
-        <v>1</v>
-      </c>
-      <c r="C568" s="4">
+      <c r="B568" s="3">
+        <v>1</v>
+      </c>
+      <c r="C568" s="3">
         <v>0</v>
       </c>
     </row>
@@ -18146,10 +18186,10 @@
       <c r="A569" t="s">
         <v>533</v>
       </c>
-      <c r="B569" s="4">
-        <v>2</v>
-      </c>
-      <c r="C569" s="4">
+      <c r="B569" s="3">
+        <v>2</v>
+      </c>
+      <c r="C569" s="3">
         <v>21</v>
       </c>
     </row>
@@ -18157,10 +18197,10 @@
       <c r="A570" t="s">
         <v>533</v>
       </c>
-      <c r="B570" s="4">
-        <v>3</v>
-      </c>
-      <c r="C570" s="4">
+      <c r="B570" s="3">
+        <v>3</v>
+      </c>
+      <c r="C570" s="3">
         <v>22</v>
       </c>
     </row>
@@ -18168,10 +18208,10 @@
       <c r="A571" t="s">
         <v>533</v>
       </c>
-      <c r="B571" s="4">
-        <v>4</v>
-      </c>
-      <c r="C571" s="4">
+      <c r="B571" s="3">
+        <v>4</v>
+      </c>
+      <c r="C571" s="3">
         <v>22</v>
       </c>
     </row>
@@ -18182,7 +18222,7 @@
       <c r="B572">
         <v>5</v>
       </c>
-      <c r="C572" s="4">
+      <c r="C572" s="3">
         <v>24</v>
       </c>
     </row>
@@ -18201,10 +18241,10 @@
       <c r="A574" t="s">
         <v>533</v>
       </c>
-      <c r="B574" s="4">
+      <c r="B574" s="3">
         <v>7</v>
       </c>
-      <c r="C574" s="4">
+      <c r="C574" s="3">
         <v>3</v>
       </c>
     </row>
@@ -18245,10 +18285,10 @@
       <c r="A578" t="s">
         <v>515</v>
       </c>
-      <c r="B578" s="4">
-        <v>0</v>
-      </c>
-      <c r="C578" s="4">
+      <c r="B578" s="3">
+        <v>0</v>
+      </c>
+      <c r="C578" s="3">
         <v>0</v>
       </c>
     </row>
@@ -18256,10 +18296,10 @@
       <c r="A579" t="s">
         <v>515</v>
       </c>
-      <c r="B579" s="4">
-        <v>1</v>
-      </c>
-      <c r="C579" s="4">
+      <c r="B579" s="3">
+        <v>1</v>
+      </c>
+      <c r="C579" s="3">
         <v>0</v>
       </c>
     </row>
@@ -18267,10 +18307,10 @@
       <c r="A580" t="s">
         <v>515</v>
       </c>
-      <c r="B580" s="4">
-        <v>2</v>
-      </c>
-      <c r="C580" s="4">
+      <c r="B580" s="3">
+        <v>2</v>
+      </c>
+      <c r="C580" s="3">
         <v>1</v>
       </c>
     </row>
@@ -18278,10 +18318,10 @@
       <c r="A581" t="s">
         <v>515</v>
       </c>
-      <c r="B581" s="4">
-        <v>3</v>
-      </c>
-      <c r="C581" s="5">
+      <c r="B581" s="3">
+        <v>3</v>
+      </c>
+      <c r="C581" s="4">
         <v>21</v>
       </c>
     </row>
@@ -18289,10 +18329,10 @@
       <c r="A582" t="s">
         <v>515</v>
       </c>
-      <c r="B582" s="4">
-        <v>4</v>
-      </c>
-      <c r="C582" s="5">
+      <c r="B582" s="3">
+        <v>4</v>
+      </c>
+      <c r="C582" s="4">
         <v>21</v>
       </c>
     </row>
@@ -18300,10 +18340,10 @@
       <c r="A583" t="s">
         <v>515</v>
       </c>
-      <c r="B583" s="4">
+      <c r="B583" s="3">
         <v>5</v>
       </c>
-      <c r="C583" s="5">
+      <c r="C583" s="4">
         <v>22</v>
       </c>
     </row>
@@ -18311,10 +18351,10 @@
       <c r="A584" t="s">
         <v>515</v>
       </c>
-      <c r="B584" s="4">
+      <c r="B584" s="3">
         <v>6</v>
       </c>
-      <c r="C584" s="4">
+      <c r="C584" s="3">
         <v>3</v>
       </c>
     </row>
@@ -18325,7 +18365,7 @@
       <c r="B585">
         <v>9</v>
       </c>
-      <c r="C585" s="4">
+      <c r="C585" s="3">
         <v>98</v>
       </c>
     </row>
@@ -18333,10 +18373,10 @@
       <c r="A586" t="s">
         <v>510</v>
       </c>
-      <c r="B586" s="4">
-        <v>0</v>
-      </c>
-      <c r="C586" s="4">
+      <c r="B586" s="3">
+        <v>0</v>
+      </c>
+      <c r="C586" s="3">
         <v>0</v>
       </c>
     </row>
@@ -18344,10 +18384,10 @@
       <c r="A587" t="s">
         <v>510</v>
       </c>
-      <c r="B587" s="4">
-        <v>1</v>
-      </c>
-      <c r="C587" s="4">
+      <c r="B587" s="3">
+        <v>1</v>
+      </c>
+      <c r="C587" s="3">
         <v>1</v>
       </c>
     </row>
@@ -18355,10 +18395,10 @@
       <c r="A588" t="s">
         <v>510</v>
       </c>
-      <c r="B588" s="4">
-        <v>2</v>
-      </c>
-      <c r="C588" s="4">
+      <c r="B588" s="3">
+        <v>2</v>
+      </c>
+      <c r="C588" s="3">
         <v>22</v>
       </c>
     </row>
@@ -18369,7 +18409,7 @@
       <c r="B589">
         <v>3</v>
       </c>
-      <c r="C589" s="4">
+      <c r="C589" s="3">
         <v>33</v>
       </c>
     </row>
@@ -18380,7 +18420,7 @@
       <c r="B590">
         <v>4</v>
       </c>
-      <c r="C590" s="4">
+      <c r="C590" s="3">
         <v>3</v>
       </c>
     </row>
@@ -18391,7 +18431,7 @@
       <c r="B591">
         <v>5</v>
       </c>
-      <c r="C591" s="4">
+      <c r="C591" s="3">
         <v>3</v>
       </c>
     </row>
@@ -18402,7 +18442,7 @@
       <c r="B592">
         <v>8</v>
       </c>
-      <c r="C592" s="4">
+      <c r="C592" s="3">
         <v>98</v>
       </c>
     </row>
@@ -18413,7 +18453,7 @@
       <c r="B593">
         <v>9</v>
       </c>
-      <c r="C593" s="4">
+      <c r="C593" s="3">
         <v>99</v>
       </c>
     </row>
@@ -18421,10 +18461,10 @@
       <c r="A594" t="s">
         <v>513</v>
       </c>
-      <c r="B594" s="4">
-        <v>0</v>
-      </c>
-      <c r="C594" s="4">
+      <c r="B594" s="3">
+        <v>0</v>
+      </c>
+      <c r="C594" s="3">
         <v>0</v>
       </c>
     </row>
@@ -18432,10 +18472,10 @@
       <c r="A595" t="s">
         <v>513</v>
       </c>
-      <c r="B595" s="4">
-        <v>1</v>
-      </c>
-      <c r="C595" s="4">
+      <c r="B595" s="3">
+        <v>1</v>
+      </c>
+      <c r="C595" s="3">
         <v>1</v>
       </c>
     </row>
@@ -18443,10 +18483,10 @@
       <c r="A596" t="s">
         <v>513</v>
       </c>
-      <c r="B596" s="4">
-        <v>2</v>
-      </c>
-      <c r="C596" s="4">
+      <c r="B596" s="3">
+        <v>2</v>
+      </c>
+      <c r="C596" s="3">
         <v>21</v>
       </c>
     </row>
@@ -18454,10 +18494,10 @@
       <c r="A597" t="s">
         <v>513</v>
       </c>
-      <c r="B597" s="4">
-        <v>3</v>
-      </c>
-      <c r="C597" s="4">
+      <c r="B597" s="3">
+        <v>3</v>
+      </c>
+      <c r="C597" s="3">
         <v>22</v>
       </c>
     </row>
@@ -18465,10 +18505,10 @@
       <c r="A598" t="s">
         <v>513</v>
       </c>
-      <c r="B598" s="4">
-        <v>4</v>
-      </c>
-      <c r="C598" s="4">
+      <c r="B598" s="3">
+        <v>4</v>
+      </c>
+      <c r="C598" s="3">
         <v>3</v>
       </c>
     </row>
@@ -18479,7 +18519,7 @@
       <c r="B599">
         <v>8</v>
       </c>
-      <c r="C599" s="4">
+      <c r="C599" s="3">
         <v>98</v>
       </c>
     </row>
@@ -18490,7 +18530,7 @@
       <c r="B600">
         <v>9</v>
       </c>
-      <c r="C600" s="4">
+      <c r="C600" s="3">
         <v>99</v>
       </c>
     </row>
@@ -18509,10 +18549,10 @@
       <c r="A602" t="s">
         <v>514</v>
       </c>
-      <c r="B602" s="4">
-        <v>1</v>
-      </c>
-      <c r="C602" s="4">
+      <c r="B602" s="3">
+        <v>1</v>
+      </c>
+      <c r="C602" s="3">
         <v>1</v>
       </c>
     </row>
@@ -18520,10 +18560,10 @@
       <c r="A603" t="s">
         <v>514</v>
       </c>
-      <c r="B603" s="4">
-        <v>2</v>
-      </c>
-      <c r="C603" s="4">
+      <c r="B603" s="3">
+        <v>2</v>
+      </c>
+      <c r="C603" s="3">
         <v>21</v>
       </c>
     </row>
@@ -18531,10 +18571,10 @@
       <c r="A604" t="s">
         <v>514</v>
       </c>
-      <c r="B604" s="4">
-        <v>3</v>
-      </c>
-      <c r="C604" s="4">
+      <c r="B604" s="3">
+        <v>3</v>
+      </c>
+      <c r="C604" s="3">
         <v>22</v>
       </c>
     </row>
@@ -18545,7 +18585,7 @@
       <c r="B605">
         <v>4</v>
       </c>
-      <c r="C605" s="4">
+      <c r="C605" s="3">
         <v>22</v>
       </c>
     </row>
@@ -18556,7 +18596,7 @@
       <c r="B606">
         <v>5</v>
       </c>
-      <c r="C606" s="4">
+      <c r="C606" s="3">
         <v>3</v>
       </c>
     </row>
@@ -18567,7 +18607,7 @@
       <c r="B607">
         <v>8</v>
       </c>
-      <c r="C607" s="4">
+      <c r="C607" s="3">
         <v>98</v>
       </c>
     </row>
@@ -18578,7 +18618,7 @@
       <c r="B608">
         <v>9</v>
       </c>
-      <c r="C608" s="4">
+      <c r="C608" s="3">
         <v>99</v>
       </c>
     </row>
@@ -18594,7 +18634,7 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <dimension ref="A1:AMH609"/>
+  <dimension ref="A1:D609"/>
   <sheetViews>
     <sheetView topLeftCell="A464" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L479" sqref="L479"/>
@@ -18606,7 +18646,6 @@
     <col min="2" max="2" width="9.140625" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" customWidth="1"/>
     <col min="4" max="63" width="7.85546875" customWidth="1"/>
-    <col min="64" max="1022" width="10.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -21886,7 +21925,7 @@
       <c r="C298">
         <v>0</v>
       </c>
-      <c r="D298" s="3"/>
+      <c r="D298" s="2"/>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
@@ -22940,7 +22979,7 @@
       <c r="B394">
         <v>1</v>
       </c>
-      <c r="C394" s="4">
+      <c r="C394" s="3">
         <v>1</v>
       </c>
     </row>
@@ -22951,7 +22990,7 @@
       <c r="B395">
         <v>2</v>
       </c>
-      <c r="C395" s="4">
+      <c r="C395" s="3">
         <v>21</v>
       </c>
     </row>
@@ -22962,7 +23001,7 @@
       <c r="B396">
         <v>3</v>
       </c>
-      <c r="C396" s="4">
+      <c r="C396" s="3">
         <v>22</v>
       </c>
     </row>
@@ -22973,7 +23012,7 @@
       <c r="B397">
         <v>4</v>
       </c>
-      <c r="C397" s="4">
+      <c r="C397" s="3">
         <v>3</v>
       </c>
     </row>
@@ -22984,7 +23023,7 @@
       <c r="B398">
         <v>8</v>
       </c>
-      <c r="C398" s="4">
+      <c r="C398" s="3">
         <v>98</v>
       </c>
     </row>
@@ -23006,7 +23045,7 @@
       <c r="B400">
         <v>1</v>
       </c>
-      <c r="C400" s="4">
+      <c r="C400" s="3">
         <v>1</v>
       </c>
     </row>
@@ -23017,7 +23056,7 @@
       <c r="B401">
         <v>2</v>
       </c>
-      <c r="C401" s="4">
+      <c r="C401" s="3">
         <v>21</v>
       </c>
     </row>
@@ -23072,7 +23111,7 @@
       <c r="B406">
         <v>1</v>
       </c>
-      <c r="C406" s="4">
+      <c r="C406" s="3">
         <v>1</v>
       </c>
     </row>
@@ -23083,7 +23122,7 @@
       <c r="B407">
         <v>2</v>
       </c>
-      <c r="C407" s="4">
+      <c r="C407" s="3">
         <v>21</v>
       </c>
     </row>
@@ -23168,7 +23207,7 @@
       <c r="A415" t="s">
         <v>498</v>
       </c>
-      <c r="B415" s="4">
+      <c r="B415" s="3">
         <v>2</v>
       </c>
       <c r="C415">
@@ -23314,7 +23353,7 @@
       <c r="B428">
         <v>1</v>
       </c>
-      <c r="C428" s="4">
+      <c r="C428" s="3">
         <v>1</v>
       </c>
     </row>
@@ -23325,7 +23364,7 @@
       <c r="B429">
         <v>2</v>
       </c>
-      <c r="C429" s="4">
+      <c r="C429" s="3">
         <v>21</v>
       </c>
     </row>
@@ -23336,7 +23375,7 @@
       <c r="B430">
         <v>3</v>
       </c>
-      <c r="C430" s="4">
+      <c r="C430" s="3">
         <v>22</v>
       </c>
     </row>
@@ -23347,7 +23386,7 @@
       <c r="B431">
         <v>4</v>
       </c>
-      <c r="C431" s="4">
+      <c r="C431" s="3">
         <v>3</v>
       </c>
     </row>
@@ -23358,7 +23397,7 @@
       <c r="B432">
         <v>8</v>
       </c>
-      <c r="C432" s="4">
+      <c r="C432" s="3">
         <v>98</v>
       </c>
     </row>
@@ -23369,7 +23408,7 @@
       <c r="B433">
         <v>9</v>
       </c>
-      <c r="C433" s="4">
+      <c r="C433" s="3">
         <v>99</v>
       </c>
     </row>
@@ -23391,7 +23430,7 @@
       <c r="B435">
         <v>1</v>
       </c>
-      <c r="C435" s="4">
+      <c r="C435" s="3">
         <v>70</v>
       </c>
     </row>
@@ -23454,10 +23493,10 @@
       <c r="A441" t="s">
         <v>502</v>
       </c>
-      <c r="B441" s="4">
-        <v>2</v>
-      </c>
-      <c r="C441" s="4">
+      <c r="B441" s="3">
+        <v>2</v>
+      </c>
+      <c r="C441" s="3">
         <v>70</v>
       </c>
     </row>
@@ -23520,7 +23559,7 @@
       <c r="A447" t="s">
         <v>503</v>
       </c>
-      <c r="B447" s="4">
+      <c r="B447" s="3">
         <v>1</v>
       </c>
       <c r="C447">
@@ -23567,7 +23606,7 @@
       <c r="B451">
         <v>1</v>
       </c>
-      <c r="C451" s="4">
+      <c r="C451" s="3">
         <v>0</v>
       </c>
     </row>
@@ -23578,7 +23617,7 @@
       <c r="B452">
         <v>2</v>
       </c>
-      <c r="C452" s="4">
+      <c r="C452" s="3">
         <v>70</v>
       </c>
     </row>
@@ -23641,7 +23680,7 @@
       <c r="A458" t="s">
         <v>505</v>
       </c>
-      <c r="B458" s="4">
+      <c r="B458" s="3">
         <v>2</v>
       </c>
       <c r="C458">
@@ -23883,10 +23922,10 @@
       <c r="A480" t="s">
         <v>525</v>
       </c>
-      <c r="B480" s="4">
-        <v>0</v>
-      </c>
-      <c r="C480" s="4">
+      <c r="B480" s="3">
+        <v>0</v>
+      </c>
+      <c r="C480" s="3">
         <v>0</v>
       </c>
     </row>
@@ -23897,7 +23936,7 @@
       <c r="B481">
         <v>1</v>
       </c>
-      <c r="C481" s="4">
+      <c r="C481" s="3">
         <v>1</v>
       </c>
     </row>
@@ -23916,7 +23955,7 @@
       <c r="A483" t="s">
         <v>525</v>
       </c>
-      <c r="B483" s="4">
+      <c r="B483" s="3">
         <v>3</v>
       </c>
       <c r="C483">
@@ -23930,7 +23969,7 @@
       <c r="B484">
         <v>4</v>
       </c>
-      <c r="C484" s="4">
+      <c r="C484" s="3">
         <v>22</v>
       </c>
     </row>
@@ -23938,10 +23977,10 @@
       <c r="A485" t="s">
         <v>525</v>
       </c>
-      <c r="B485" s="4">
+      <c r="B485" s="3">
         <v>5</v>
       </c>
-      <c r="C485" s="4">
+      <c r="C485" s="3">
         <v>51</v>
       </c>
     </row>
@@ -23949,10 +23988,10 @@
       <c r="A486" t="s">
         <v>525</v>
       </c>
-      <c r="B486" s="4">
+      <c r="B486" s="3">
         <v>6</v>
       </c>
-      <c r="C486" s="4">
+      <c r="C486" s="3">
         <v>3</v>
       </c>
     </row>
@@ -23963,7 +24002,7 @@
       <c r="B487">
         <v>7</v>
       </c>
-      <c r="C487" s="4">
+      <c r="C487" s="3">
         <v>3</v>
       </c>
     </row>
@@ -23974,7 +24013,7 @@
       <c r="B488">
         <v>8</v>
       </c>
-      <c r="C488" s="4">
+      <c r="C488" s="3">
         <v>40</v>
       </c>
     </row>
@@ -23985,7 +24024,7 @@
       <c r="B489">
         <v>9</v>
       </c>
-      <c r="C489" s="4">
+      <c r="C489" s="3">
         <v>80</v>
       </c>
     </row>
@@ -23996,7 +24035,7 @@
       <c r="B490">
         <v>98</v>
       </c>
-      <c r="C490" s="4">
+      <c r="C490" s="3">
         <v>98</v>
       </c>
     </row>
@@ -24007,7 +24046,7 @@
       <c r="B491">
         <v>99</v>
       </c>
-      <c r="C491" s="4">
+      <c r="C491" s="3">
         <v>99</v>
       </c>
     </row>
@@ -24015,10 +24054,10 @@
       <c r="A492" t="s">
         <v>526</v>
       </c>
-      <c r="B492" s="4">
-        <v>0</v>
-      </c>
-      <c r="C492" s="4">
+      <c r="B492" s="3">
+        <v>0</v>
+      </c>
+      <c r="C492" s="3">
         <v>0</v>
       </c>
     </row>
@@ -24026,10 +24065,10 @@
       <c r="A493" t="s">
         <v>526</v>
       </c>
-      <c r="B493" s="4">
-        <v>1</v>
-      </c>
-      <c r="C493" s="4">
+      <c r="B493" s="3">
+        <v>1</v>
+      </c>
+      <c r="C493" s="3">
         <v>1</v>
       </c>
     </row>
@@ -24037,10 +24076,10 @@
       <c r="A494" t="s">
         <v>526</v>
       </c>
-      <c r="B494" s="4">
-        <v>2</v>
-      </c>
-      <c r="C494" s="5">
+      <c r="B494" s="3">
+        <v>2</v>
+      </c>
+      <c r="C494" s="4">
         <v>21</v>
       </c>
     </row>
@@ -24048,10 +24087,10 @@
       <c r="A495" t="s">
         <v>526</v>
       </c>
-      <c r="B495" s="4">
-        <v>3</v>
-      </c>
-      <c r="C495" s="5">
+      <c r="B495" s="3">
+        <v>3</v>
+      </c>
+      <c r="C495" s="4">
         <v>22</v>
       </c>
     </row>
@@ -24062,7 +24101,7 @@
       <c r="B496">
         <v>4</v>
       </c>
-      <c r="C496" s="4">
+      <c r="C496" s="3">
         <v>3</v>
       </c>
     </row>
@@ -24073,7 +24112,7 @@
       <c r="B497">
         <v>8</v>
       </c>
-      <c r="C497" s="4">
+      <c r="C497" s="3">
         <v>98</v>
       </c>
     </row>
@@ -24084,7 +24123,7 @@
       <c r="B498">
         <v>9</v>
       </c>
-      <c r="C498" s="4">
+      <c r="C498" s="3">
         <v>99</v>
       </c>
     </row>
@@ -24092,10 +24131,10 @@
       <c r="A499" t="s">
         <v>527</v>
       </c>
-      <c r="B499" s="4">
-        <v>0</v>
-      </c>
-      <c r="C499" s="4">
+      <c r="B499" s="3">
+        <v>0</v>
+      </c>
+      <c r="C499" s="3">
         <v>0</v>
       </c>
     </row>
@@ -24103,10 +24142,10 @@
       <c r="A500" t="s">
         <v>527</v>
       </c>
-      <c r="B500" s="4">
-        <v>1</v>
-      </c>
-      <c r="C500" s="4">
+      <c r="B500" s="3">
+        <v>1</v>
+      </c>
+      <c r="C500" s="3">
         <v>1</v>
       </c>
     </row>
@@ -24114,10 +24153,10 @@
       <c r="A501" t="s">
         <v>527</v>
       </c>
-      <c r="B501" s="4">
-        <v>2</v>
-      </c>
-      <c r="C501" s="4">
+      <c r="B501" s="3">
+        <v>2</v>
+      </c>
+      <c r="C501" s="3">
         <v>21</v>
       </c>
     </row>
@@ -24125,10 +24164,10 @@
       <c r="A502" t="s">
         <v>527</v>
       </c>
-      <c r="B502" s="4">
-        <v>3</v>
-      </c>
-      <c r="C502" s="5">
+      <c r="B502" s="3">
+        <v>3</v>
+      </c>
+      <c r="C502" s="4">
         <v>22</v>
       </c>
     </row>
@@ -24136,10 +24175,10 @@
       <c r="A503" t="s">
         <v>527</v>
       </c>
-      <c r="B503" s="4">
-        <v>4</v>
-      </c>
-      <c r="C503" s="4">
+      <c r="B503" s="3">
+        <v>4</v>
+      </c>
+      <c r="C503" s="3">
         <v>3</v>
       </c>
     </row>
@@ -24150,7 +24189,7 @@
       <c r="B504">
         <v>5</v>
       </c>
-      <c r="C504" s="4">
+      <c r="C504" s="3">
         <v>33</v>
       </c>
     </row>
@@ -24161,7 +24200,7 @@
       <c r="B505">
         <v>8</v>
       </c>
-      <c r="C505" s="4">
+      <c r="C505" s="3">
         <v>99</v>
       </c>
     </row>
@@ -24172,7 +24211,7 @@
       <c r="B506">
         <v>9</v>
       </c>
-      <c r="C506" s="4">
+      <c r="C506" s="3">
         <v>98</v>
       </c>
     </row>
@@ -24191,10 +24230,10 @@
       <c r="A508" t="s">
         <v>528</v>
       </c>
-      <c r="B508" s="4">
-        <v>1</v>
-      </c>
-      <c r="C508" s="4">
+      <c r="B508" s="3">
+        <v>1</v>
+      </c>
+      <c r="C508" s="3">
         <v>1</v>
       </c>
     </row>
@@ -24202,10 +24241,10 @@
       <c r="A509" t="s">
         <v>528</v>
       </c>
-      <c r="B509" s="4">
-        <v>2</v>
-      </c>
-      <c r="C509" s="5">
+      <c r="B509" s="3">
+        <v>2</v>
+      </c>
+      <c r="C509" s="4">
         <v>22</v>
       </c>
     </row>
@@ -24213,10 +24252,10 @@
       <c r="A510" t="s">
         <v>528</v>
       </c>
-      <c r="B510" s="4">
-        <v>4</v>
-      </c>
-      <c r="C510" s="4">
+      <c r="B510" s="3">
+        <v>4</v>
+      </c>
+      <c r="C510" s="3">
         <v>3</v>
       </c>
     </row>
@@ -24227,7 +24266,7 @@
       <c r="B511">
         <v>5</v>
       </c>
-      <c r="C511" s="4">
+      <c r="C511" s="3">
         <v>50</v>
       </c>
     </row>
@@ -24238,7 +24277,7 @@
       <c r="B512">
         <v>8</v>
       </c>
-      <c r="C512" s="4">
+      <c r="C512" s="3">
         <v>98</v>
       </c>
     </row>
@@ -24249,7 +24288,7 @@
       <c r="B513">
         <v>9</v>
       </c>
-      <c r="C513" s="4">
+      <c r="C513" s="3">
         <v>99</v>
       </c>
     </row>
@@ -24257,10 +24296,10 @@
       <c r="A514" t="s">
         <v>511</v>
       </c>
-      <c r="B514" s="4">
-        <v>0</v>
-      </c>
-      <c r="C514" s="4">
+      <c r="B514" s="3">
+        <v>0</v>
+      </c>
+      <c r="C514" s="3">
         <v>0</v>
       </c>
     </row>
@@ -24268,10 +24307,10 @@
       <c r="A515" t="s">
         <v>511</v>
       </c>
-      <c r="B515" s="4">
-        <v>1</v>
-      </c>
-      <c r="C515" s="4">
+      <c r="B515" s="3">
+        <v>1</v>
+      </c>
+      <c r="C515" s="3">
         <v>21</v>
       </c>
     </row>
@@ -24279,10 +24318,10 @@
       <c r="A516" t="s">
         <v>511</v>
       </c>
-      <c r="B516" s="4">
-        <v>2</v>
-      </c>
-      <c r="C516" s="4">
+      <c r="B516" s="3">
+        <v>2</v>
+      </c>
+      <c r="C516" s="3">
         <v>22</v>
       </c>
     </row>
@@ -24290,10 +24329,10 @@
       <c r="A517" t="s">
         <v>511</v>
       </c>
-      <c r="B517" s="4">
-        <v>3</v>
-      </c>
-      <c r="C517" s="4">
+      <c r="B517" s="3">
+        <v>3</v>
+      </c>
+      <c r="C517" s="3">
         <v>3</v>
       </c>
     </row>
@@ -24304,7 +24343,7 @@
       <c r="B518">
         <v>8</v>
       </c>
-      <c r="C518" s="4">
+      <c r="C518" s="3">
         <v>98</v>
       </c>
     </row>
@@ -24323,7 +24362,7 @@
       <c r="A520" t="s">
         <v>529</v>
       </c>
-      <c r="B520" s="4">
+      <c r="B520" s="3">
         <v>11</v>
       </c>
       <c r="C520">
@@ -24370,7 +24409,7 @@
       <c r="B524">
         <v>15</v>
       </c>
-      <c r="C524" s="4">
+      <c r="C524" s="3">
         <v>33</v>
       </c>
     </row>
@@ -24444,7 +24483,7 @@
       <c r="A531" t="s">
         <v>530</v>
       </c>
-      <c r="B531" s="4">
+      <c r="B531" s="3">
         <v>1</v>
       </c>
       <c r="C531">
@@ -24455,10 +24494,10 @@
       <c r="A532" t="s">
         <v>530</v>
       </c>
-      <c r="B532" s="4">
-        <v>2</v>
-      </c>
-      <c r="C532" s="3">
+      <c r="B532" s="3">
+        <v>2</v>
+      </c>
+      <c r="C532" s="2">
         <v>22</v>
       </c>
     </row>
@@ -24499,10 +24538,10 @@
       <c r="A536" t="s">
         <v>531</v>
       </c>
-      <c r="B536" s="4">
-        <v>0</v>
-      </c>
-      <c r="C536" s="4">
+      <c r="B536" s="3">
+        <v>0</v>
+      </c>
+      <c r="C536" s="3">
         <v>0</v>
       </c>
     </row>
@@ -24510,10 +24549,10 @@
       <c r="A537" t="s">
         <v>531</v>
       </c>
-      <c r="B537" s="4">
-        <v>1</v>
-      </c>
-      <c r="C537" s="4">
+      <c r="B537" s="3">
+        <v>1</v>
+      </c>
+      <c r="C537" s="3">
         <v>1</v>
       </c>
     </row>
@@ -24521,10 +24560,10 @@
       <c r="A538" t="s">
         <v>531</v>
       </c>
-      <c r="B538" s="4">
-        <v>2</v>
-      </c>
-      <c r="C538" s="5">
+      <c r="B538" s="3">
+        <v>2</v>
+      </c>
+      <c r="C538" s="4">
         <v>21</v>
       </c>
     </row>
@@ -24532,10 +24571,10 @@
       <c r="A539" t="s">
         <v>531</v>
       </c>
-      <c r="B539" s="4">
-        <v>3</v>
-      </c>
-      <c r="C539" s="5">
+      <c r="B539" s="3">
+        <v>3</v>
+      </c>
+      <c r="C539" s="4">
         <v>22</v>
       </c>
     </row>
@@ -24543,10 +24582,10 @@
       <c r="A540" t="s">
         <v>531</v>
       </c>
-      <c r="B540" s="4">
-        <v>4</v>
-      </c>
-      <c r="C540" s="4">
+      <c r="B540" s="3">
+        <v>4</v>
+      </c>
+      <c r="C540" s="3">
         <v>24</v>
       </c>
     </row>
@@ -24554,10 +24593,10 @@
       <c r="A541" t="s">
         <v>531</v>
       </c>
-      <c r="B541" s="4">
+      <c r="B541" s="3">
         <v>5</v>
       </c>
-      <c r="C541" s="4">
+      <c r="C541" s="3">
         <v>24</v>
       </c>
     </row>
@@ -24565,10 +24604,10 @@
       <c r="A542" t="s">
         <v>531</v>
       </c>
-      <c r="B542" s="4">
+      <c r="B542" s="3">
         <v>6</v>
       </c>
-      <c r="C542" s="4">
+      <c r="C542" s="3">
         <v>3</v>
       </c>
     </row>
@@ -24579,7 +24618,7 @@
       <c r="B543">
         <v>7</v>
       </c>
-      <c r="C543" s="4">
+      <c r="C543" s="3">
         <v>40</v>
       </c>
     </row>
@@ -24590,7 +24629,7 @@
       <c r="B544">
         <v>9</v>
       </c>
-      <c r="C544" s="4">
+      <c r="C544" s="3">
         <v>98</v>
       </c>
     </row>
@@ -24609,10 +24648,10 @@
       <c r="A546" t="s">
         <v>509</v>
       </c>
-      <c r="B546" s="4">
+      <c r="B546" s="3">
         <v>10</v>
       </c>
-      <c r="C546" s="4">
+      <c r="C546" s="3">
         <v>1</v>
       </c>
     </row>
@@ -24620,10 +24659,10 @@
       <c r="A547" t="s">
         <v>509</v>
       </c>
-      <c r="B547" s="4">
+      <c r="B547" s="3">
         <v>20</v>
       </c>
-      <c r="C547" s="4">
+      <c r="C547" s="3">
         <v>21</v>
       </c>
     </row>
@@ -24642,10 +24681,10 @@
       <c r="A549" t="s">
         <v>509</v>
       </c>
-      <c r="B549" s="4">
+      <c r="B549" s="3">
         <v>30</v>
       </c>
-      <c r="C549" s="4">
+      <c r="C549" s="3">
         <v>22</v>
       </c>
     </row>
@@ -24656,7 +24695,7 @@
       <c r="B550">
         <v>31</v>
       </c>
-      <c r="C550" s="4">
+      <c r="C550" s="3">
         <v>22</v>
       </c>
     </row>
@@ -24667,7 +24706,7 @@
       <c r="B551">
         <v>40</v>
       </c>
-      <c r="C551" s="4">
+      <c r="C551" s="3">
         <v>3</v>
       </c>
     </row>
@@ -24678,7 +24717,7 @@
       <c r="B552">
         <v>41</v>
       </c>
-      <c r="C552" s="4">
+      <c r="C552" s="3">
         <v>3</v>
       </c>
     </row>
@@ -24689,7 +24728,7 @@
       <c r="B553">
         <v>98</v>
       </c>
-      <c r="C553" s="4">
+      <c r="C553" s="3">
         <v>98</v>
       </c>
     </row>
@@ -24700,7 +24739,7 @@
       <c r="B554">
         <v>0</v>
       </c>
-      <c r="C554" s="4">
+      <c r="C554" s="3">
         <v>0</v>
       </c>
     </row>
@@ -24711,7 +24750,7 @@
       <c r="B555">
         <v>1</v>
       </c>
-      <c r="C555" s="4">
+      <c r="C555" s="3">
         <v>1</v>
       </c>
     </row>
@@ -24722,7 +24761,7 @@
       <c r="B556">
         <v>2</v>
       </c>
-      <c r="C556" s="4">
+      <c r="C556" s="3">
         <v>21</v>
       </c>
     </row>
@@ -24733,7 +24772,7 @@
       <c r="B557">
         <v>3</v>
       </c>
-      <c r="C557" s="4">
+      <c r="C557" s="3">
         <v>22</v>
       </c>
     </row>
@@ -24744,7 +24783,7 @@
       <c r="B558">
         <v>4</v>
       </c>
-      <c r="C558" s="4">
+      <c r="C558" s="3">
         <v>33</v>
       </c>
     </row>
@@ -24755,7 +24794,7 @@
       <c r="B559">
         <v>5</v>
       </c>
-      <c r="C559" s="4">
+      <c r="C559" s="3">
         <v>3</v>
       </c>
     </row>
@@ -24766,7 +24805,7 @@
       <c r="B560">
         <v>8</v>
       </c>
-      <c r="C560" s="4">
+      <c r="C560" s="3">
         <v>98</v>
       </c>
     </row>
@@ -24777,7 +24816,7 @@
       <c r="B561">
         <v>9</v>
       </c>
-      <c r="C561" s="4">
+      <c r="C561" s="3">
         <v>99</v>
       </c>
     </row>
@@ -24785,10 +24824,10 @@
       <c r="A562" t="s">
         <v>532</v>
       </c>
-      <c r="B562" s="4">
-        <v>0</v>
-      </c>
-      <c r="C562" s="4">
+      <c r="B562" s="3">
+        <v>0</v>
+      </c>
+      <c r="C562" s="3">
         <v>0</v>
       </c>
     </row>
@@ -24796,10 +24835,10 @@
       <c r="A563" t="s">
         <v>532</v>
       </c>
-      <c r="B563" s="4">
-        <v>1</v>
-      </c>
-      <c r="C563" s="4">
+      <c r="B563" s="3">
+        <v>1</v>
+      </c>
+      <c r="C563" s="3">
         <v>21</v>
       </c>
     </row>
@@ -24807,10 +24846,10 @@
       <c r="A564" t="s">
         <v>532</v>
       </c>
-      <c r="B564" s="4">
-        <v>2</v>
-      </c>
-      <c r="C564" s="4">
+      <c r="B564" s="3">
+        <v>2</v>
+      </c>
+      <c r="C564" s="3">
         <v>22</v>
       </c>
     </row>
@@ -24818,10 +24857,10 @@
       <c r="A565" t="s">
         <v>532</v>
       </c>
-      <c r="B565" s="4">
-        <v>4</v>
-      </c>
-      <c r="C565" s="4">
+      <c r="B565" s="3">
+        <v>4</v>
+      </c>
+      <c r="C565" s="3">
         <v>3</v>
       </c>
     </row>
@@ -24832,7 +24871,7 @@
       <c r="B566">
         <v>8</v>
       </c>
-      <c r="C566" s="4">
+      <c r="C566" s="3">
         <v>98</v>
       </c>
     </row>
@@ -24843,7 +24882,7 @@
       <c r="B567">
         <v>9</v>
       </c>
-      <c r="C567" s="4">
+      <c r="C567" s="3">
         <v>99</v>
       </c>
     </row>
@@ -24862,10 +24901,10 @@
       <c r="A569" t="s">
         <v>533</v>
       </c>
-      <c r="B569" s="4">
-        <v>1</v>
-      </c>
-      <c r="C569" s="4">
+      <c r="B569" s="3">
+        <v>1</v>
+      </c>
+      <c r="C569" s="3">
         <v>0</v>
       </c>
     </row>
@@ -24873,10 +24912,10 @@
       <c r="A570" t="s">
         <v>533</v>
       </c>
-      <c r="B570" s="4">
-        <v>2</v>
-      </c>
-      <c r="C570" s="4">
+      <c r="B570" s="3">
+        <v>2</v>
+      </c>
+      <c r="C570" s="3">
         <v>21</v>
       </c>
     </row>
@@ -24884,10 +24923,10 @@
       <c r="A571" t="s">
         <v>533</v>
       </c>
-      <c r="B571" s="4">
-        <v>3</v>
-      </c>
-      <c r="C571" s="4">
+      <c r="B571" s="3">
+        <v>3</v>
+      </c>
+      <c r="C571" s="3">
         <v>22</v>
       </c>
     </row>
@@ -24895,10 +24934,10 @@
       <c r="A572" t="s">
         <v>533</v>
       </c>
-      <c r="B572" s="4">
-        <v>4</v>
-      </c>
-      <c r="C572" s="4">
+      <c r="B572" s="3">
+        <v>4</v>
+      </c>
+      <c r="C572" s="3">
         <v>22</v>
       </c>
     </row>
@@ -24909,7 +24948,7 @@
       <c r="B573">
         <v>5</v>
       </c>
-      <c r="C573" s="4">
+      <c r="C573" s="3">
         <v>24</v>
       </c>
     </row>
@@ -24928,10 +24967,10 @@
       <c r="A575" t="s">
         <v>533</v>
       </c>
-      <c r="B575" s="4">
+      <c r="B575" s="3">
         <v>7</v>
       </c>
-      <c r="C575" s="4">
+      <c r="C575" s="3">
         <v>3</v>
       </c>
     </row>
@@ -24972,10 +25011,10 @@
       <c r="A579" t="s">
         <v>515</v>
       </c>
-      <c r="B579" s="4">
-        <v>0</v>
-      </c>
-      <c r="C579" s="4">
+      <c r="B579" s="3">
+        <v>0</v>
+      </c>
+      <c r="C579" s="3">
         <v>0</v>
       </c>
     </row>
@@ -24983,10 +25022,10 @@
       <c r="A580" t="s">
         <v>515</v>
       </c>
-      <c r="B580" s="4">
-        <v>1</v>
-      </c>
-      <c r="C580" s="4">
+      <c r="B580" s="3">
+        <v>1</v>
+      </c>
+      <c r="C580" s="3">
         <v>0</v>
       </c>
     </row>
@@ -24994,10 +25033,10 @@
       <c r="A581" t="s">
         <v>515</v>
       </c>
-      <c r="B581" s="4">
-        <v>2</v>
-      </c>
-      <c r="C581" s="4">
+      <c r="B581" s="3">
+        <v>2</v>
+      </c>
+      <c r="C581" s="3">
         <v>1</v>
       </c>
     </row>
@@ -25005,10 +25044,10 @@
       <c r="A582" t="s">
         <v>515</v>
       </c>
-      <c r="B582" s="4">
-        <v>3</v>
-      </c>
-      <c r="C582" s="5">
+      <c r="B582" s="3">
+        <v>3</v>
+      </c>
+      <c r="C582" s="4">
         <v>21</v>
       </c>
     </row>
@@ -25016,10 +25055,10 @@
       <c r="A583" t="s">
         <v>515</v>
       </c>
-      <c r="B583" s="4">
-        <v>4</v>
-      </c>
-      <c r="C583" s="5">
+      <c r="B583" s="3">
+        <v>4</v>
+      </c>
+      <c r="C583" s="4">
         <v>21</v>
       </c>
     </row>
@@ -25027,10 +25066,10 @@
       <c r="A584" t="s">
         <v>515</v>
       </c>
-      <c r="B584" s="4">
+      <c r="B584" s="3">
         <v>5</v>
       </c>
-      <c r="C584" s="5">
+      <c r="C584" s="4">
         <v>22</v>
       </c>
     </row>
@@ -25038,10 +25077,10 @@
       <c r="A585" t="s">
         <v>515</v>
       </c>
-      <c r="B585" s="4">
+      <c r="B585" s="3">
         <v>6</v>
       </c>
-      <c r="C585" s="4">
+      <c r="C585" s="3">
         <v>3</v>
       </c>
     </row>
@@ -25052,7 +25091,7 @@
       <c r="B586">
         <v>9</v>
       </c>
-      <c r="C586" s="4">
+      <c r="C586" s="3">
         <v>98</v>
       </c>
     </row>
@@ -25060,10 +25099,10 @@
       <c r="A587" t="s">
         <v>510</v>
       </c>
-      <c r="B587" s="4">
-        <v>0</v>
-      </c>
-      <c r="C587" s="4">
+      <c r="B587" s="3">
+        <v>0</v>
+      </c>
+      <c r="C587" s="3">
         <v>0</v>
       </c>
     </row>
@@ -25071,10 +25110,10 @@
       <c r="A588" t="s">
         <v>510</v>
       </c>
-      <c r="B588" s="4">
-        <v>1</v>
-      </c>
-      <c r="C588" s="4">
+      <c r="B588" s="3">
+        <v>1</v>
+      </c>
+      <c r="C588" s="3">
         <v>1</v>
       </c>
     </row>
@@ -25082,10 +25121,10 @@
       <c r="A589" t="s">
         <v>510</v>
       </c>
-      <c r="B589" s="4">
-        <v>2</v>
-      </c>
-      <c r="C589" s="4">
+      <c r="B589" s="3">
+        <v>2</v>
+      </c>
+      <c r="C589" s="3">
         <v>22</v>
       </c>
     </row>
@@ -25096,7 +25135,7 @@
       <c r="B590">
         <v>3</v>
       </c>
-      <c r="C590" s="4">
+      <c r="C590" s="3">
         <v>33</v>
       </c>
     </row>
@@ -25107,7 +25146,7 @@
       <c r="B591">
         <v>4</v>
       </c>
-      <c r="C591" s="4">
+      <c r="C591" s="3">
         <v>3</v>
       </c>
     </row>
@@ -25118,7 +25157,7 @@
       <c r="B592">
         <v>5</v>
       </c>
-      <c r="C592" s="4">
+      <c r="C592" s="3">
         <v>3</v>
       </c>
     </row>
@@ -25129,7 +25168,7 @@
       <c r="B593">
         <v>8</v>
       </c>
-      <c r="C593" s="4">
+      <c r="C593" s="3">
         <v>98</v>
       </c>
     </row>
@@ -25140,7 +25179,7 @@
       <c r="B594">
         <v>9</v>
       </c>
-      <c r="C594" s="4">
+      <c r="C594" s="3">
         <v>99</v>
       </c>
     </row>
@@ -25148,10 +25187,10 @@
       <c r="A595" t="s">
         <v>513</v>
       </c>
-      <c r="B595" s="4">
-        <v>0</v>
-      </c>
-      <c r="C595" s="4">
+      <c r="B595" s="3">
+        <v>0</v>
+      </c>
+      <c r="C595" s="3">
         <v>0</v>
       </c>
     </row>
@@ -25159,10 +25198,10 @@
       <c r="A596" t="s">
         <v>513</v>
       </c>
-      <c r="B596" s="4">
-        <v>1</v>
-      </c>
-      <c r="C596" s="4">
+      <c r="B596" s="3">
+        <v>1</v>
+      </c>
+      <c r="C596" s="3">
         <v>1</v>
       </c>
     </row>
@@ -25170,10 +25209,10 @@
       <c r="A597" t="s">
         <v>513</v>
       </c>
-      <c r="B597" s="4">
-        <v>2</v>
-      </c>
-      <c r="C597" s="4">
+      <c r="B597" s="3">
+        <v>2</v>
+      </c>
+      <c r="C597" s="3">
         <v>21</v>
       </c>
     </row>
@@ -25181,10 +25220,10 @@
       <c r="A598" t="s">
         <v>513</v>
       </c>
-      <c r="B598" s="4">
-        <v>3</v>
-      </c>
-      <c r="C598" s="4">
+      <c r="B598" s="3">
+        <v>3</v>
+      </c>
+      <c r="C598" s="3">
         <v>22</v>
       </c>
     </row>
@@ -25192,10 +25231,10 @@
       <c r="A599" t="s">
         <v>513</v>
       </c>
-      <c r="B599" s="4">
-        <v>4</v>
-      </c>
-      <c r="C599" s="4">
+      <c r="B599" s="3">
+        <v>4</v>
+      </c>
+      <c r="C599" s="3">
         <v>3</v>
       </c>
     </row>
@@ -25206,7 +25245,7 @@
       <c r="B600">
         <v>8</v>
       </c>
-      <c r="C600" s="4">
+      <c r="C600" s="3">
         <v>98</v>
       </c>
     </row>
@@ -25217,7 +25256,7 @@
       <c r="B601">
         <v>9</v>
       </c>
-      <c r="C601" s="4">
+      <c r="C601" s="3">
         <v>99</v>
       </c>
     </row>
@@ -25236,10 +25275,10 @@
       <c r="A603" t="s">
         <v>514</v>
       </c>
-      <c r="B603" s="4">
-        <v>1</v>
-      </c>
-      <c r="C603" s="4">
+      <c r="B603" s="3">
+        <v>1</v>
+      </c>
+      <c r="C603" s="3">
         <v>1</v>
       </c>
     </row>
@@ -25247,10 +25286,10 @@
       <c r="A604" t="s">
         <v>514</v>
       </c>
-      <c r="B604" s="4">
-        <v>2</v>
-      </c>
-      <c r="C604" s="4">
+      <c r="B604" s="3">
+        <v>2</v>
+      </c>
+      <c r="C604" s="3">
         <v>21</v>
       </c>
     </row>
@@ -25258,10 +25297,10 @@
       <c r="A605" t="s">
         <v>514</v>
       </c>
-      <c r="B605" s="4">
-        <v>3</v>
-      </c>
-      <c r="C605" s="4">
+      <c r="B605" s="3">
+        <v>3</v>
+      </c>
+      <c r="C605" s="3">
         <v>22</v>
       </c>
     </row>
@@ -25272,7 +25311,7 @@
       <c r="B606">
         <v>4</v>
       </c>
-      <c r="C606" s="4">
+      <c r="C606" s="3">
         <v>22</v>
       </c>
     </row>
@@ -25283,7 +25322,7 @@
       <c r="B607">
         <v>5</v>
       </c>
-      <c r="C607" s="4">
+      <c r="C607" s="3">
         <v>3</v>
       </c>
     </row>
@@ -25294,7 +25333,7 @@
       <c r="B608">
         <v>8</v>
       </c>
-      <c r="C608" s="4">
+      <c r="C608" s="3">
         <v>98</v>
       </c>
     </row>
@@ -25305,7 +25344,7 @@
       <c r="B609">
         <v>9</v>
       </c>
-      <c r="C609" s="4">
+      <c r="C609" s="3">
         <v>99</v>
       </c>
     </row>
@@ -25321,7 +25360,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AMJ6"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
@@ -25330,19 +25369,18 @@
   <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="64" width="7.85546875" customWidth="1"/>
-    <col min="65" max="1024" width="10.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
@@ -25350,15 +25388,15 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+      <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -25366,15 +25404,15 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+      <c r="A6">
         <v>9</v>
       </c>
       <c r="B6" t="s">
@@ -25395,7 +25433,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:B86"/>
   <sheetViews>
-    <sheetView topLeftCell="A68" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
@@ -26104,7 +26142,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AMJ21"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
@@ -26112,174 +26150,172 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="64" width="7.85546875" customWidth="1"/>
-    <col min="65" max="1024" width="10.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>107</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>108</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>109</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8"/>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>110</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>111</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>112</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>114</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>115</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>116</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>117</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>118</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>119</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
         <v>120</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+      <c r="A19" t="s">
         <v>121</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
         <v>122</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+      <c r="A21" t="s">
         <v>124</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>123</v>
       </c>
     </row>
@@ -26295,7 +26331,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AMJ31"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
@@ -26306,7 +26342,6 @@
     <col min="1" max="1" width="22.28515625" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
     <col min="3" max="64" width="7.85546875" customWidth="1"/>
-    <col min="65" max="1024" width="10.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -26569,7 +26604,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:AMJ25"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
@@ -26580,7 +26615,6 @@
     <col min="1" max="1" width="22.28515625" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
     <col min="3" max="64" width="7.85546875" customWidth="1"/>
-    <col min="65" max="1024" width="10.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -26795,7 +26829,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:AMJ25"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C33" sqref="C33"/>
@@ -26806,7 +26840,6 @@
     <col min="1" max="1" width="22.28515625" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
     <col min="3" max="64" width="7.85546875" customWidth="1"/>
-    <col min="65" max="1024" width="10.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -27021,7 +27054,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:AMJ28"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -27032,7 +27065,6 @@
     <col min="1" max="1" width="22.28515625" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
     <col min="3" max="64" width="7.85546875" customWidth="1"/>
-    <col min="65" max="1024" width="10.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -27271,7 +27303,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:AMJ25"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D32" sqref="D32"/>
@@ -27282,7 +27314,6 @@
     <col min="1" max="1" width="22.28515625" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
     <col min="3" max="64" width="7.85546875" customWidth="1"/>
-    <col min="65" max="1024" width="10.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -27497,7 +27528,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:AMJ25"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
@@ -27508,7 +27539,6 @@
     <col min="1" max="1" width="22.28515625" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
     <col min="3" max="64" width="7.85546875" customWidth="1"/>
-    <col min="65" max="1024" width="10.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">

--- a/wide_pipeline/mics_dictionary_setcode.xlsx
+++ b/wide_pipeline/mics_dictionary_setcode.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ado\personal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77C66A4-2D9E-4B9A-95A6-072BE8C1C2F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6682824-B595-47D5-9FFF-0D8BE0828E51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="605" firstSheet="5" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="605" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dictionary" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2961" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2974" uniqueCount="545">
   <si>
     <t>original_name</t>
   </si>
@@ -1659,6 +1659,21 @@
   </si>
   <si>
     <t>Father's education (up to 17y)</t>
+  </si>
+  <si>
+    <t>Fiji_2021</t>
+  </si>
+  <si>
+    <t>ed6b2</t>
+  </si>
+  <si>
+    <t>only for lesotho mics6 2018</t>
+  </si>
+  <si>
+    <t>ed6b1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">changing this bc this introduces a mistake in LSO 2018, previously it was renamed: ed6c into ed6b </t>
   </si>
 </sst>
 </file>
@@ -1993,10 +2008,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H67"/>
+  <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H65" sqref="H65"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2318,10 +2333,13 @@
         <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="H18" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -3019,7 +3037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>536</v>
       </c>
@@ -3033,7 +3051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>534</v>
       </c>
@@ -3047,7 +3065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>535</v>
       </c>
@@ -3059,6 +3077,34 @@
       </c>
       <c r="F67">
         <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>541</v>
+      </c>
+      <c r="B68" t="s">
+        <v>541</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="H68" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>543</v>
+      </c>
+      <c r="B69" t="s">
+        <v>543</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="H69" t="s">
+        <v>542</v>
       </c>
     </row>
   </sheetData>
@@ -5033,10 +5079,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:J623"/>
+  <dimension ref="A1:J630"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A252" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B278" sqref="B278:C284"/>
+    <sheetView topLeftCell="A585" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C631" sqref="C631"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11903,6 +11949,83 @@
         <v>9</v>
       </c>
       <c r="C623" s="3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="624" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A624" t="s">
+        <v>540</v>
+      </c>
+      <c r="B624">
+        <v>0</v>
+      </c>
+      <c r="C624" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="625" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A625" t="s">
+        <v>540</v>
+      </c>
+      <c r="B625">
+        <v>1</v>
+      </c>
+      <c r="C625" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="626" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A626" t="s">
+        <v>540</v>
+      </c>
+      <c r="B626">
+        <v>2</v>
+      </c>
+      <c r="C626" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="627" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A627" t="s">
+        <v>540</v>
+      </c>
+      <c r="B627">
+        <v>3</v>
+      </c>
+      <c r="C627" s="3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="628" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A628" t="s">
+        <v>540</v>
+      </c>
+      <c r="B628">
+        <v>4</v>
+      </c>
+      <c r="C628" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="629" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A629" t="s">
+        <v>540</v>
+      </c>
+      <c r="B629">
+        <v>8</v>
+      </c>
+      <c r="C629" s="3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="630" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A630" t="s">
+        <v>540</v>
+      </c>
+      <c r="B630">
+        <v>9</v>
+      </c>
+      <c r="C630" s="3">
         <v>99</v>
       </c>
     </row>
@@ -27057,7 +27180,7 @@
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="R48" sqref="R48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/wide_pipeline/mics_dictionary_setcode.xlsx
+++ b/wide_pipeline/mics_dictionary_setcode.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ado\personal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6682824-B595-47D5-9FFF-0D8BE0828E51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2851FE4C-D41E-4F75-ADBC-8807EED3B513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="605" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="605" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dictionary" sheetId="1" r:id="rId1"/>
@@ -33,13 +33,14 @@
     <sheet name="code_ed6a" sheetId="18" r:id="rId18"/>
     <sheet name="code_ed8a" sheetId="19" r:id="rId19"/>
     <sheet name="group_eduyears" sheetId="20" r:id="rId20"/>
+    <sheet name="code_cb5a" sheetId="21" r:id="rId21"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2974" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3608" uniqueCount="548">
   <si>
     <t>original_name</t>
   </si>
@@ -1674,6 +1675,15 @@
   </si>
   <si>
     <t xml:space="preserve">changing this bc this introduces a mistake in LSO 2018, previously it was renamed: ed6c into ed6b </t>
+  </si>
+  <si>
+    <t>code_cb5a</t>
+  </si>
+  <si>
+    <t>code_cb5a_replace</t>
+  </si>
+  <si>
+    <t>mline</t>
   </si>
 </sst>
 </file>
@@ -2008,10 +2018,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H69"/>
+  <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H70" sqref="H70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3105,6 +3115,17 @@
       </c>
       <c r="H69" t="s">
         <v>542</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>547</v>
+      </c>
+      <c r="B70" t="s">
+        <v>547</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5082,7 +5103,7 @@
   <dimension ref="A1:J630"/>
   <sheetViews>
     <sheetView topLeftCell="A585" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C631" sqref="C631"/>
+      <selection activeCell="C585" sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -26263,6 +26284,6958 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E673B9A1-DA1E-44D0-9F63-A0418363AFC8}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:C630"/>
+  <sheetViews>
+    <sheetView topLeftCell="A579" workbookViewId="0">
+      <selection activeCell="A630" sqref="A630"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="28.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B1" t="s">
+        <v>545</v>
+      </c>
+      <c r="C1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>394</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>394</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>394</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>395</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>395</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>395</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>395</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>395</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>395</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>395</v>
+      </c>
+      <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>396</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>396</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>396</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>396</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>396</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>397</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>397</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>397</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>397</v>
+      </c>
+      <c r="B20">
+        <v>6</v>
+      </c>
+      <c r="C20">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>397</v>
+      </c>
+      <c r="B21">
+        <v>7</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>398</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>398</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>398</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>398</v>
+      </c>
+      <c r="B25">
+        <v>5</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>398</v>
+      </c>
+      <c r="B26">
+        <v>96</v>
+      </c>
+      <c r="C26">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>399</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>399</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>399</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>400</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>400</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>400</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>400</v>
+      </c>
+      <c r="B33">
+        <v>5</v>
+      </c>
+      <c r="C33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>401</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>401</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>402</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>402</v>
+      </c>
+      <c r="B37">
+        <v>3</v>
+      </c>
+      <c r="C37">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>402</v>
+      </c>
+      <c r="B38">
+        <v>4</v>
+      </c>
+      <c r="C38">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>402</v>
+      </c>
+      <c r="B39">
+        <v>5</v>
+      </c>
+      <c r="C39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>403</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>403</v>
+      </c>
+      <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="C41">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>403</v>
+      </c>
+      <c r="B42">
+        <v>4</v>
+      </c>
+      <c r="C42">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>403</v>
+      </c>
+      <c r="B43">
+        <v>5</v>
+      </c>
+      <c r="C43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>404</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>404</v>
+      </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="C45">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>405</v>
+      </c>
+      <c r="B46">
+        <v>10</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>405</v>
+      </c>
+      <c r="B47">
+        <v>11</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>405</v>
+      </c>
+      <c r="B48">
+        <v>12</v>
+      </c>
+      <c r="C48">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>405</v>
+      </c>
+      <c r="B49">
+        <v>13</v>
+      </c>
+      <c r="C49">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>405</v>
+      </c>
+      <c r="B50">
+        <v>14</v>
+      </c>
+      <c r="C50">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>405</v>
+      </c>
+      <c r="B51">
+        <v>15</v>
+      </c>
+      <c r="C51">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>405</v>
+      </c>
+      <c r="B52">
+        <v>16</v>
+      </c>
+      <c r="C52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>405</v>
+      </c>
+      <c r="B53">
+        <v>17</v>
+      </c>
+      <c r="C53">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>406</v>
+      </c>
+      <c r="B54">
+        <v>2</v>
+      </c>
+      <c r="C54">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>406</v>
+      </c>
+      <c r="B55">
+        <v>3</v>
+      </c>
+      <c r="C55">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>406</v>
+      </c>
+      <c r="B56">
+        <v>4</v>
+      </c>
+      <c r="C56">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>406</v>
+      </c>
+      <c r="B57">
+        <v>5</v>
+      </c>
+      <c r="C57">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>406</v>
+      </c>
+      <c r="B58">
+        <v>6</v>
+      </c>
+      <c r="C58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>407</v>
+      </c>
+      <c r="B59">
+        <v>4</v>
+      </c>
+      <c r="C59">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>408</v>
+      </c>
+      <c r="B60">
+        <v>3</v>
+      </c>
+      <c r="C60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>408</v>
+      </c>
+      <c r="B61">
+        <v>4</v>
+      </c>
+      <c r="C61">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>408</v>
+      </c>
+      <c r="B62">
+        <v>5</v>
+      </c>
+      <c r="C62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>408</v>
+      </c>
+      <c r="B63">
+        <v>6</v>
+      </c>
+      <c r="C63">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>408</v>
+      </c>
+      <c r="B64">
+        <v>7</v>
+      </c>
+      <c r="C64">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>409</v>
+      </c>
+      <c r="B65">
+        <v>3</v>
+      </c>
+      <c r="C65">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>409</v>
+      </c>
+      <c r="B66">
+        <v>4</v>
+      </c>
+      <c r="C66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>410</v>
+      </c>
+      <c r="B67">
+        <v>2</v>
+      </c>
+      <c r="C67">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>410</v>
+      </c>
+      <c r="B68">
+        <v>3</v>
+      </c>
+      <c r="C68">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>410</v>
+      </c>
+      <c r="B69">
+        <v>4</v>
+      </c>
+      <c r="C69">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>410</v>
+      </c>
+      <c r="B70">
+        <v>5</v>
+      </c>
+      <c r="C70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>411</v>
+      </c>
+      <c r="B71">
+        <v>2</v>
+      </c>
+      <c r="C71">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>411</v>
+      </c>
+      <c r="B72">
+        <v>3</v>
+      </c>
+      <c r="C72">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>411</v>
+      </c>
+      <c r="B73">
+        <v>4</v>
+      </c>
+      <c r="C73">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>411</v>
+      </c>
+      <c r="B74">
+        <v>5</v>
+      </c>
+      <c r="C74">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>411</v>
+      </c>
+      <c r="B75">
+        <v>6</v>
+      </c>
+      <c r="C75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>412</v>
+      </c>
+      <c r="B76">
+        <v>2</v>
+      </c>
+      <c r="C76">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>412</v>
+      </c>
+      <c r="B77">
+        <v>3</v>
+      </c>
+      <c r="C77">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>412</v>
+      </c>
+      <c r="B78">
+        <v>4</v>
+      </c>
+      <c r="C78">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>412</v>
+      </c>
+      <c r="B79">
+        <v>5</v>
+      </c>
+      <c r="C79">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>413</v>
+      </c>
+      <c r="B80">
+        <v>2</v>
+      </c>
+      <c r="C80">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>413</v>
+      </c>
+      <c r="B81">
+        <v>3</v>
+      </c>
+      <c r="C81">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>413</v>
+      </c>
+      <c r="B82">
+        <v>4</v>
+      </c>
+      <c r="C82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>414</v>
+      </c>
+      <c r="B83">
+        <v>2</v>
+      </c>
+      <c r="C83">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>414</v>
+      </c>
+      <c r="B84">
+        <v>3</v>
+      </c>
+      <c r="C84">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>414</v>
+      </c>
+      <c r="B85">
+        <v>4</v>
+      </c>
+      <c r="C85">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>414</v>
+      </c>
+      <c r="B86">
+        <v>5</v>
+      </c>
+      <c r="C86">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>415</v>
+      </c>
+      <c r="B87">
+        <v>3</v>
+      </c>
+      <c r="C87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>415</v>
+      </c>
+      <c r="B88">
+        <v>4</v>
+      </c>
+      <c r="C88">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>415</v>
+      </c>
+      <c r="B89">
+        <v>5</v>
+      </c>
+      <c r="C89">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>415</v>
+      </c>
+      <c r="B90">
+        <v>6</v>
+      </c>
+      <c r="C90">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>416</v>
+      </c>
+      <c r="B91">
+        <v>4</v>
+      </c>
+      <c r="C91">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>416</v>
+      </c>
+      <c r="B92">
+        <v>5</v>
+      </c>
+      <c r="C92">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>417</v>
+      </c>
+      <c r="B93">
+        <v>2</v>
+      </c>
+      <c r="C93">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>417</v>
+      </c>
+      <c r="B94">
+        <v>3</v>
+      </c>
+      <c r="C94">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>417</v>
+      </c>
+      <c r="B95">
+        <v>4</v>
+      </c>
+      <c r="C95">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>417</v>
+      </c>
+      <c r="B96">
+        <v>5</v>
+      </c>
+      <c r="C96">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>417</v>
+      </c>
+      <c r="B97">
+        <v>6</v>
+      </c>
+      <c r="C97">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>417</v>
+      </c>
+      <c r="B98">
+        <v>7</v>
+      </c>
+      <c r="C98">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>417</v>
+      </c>
+      <c r="B99">
+        <v>8</v>
+      </c>
+      <c r="C99">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>417</v>
+      </c>
+      <c r="B100">
+        <v>9</v>
+      </c>
+      <c r="C100">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>417</v>
+      </c>
+      <c r="B101">
+        <v>10</v>
+      </c>
+      <c r="C101">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>417</v>
+      </c>
+      <c r="B102">
+        <v>11</v>
+      </c>
+      <c r="C102">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>418</v>
+      </c>
+      <c r="B103">
+        <v>1</v>
+      </c>
+      <c r="C103">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>418</v>
+      </c>
+      <c r="B104">
+        <v>2</v>
+      </c>
+      <c r="C104">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>418</v>
+      </c>
+      <c r="B105">
+        <v>3</v>
+      </c>
+      <c r="C105">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>418</v>
+      </c>
+      <c r="B106">
+        <v>4</v>
+      </c>
+      <c r="C106">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>419</v>
+      </c>
+      <c r="B107">
+        <v>2</v>
+      </c>
+      <c r="C107">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>419</v>
+      </c>
+      <c r="B108">
+        <v>3</v>
+      </c>
+      <c r="C108">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>419</v>
+      </c>
+      <c r="B109">
+        <v>4</v>
+      </c>
+      <c r="C109">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>420</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
+      <c r="C110">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>420</v>
+      </c>
+      <c r="B111">
+        <v>2</v>
+      </c>
+      <c r="C111">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>421</v>
+      </c>
+      <c r="B112">
+        <v>4</v>
+      </c>
+      <c r="C112">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>422</v>
+      </c>
+      <c r="B113">
+        <v>4</v>
+      </c>
+      <c r="C113">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>423</v>
+      </c>
+      <c r="B114">
+        <v>1</v>
+      </c>
+      <c r="C114">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>423</v>
+      </c>
+      <c r="B115">
+        <v>2</v>
+      </c>
+      <c r="C115">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>424</v>
+      </c>
+      <c r="B116">
+        <v>1</v>
+      </c>
+      <c r="C116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>424</v>
+      </c>
+      <c r="B117">
+        <v>2</v>
+      </c>
+      <c r="C117">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>424</v>
+      </c>
+      <c r="B118">
+        <v>3</v>
+      </c>
+      <c r="C118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>424</v>
+      </c>
+      <c r="B119">
+        <v>4</v>
+      </c>
+      <c r="C119">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>424</v>
+      </c>
+      <c r="B120">
+        <v>5</v>
+      </c>
+      <c r="C120">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>424</v>
+      </c>
+      <c r="B121">
+        <v>6</v>
+      </c>
+      <c r="C121">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>424</v>
+      </c>
+      <c r="B122">
+        <v>7</v>
+      </c>
+      <c r="C122">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>424</v>
+      </c>
+      <c r="B123">
+        <v>8</v>
+      </c>
+      <c r="C123">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>424</v>
+      </c>
+      <c r="B124">
+        <v>9</v>
+      </c>
+      <c r="C124">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>424</v>
+      </c>
+      <c r="B125">
+        <v>10</v>
+      </c>
+      <c r="C125">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>425</v>
+      </c>
+      <c r="B126">
+        <v>0</v>
+      </c>
+      <c r="C126">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>425</v>
+      </c>
+      <c r="B127">
+        <v>1</v>
+      </c>
+      <c r="C127">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>425</v>
+      </c>
+      <c r="B128">
+        <v>2</v>
+      </c>
+      <c r="C128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>425</v>
+      </c>
+      <c r="B129">
+        <v>3</v>
+      </c>
+      <c r="C129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>425</v>
+      </c>
+      <c r="B130">
+        <v>4</v>
+      </c>
+      <c r="C130">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>425</v>
+      </c>
+      <c r="B131">
+        <v>5</v>
+      </c>
+      <c r="C131">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>425</v>
+      </c>
+      <c r="B132">
+        <v>6</v>
+      </c>
+      <c r="C132">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>425</v>
+      </c>
+      <c r="B133">
+        <v>7</v>
+      </c>
+      <c r="C133">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>426</v>
+      </c>
+      <c r="B134">
+        <v>2</v>
+      </c>
+      <c r="C134">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>426</v>
+      </c>
+      <c r="B135">
+        <v>3</v>
+      </c>
+      <c r="C135">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>426</v>
+      </c>
+      <c r="B136">
+        <v>4</v>
+      </c>
+      <c r="C136">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>426</v>
+      </c>
+      <c r="B137">
+        <v>5</v>
+      </c>
+      <c r="C137">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>426</v>
+      </c>
+      <c r="B138">
+        <v>6</v>
+      </c>
+      <c r="C138">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>427</v>
+      </c>
+      <c r="B139">
+        <v>0</v>
+      </c>
+      <c r="C139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>427</v>
+      </c>
+      <c r="B140">
+        <v>1</v>
+      </c>
+      <c r="C140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>427</v>
+      </c>
+      <c r="B141">
+        <v>2</v>
+      </c>
+      <c r="C141">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>427</v>
+      </c>
+      <c r="B142">
+        <v>3</v>
+      </c>
+      <c r="C142">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>427</v>
+      </c>
+      <c r="B143">
+        <v>4</v>
+      </c>
+      <c r="C143">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>428</v>
+      </c>
+      <c r="B144">
+        <v>0</v>
+      </c>
+      <c r="C144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>428</v>
+      </c>
+      <c r="B145">
+        <v>1</v>
+      </c>
+      <c r="C145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>428</v>
+      </c>
+      <c r="B146">
+        <v>2</v>
+      </c>
+      <c r="C146">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>428</v>
+      </c>
+      <c r="B147">
+        <v>3</v>
+      </c>
+      <c r="C147">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>428</v>
+      </c>
+      <c r="B148">
+        <v>4</v>
+      </c>
+      <c r="C148">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>429</v>
+      </c>
+      <c r="B149">
+        <v>0</v>
+      </c>
+      <c r="C149">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>429</v>
+      </c>
+      <c r="B150">
+        <v>1</v>
+      </c>
+      <c r="C150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>429</v>
+      </c>
+      <c r="B151">
+        <v>2</v>
+      </c>
+      <c r="C151">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>429</v>
+      </c>
+      <c r="B152">
+        <v>3</v>
+      </c>
+      <c r="C152">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>429</v>
+      </c>
+      <c r="B153">
+        <v>4</v>
+      </c>
+      <c r="C153">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>429</v>
+      </c>
+      <c r="B154">
+        <v>5</v>
+      </c>
+      <c r="C154">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>429</v>
+      </c>
+      <c r="B155">
+        <v>6</v>
+      </c>
+      <c r="C155">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>429</v>
+      </c>
+      <c r="B156">
+        <v>7</v>
+      </c>
+      <c r="C156">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>429</v>
+      </c>
+      <c r="B157">
+        <v>8</v>
+      </c>
+      <c r="C157">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>429</v>
+      </c>
+      <c r="B158">
+        <v>9</v>
+      </c>
+      <c r="C158">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>429</v>
+      </c>
+      <c r="B159">
+        <v>10</v>
+      </c>
+      <c r="C159">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>429</v>
+      </c>
+      <c r="B160">
+        <v>11</v>
+      </c>
+      <c r="C160">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>429</v>
+      </c>
+      <c r="B161">
+        <v>12</v>
+      </c>
+      <c r="C161">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>430</v>
+      </c>
+      <c r="B162">
+        <v>2</v>
+      </c>
+      <c r="C162">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>430</v>
+      </c>
+      <c r="B163">
+        <v>3</v>
+      </c>
+      <c r="C163">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>430</v>
+      </c>
+      <c r="B164">
+        <v>4</v>
+      </c>
+      <c r="C164">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>430</v>
+      </c>
+      <c r="B165">
+        <v>5</v>
+      </c>
+      <c r="C165">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>430</v>
+      </c>
+      <c r="B166">
+        <v>6</v>
+      </c>
+      <c r="C166">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>430</v>
+      </c>
+      <c r="B167">
+        <v>7</v>
+      </c>
+      <c r="C167">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>431</v>
+      </c>
+      <c r="B168">
+        <v>2</v>
+      </c>
+      <c r="C168">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>431</v>
+      </c>
+      <c r="B169">
+        <v>3</v>
+      </c>
+      <c r="C169">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>431</v>
+      </c>
+      <c r="B170">
+        <v>4</v>
+      </c>
+      <c r="C170">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>432</v>
+      </c>
+      <c r="B171">
+        <v>2</v>
+      </c>
+      <c r="C171">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>432</v>
+      </c>
+      <c r="B172">
+        <v>3</v>
+      </c>
+      <c r="C172">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>432</v>
+      </c>
+      <c r="B173">
+        <v>4</v>
+      </c>
+      <c r="C173">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>433</v>
+      </c>
+      <c r="B174">
+        <v>1</v>
+      </c>
+      <c r="C174">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>433</v>
+      </c>
+      <c r="B175">
+        <v>2</v>
+      </c>
+      <c r="C175">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>434</v>
+      </c>
+      <c r="B176">
+        <v>2</v>
+      </c>
+      <c r="C176">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>434</v>
+      </c>
+      <c r="B177">
+        <v>3</v>
+      </c>
+      <c r="C177">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>434</v>
+      </c>
+      <c r="B178">
+        <v>4</v>
+      </c>
+      <c r="C178">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>434</v>
+      </c>
+      <c r="B179">
+        <v>5</v>
+      </c>
+      <c r="C179">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>434</v>
+      </c>
+      <c r="B180">
+        <v>6</v>
+      </c>
+      <c r="C180">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>434</v>
+      </c>
+      <c r="B181">
+        <v>7</v>
+      </c>
+      <c r="C181">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>434</v>
+      </c>
+      <c r="B182">
+        <v>8</v>
+      </c>
+      <c r="C182">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>435</v>
+      </c>
+      <c r="B183">
+        <v>3</v>
+      </c>
+      <c r="C183">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>435</v>
+      </c>
+      <c r="B184">
+        <v>4</v>
+      </c>
+      <c r="C184">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>435</v>
+      </c>
+      <c r="B185">
+        <v>5</v>
+      </c>
+      <c r="C185">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>435</v>
+      </c>
+      <c r="B186">
+        <v>6</v>
+      </c>
+      <c r="C186">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>435</v>
+      </c>
+      <c r="B187">
+        <v>7</v>
+      </c>
+      <c r="C187">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>436</v>
+      </c>
+      <c r="B188">
+        <v>2</v>
+      </c>
+      <c r="C188">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>436</v>
+      </c>
+      <c r="B189">
+        <v>3</v>
+      </c>
+      <c r="C189">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>436</v>
+      </c>
+      <c r="B190">
+        <v>4</v>
+      </c>
+      <c r="C190">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>437</v>
+      </c>
+      <c r="B191">
+        <v>3</v>
+      </c>
+      <c r="C191">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>437</v>
+      </c>
+      <c r="B192">
+        <v>4</v>
+      </c>
+      <c r="C192">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>438</v>
+      </c>
+      <c r="B193">
+        <v>2</v>
+      </c>
+      <c r="C193">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>438</v>
+      </c>
+      <c r="B194">
+        <v>3</v>
+      </c>
+      <c r="C194">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>438</v>
+      </c>
+      <c r="B195">
+        <v>4</v>
+      </c>
+      <c r="C195">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>438</v>
+      </c>
+      <c r="B196">
+        <v>5</v>
+      </c>
+      <c r="C196">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>438</v>
+      </c>
+      <c r="B197">
+        <v>6</v>
+      </c>
+      <c r="C197">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>438</v>
+      </c>
+      <c r="B198">
+        <v>7</v>
+      </c>
+      <c r="C198">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>439</v>
+      </c>
+      <c r="B199">
+        <v>1</v>
+      </c>
+      <c r="C199">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>439</v>
+      </c>
+      <c r="B200">
+        <v>2</v>
+      </c>
+      <c r="C200">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>439</v>
+      </c>
+      <c r="B201">
+        <v>3</v>
+      </c>
+      <c r="C201">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>439</v>
+      </c>
+      <c r="B202">
+        <v>4</v>
+      </c>
+      <c r="C202">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>440</v>
+      </c>
+      <c r="B203">
+        <v>3</v>
+      </c>
+      <c r="C203">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>440</v>
+      </c>
+      <c r="B204">
+        <v>4</v>
+      </c>
+      <c r="C204">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>440</v>
+      </c>
+      <c r="B205">
+        <v>5</v>
+      </c>
+      <c r="C205">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>441</v>
+      </c>
+      <c r="B206">
+        <v>3</v>
+      </c>
+      <c r="C206">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>441</v>
+      </c>
+      <c r="B207">
+        <v>4</v>
+      </c>
+      <c r="C207">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>441</v>
+      </c>
+      <c r="B208">
+        <v>5</v>
+      </c>
+      <c r="C208">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>442</v>
+      </c>
+      <c r="B209">
+        <v>2</v>
+      </c>
+      <c r="C209">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>442</v>
+      </c>
+      <c r="B210">
+        <v>3</v>
+      </c>
+      <c r="C210">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>442</v>
+      </c>
+      <c r="B211">
+        <v>4</v>
+      </c>
+      <c r="C211">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>442</v>
+      </c>
+      <c r="B212">
+        <v>5</v>
+      </c>
+      <c r="C212">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>443</v>
+      </c>
+      <c r="B213">
+        <v>2</v>
+      </c>
+      <c r="C213">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>443</v>
+      </c>
+      <c r="B214">
+        <v>3</v>
+      </c>
+      <c r="C214">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>443</v>
+      </c>
+      <c r="B215">
+        <v>4</v>
+      </c>
+      <c r="C215">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>443</v>
+      </c>
+      <c r="B216">
+        <v>5</v>
+      </c>
+      <c r="C216">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>444</v>
+      </c>
+      <c r="B217">
+        <v>1</v>
+      </c>
+      <c r="C217">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>444</v>
+      </c>
+      <c r="B218">
+        <v>2</v>
+      </c>
+      <c r="C218">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>444</v>
+      </c>
+      <c r="B219">
+        <v>3</v>
+      </c>
+      <c r="C219">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>444</v>
+      </c>
+      <c r="B220">
+        <v>4</v>
+      </c>
+      <c r="C220">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>444</v>
+      </c>
+      <c r="B221">
+        <v>5</v>
+      </c>
+      <c r="C221">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>445</v>
+      </c>
+      <c r="B222">
+        <v>1</v>
+      </c>
+      <c r="C222">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>445</v>
+      </c>
+      <c r="B223">
+        <v>2</v>
+      </c>
+      <c r="C223">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>445</v>
+      </c>
+      <c r="B224">
+        <v>3</v>
+      </c>
+      <c r="C224">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>445</v>
+      </c>
+      <c r="B225">
+        <v>4</v>
+      </c>
+      <c r="C225">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>445</v>
+      </c>
+      <c r="B226">
+        <v>5</v>
+      </c>
+      <c r="C226">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>445</v>
+      </c>
+      <c r="B227">
+        <v>6</v>
+      </c>
+      <c r="C227">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>445</v>
+      </c>
+      <c r="B228">
+        <v>7</v>
+      </c>
+      <c r="C228">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>445</v>
+      </c>
+      <c r="B229">
+        <v>8</v>
+      </c>
+      <c r="C229">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>446</v>
+      </c>
+      <c r="B230">
+        <v>1</v>
+      </c>
+      <c r="C230">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>446</v>
+      </c>
+      <c r="B231">
+        <v>2</v>
+      </c>
+      <c r="C231">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>446</v>
+      </c>
+      <c r="B232">
+        <v>3</v>
+      </c>
+      <c r="C232">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>446</v>
+      </c>
+      <c r="B233">
+        <v>4</v>
+      </c>
+      <c r="C233">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>446</v>
+      </c>
+      <c r="B234">
+        <v>5</v>
+      </c>
+      <c r="C234">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>446</v>
+      </c>
+      <c r="B235">
+        <v>6</v>
+      </c>
+      <c r="C235">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>446</v>
+      </c>
+      <c r="B236">
+        <v>7</v>
+      </c>
+      <c r="C236">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>446</v>
+      </c>
+      <c r="B237">
+        <v>8</v>
+      </c>
+      <c r="C237">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>447</v>
+      </c>
+      <c r="B238">
+        <v>2</v>
+      </c>
+      <c r="C238">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>447</v>
+      </c>
+      <c r="B239">
+        <v>3</v>
+      </c>
+      <c r="C239">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>447</v>
+      </c>
+      <c r="B240">
+        <v>4</v>
+      </c>
+      <c r="C240">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>447</v>
+      </c>
+      <c r="B241">
+        <v>5</v>
+      </c>
+      <c r="C241">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>447</v>
+      </c>
+      <c r="B242">
+        <v>6</v>
+      </c>
+      <c r="C242">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>447</v>
+      </c>
+      <c r="B243">
+        <v>7</v>
+      </c>
+      <c r="C243">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>447</v>
+      </c>
+      <c r="B244">
+        <v>8</v>
+      </c>
+      <c r="C244">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>447</v>
+      </c>
+      <c r="B245">
+        <v>9</v>
+      </c>
+      <c r="C245">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>448</v>
+      </c>
+      <c r="B246">
+        <v>2</v>
+      </c>
+      <c r="C246">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>448</v>
+      </c>
+      <c r="B247">
+        <v>3</v>
+      </c>
+      <c r="C247">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>448</v>
+      </c>
+      <c r="B248">
+        <v>4</v>
+      </c>
+      <c r="C248">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>448</v>
+      </c>
+      <c r="B249">
+        <v>5</v>
+      </c>
+      <c r="C249">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>449</v>
+      </c>
+      <c r="B250">
+        <v>2</v>
+      </c>
+      <c r="C250">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>449</v>
+      </c>
+      <c r="B251">
+        <v>3</v>
+      </c>
+      <c r="C251">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>449</v>
+      </c>
+      <c r="B252">
+        <v>4</v>
+      </c>
+      <c r="C252">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>449</v>
+      </c>
+      <c r="B253">
+        <v>5</v>
+      </c>
+      <c r="C253">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>449</v>
+      </c>
+      <c r="B254">
+        <v>8</v>
+      </c>
+      <c r="C254">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>450</v>
+      </c>
+      <c r="B255">
+        <v>2</v>
+      </c>
+      <c r="C255">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>450</v>
+      </c>
+      <c r="B256">
+        <v>3</v>
+      </c>
+      <c r="C256">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>450</v>
+      </c>
+      <c r="B257">
+        <v>4</v>
+      </c>
+      <c r="C257">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
+        <v>450</v>
+      </c>
+      <c r="B258">
+        <v>5</v>
+      </c>
+      <c r="C258">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
+        <v>450</v>
+      </c>
+      <c r="B259">
+        <v>6</v>
+      </c>
+      <c r="C259">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
+        <v>450</v>
+      </c>
+      <c r="B260">
+        <v>9</v>
+      </c>
+      <c r="C260">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
+        <v>450</v>
+      </c>
+      <c r="B261">
+        <v>7</v>
+      </c>
+      <c r="C261">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
+        <v>450</v>
+      </c>
+      <c r="B262">
+        <v>8</v>
+      </c>
+      <c r="C262">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
+        <v>451</v>
+      </c>
+      <c r="B263">
+        <v>2</v>
+      </c>
+      <c r="C263">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
+        <v>451</v>
+      </c>
+      <c r="B264">
+        <v>3</v>
+      </c>
+      <c r="C264">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
+        <v>451</v>
+      </c>
+      <c r="B265">
+        <v>4</v>
+      </c>
+      <c r="C265">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
+        <v>451</v>
+      </c>
+      <c r="B266">
+        <v>5</v>
+      </c>
+      <c r="C266">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
+        <v>452</v>
+      </c>
+      <c r="B267">
+        <v>0</v>
+      </c>
+      <c r="C267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
+        <v>452</v>
+      </c>
+      <c r="B268">
+        <v>1</v>
+      </c>
+      <c r="C268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
+        <v>452</v>
+      </c>
+      <c r="B269">
+        <v>2</v>
+      </c>
+      <c r="C269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
+        <v>452</v>
+      </c>
+      <c r="B270">
+        <v>3</v>
+      </c>
+      <c r="C270">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>452</v>
+      </c>
+      <c r="B271">
+        <v>4</v>
+      </c>
+      <c r="C271">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
+        <v>452</v>
+      </c>
+      <c r="B272">
+        <v>5</v>
+      </c>
+      <c r="C272">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
+        <v>453</v>
+      </c>
+      <c r="B273">
+        <v>2</v>
+      </c>
+      <c r="C273">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
+        <v>453</v>
+      </c>
+      <c r="B274">
+        <v>3</v>
+      </c>
+      <c r="C274">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
+        <v>453</v>
+      </c>
+      <c r="B275">
+        <v>4</v>
+      </c>
+      <c r="C275">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
+        <v>453</v>
+      </c>
+      <c r="B276">
+        <v>5</v>
+      </c>
+      <c r="C276">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
+        <v>453</v>
+      </c>
+      <c r="B277">
+        <v>6</v>
+      </c>
+      <c r="C277">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
+        <v>454</v>
+      </c>
+      <c r="B278">
+        <v>0</v>
+      </c>
+      <c r="C278" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
+        <v>454</v>
+      </c>
+      <c r="B279">
+        <v>1</v>
+      </c>
+      <c r="C279" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A280" t="s">
+        <v>454</v>
+      </c>
+      <c r="B280">
+        <v>2</v>
+      </c>
+      <c r="C280" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A281" t="s">
+        <v>454</v>
+      </c>
+      <c r="B281">
+        <v>3</v>
+      </c>
+      <c r="C281" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
+        <v>454</v>
+      </c>
+      <c r="B282">
+        <v>4</v>
+      </c>
+      <c r="C282" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A283" t="s">
+        <v>454</v>
+      </c>
+      <c r="B283">
+        <v>8</v>
+      </c>
+      <c r="C283" s="3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
+        <v>454</v>
+      </c>
+      <c r="B284">
+        <v>9</v>
+      </c>
+      <c r="C284" s="3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A285" t="s">
+        <v>455</v>
+      </c>
+      <c r="B285">
+        <v>4</v>
+      </c>
+      <c r="C285">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A286" t="s">
+        <v>455</v>
+      </c>
+      <c r="B286">
+        <v>2</v>
+      </c>
+      <c r="C286">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A287" t="s">
+        <v>455</v>
+      </c>
+      <c r="B287">
+        <v>3</v>
+      </c>
+      <c r="C287">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A288" t="s">
+        <v>455</v>
+      </c>
+      <c r="B288">
+        <v>8</v>
+      </c>
+      <c r="C288">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A289" t="s">
+        <v>455</v>
+      </c>
+      <c r="B289">
+        <v>9</v>
+      </c>
+      <c r="C289">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A290" t="s">
+        <v>456</v>
+      </c>
+      <c r="B290">
+        <v>1</v>
+      </c>
+      <c r="C290">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A291" t="s">
+        <v>456</v>
+      </c>
+      <c r="B291">
+        <v>3</v>
+      </c>
+      <c r="C291">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A292" t="s">
+        <v>456</v>
+      </c>
+      <c r="B292">
+        <v>4</v>
+      </c>
+      <c r="C292">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A293" t="s">
+        <v>456</v>
+      </c>
+      <c r="B293">
+        <v>8</v>
+      </c>
+      <c r="C293">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A294" t="s">
+        <v>456</v>
+      </c>
+      <c r="B294">
+        <v>9</v>
+      </c>
+      <c r="C294">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A295" t="s">
+        <v>457</v>
+      </c>
+      <c r="B295">
+        <v>1</v>
+      </c>
+      <c r="C295">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A296" t="s">
+        <v>457</v>
+      </c>
+      <c r="B296">
+        <v>2</v>
+      </c>
+      <c r="C296">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A297" t="s">
+        <v>457</v>
+      </c>
+      <c r="B297">
+        <v>3</v>
+      </c>
+      <c r="C297">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A298" t="s">
+        <v>457</v>
+      </c>
+      <c r="B298">
+        <v>4</v>
+      </c>
+      <c r="C298">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A299" t="s">
+        <v>457</v>
+      </c>
+      <c r="B299">
+        <v>5</v>
+      </c>
+      <c r="C299">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
+        <v>457</v>
+      </c>
+      <c r="B300">
+        <v>6</v>
+      </c>
+      <c r="C300">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A301" t="s">
+        <v>457</v>
+      </c>
+      <c r="B301">
+        <v>7</v>
+      </c>
+      <c r="C301">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A302" t="s">
+        <v>457</v>
+      </c>
+      <c r="B302">
+        <v>8</v>
+      </c>
+      <c r="C302">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A303" t="s">
+        <v>457</v>
+      </c>
+      <c r="B303">
+        <v>9</v>
+      </c>
+      <c r="C303">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A304" t="s">
+        <v>457</v>
+      </c>
+      <c r="B304">
+        <v>10</v>
+      </c>
+      <c r="C304">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A305" t="s">
+        <v>458</v>
+      </c>
+      <c r="B305">
+        <v>2</v>
+      </c>
+      <c r="C305">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A306" t="s">
+        <v>458</v>
+      </c>
+      <c r="B306">
+        <v>3</v>
+      </c>
+      <c r="C306">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A307" t="s">
+        <v>458</v>
+      </c>
+      <c r="B307">
+        <v>4</v>
+      </c>
+      <c r="C307">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A308" t="s">
+        <v>458</v>
+      </c>
+      <c r="B308">
+        <v>5</v>
+      </c>
+      <c r="C308">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A309" t="s">
+        <v>458</v>
+      </c>
+      <c r="B309">
+        <v>6</v>
+      </c>
+      <c r="C309">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A310" t="s">
+        <v>458</v>
+      </c>
+      <c r="B310">
+        <v>8</v>
+      </c>
+      <c r="C310">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A311" t="s">
+        <v>458</v>
+      </c>
+      <c r="B311">
+        <v>9</v>
+      </c>
+      <c r="C311">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A312" t="s">
+        <v>482</v>
+      </c>
+      <c r="B312">
+        <v>0</v>
+      </c>
+      <c r="C312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A313" t="s">
+        <v>482</v>
+      </c>
+      <c r="B313">
+        <v>1</v>
+      </c>
+      <c r="C313">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A314" t="s">
+        <v>482</v>
+      </c>
+      <c r="B314">
+        <v>2</v>
+      </c>
+      <c r="C314">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A315" t="s">
+        <v>482</v>
+      </c>
+      <c r="B315">
+        <v>3</v>
+      </c>
+      <c r="C315">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A316" t="s">
+        <v>482</v>
+      </c>
+      <c r="B316">
+        <v>8</v>
+      </c>
+      <c r="C316">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A317" t="s">
+        <v>482</v>
+      </c>
+      <c r="B317">
+        <v>9</v>
+      </c>
+      <c r="C317">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A318" t="s">
+        <v>483</v>
+      </c>
+      <c r="B318">
+        <v>0</v>
+      </c>
+      <c r="C318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A319" t="s">
+        <v>483</v>
+      </c>
+      <c r="B319">
+        <v>1</v>
+      </c>
+      <c r="C319">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A320" t="s">
+        <v>483</v>
+      </c>
+      <c r="B320">
+        <v>2</v>
+      </c>
+      <c r="C320">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A321" t="s">
+        <v>483</v>
+      </c>
+      <c r="B321">
+        <v>3</v>
+      </c>
+      <c r="C321">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A322" t="s">
+        <v>483</v>
+      </c>
+      <c r="B322">
+        <v>4</v>
+      </c>
+      <c r="C322">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A323" t="s">
+        <v>483</v>
+      </c>
+      <c r="B323">
+        <v>8</v>
+      </c>
+      <c r="C323">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A324" t="s">
+        <v>483</v>
+      </c>
+      <c r="B324">
+        <v>9</v>
+      </c>
+      <c r="C324">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A325" t="s">
+        <v>484</v>
+      </c>
+      <c r="B325">
+        <v>0</v>
+      </c>
+      <c r="C325">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A326" t="s">
+        <v>484</v>
+      </c>
+      <c r="B326">
+        <v>1</v>
+      </c>
+      <c r="C326">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A327" t="s">
+        <v>484</v>
+      </c>
+      <c r="B327">
+        <v>2</v>
+      </c>
+      <c r="C327">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A328" t="s">
+        <v>484</v>
+      </c>
+      <c r="B328">
+        <v>4</v>
+      </c>
+      <c r="C328">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A329" t="s">
+        <v>484</v>
+      </c>
+      <c r="B329">
+        <v>8</v>
+      </c>
+      <c r="C329">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A330" t="s">
+        <v>484</v>
+      </c>
+      <c r="B330">
+        <v>9</v>
+      </c>
+      <c r="C330">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A331" t="s">
+        <v>485</v>
+      </c>
+      <c r="B331">
+        <v>0</v>
+      </c>
+      <c r="C331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A332" t="s">
+        <v>485</v>
+      </c>
+      <c r="B332">
+        <v>1</v>
+      </c>
+      <c r="C332">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A333" t="s">
+        <v>485</v>
+      </c>
+      <c r="B333">
+        <v>2</v>
+      </c>
+      <c r="C333">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A334" t="s">
+        <v>485</v>
+      </c>
+      <c r="B334">
+        <v>3</v>
+      </c>
+      <c r="C334">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A335" t="s">
+        <v>485</v>
+      </c>
+      <c r="B335">
+        <v>4</v>
+      </c>
+      <c r="C335">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A336" t="s">
+        <v>485</v>
+      </c>
+      <c r="B336">
+        <v>5</v>
+      </c>
+      <c r="C336">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A337" t="s">
+        <v>485</v>
+      </c>
+      <c r="B337">
+        <v>8</v>
+      </c>
+      <c r="C337">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A338" t="s">
+        <v>485</v>
+      </c>
+      <c r="B338">
+        <v>9</v>
+      </c>
+      <c r="C338">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A339" t="s">
+        <v>486</v>
+      </c>
+      <c r="B339">
+        <v>0</v>
+      </c>
+      <c r="C339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A340" t="s">
+        <v>486</v>
+      </c>
+      <c r="B340">
+        <v>1</v>
+      </c>
+      <c r="C340">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A341" t="s">
+        <v>486</v>
+      </c>
+      <c r="B341">
+        <v>2</v>
+      </c>
+      <c r="C341">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A342" t="s">
+        <v>486</v>
+      </c>
+      <c r="B342">
+        <v>3</v>
+      </c>
+      <c r="C342">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A343" t="s">
+        <v>486</v>
+      </c>
+      <c r="B343">
+        <v>4</v>
+      </c>
+      <c r="C343">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A344" t="s">
+        <v>486</v>
+      </c>
+      <c r="B344">
+        <v>8</v>
+      </c>
+      <c r="C344">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A345" t="s">
+        <v>487</v>
+      </c>
+      <c r="B345">
+        <v>0</v>
+      </c>
+      <c r="C345">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A346" t="s">
+        <v>487</v>
+      </c>
+      <c r="B346">
+        <v>1</v>
+      </c>
+      <c r="C346">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A347" t="s">
+        <v>487</v>
+      </c>
+      <c r="B347">
+        <v>2</v>
+      </c>
+      <c r="C347">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A348" t="s">
+        <v>487</v>
+      </c>
+      <c r="B348">
+        <v>3</v>
+      </c>
+      <c r="C348">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A349" t="s">
+        <v>487</v>
+      </c>
+      <c r="B349">
+        <v>4</v>
+      </c>
+      <c r="C349">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A350" t="s">
+        <v>487</v>
+      </c>
+      <c r="B350">
+        <v>7</v>
+      </c>
+      <c r="C350">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A351" t="s">
+        <v>487</v>
+      </c>
+      <c r="B351">
+        <v>8</v>
+      </c>
+      <c r="C351">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A352" t="s">
+        <v>488</v>
+      </c>
+      <c r="B352">
+        <v>0</v>
+      </c>
+      <c r="C352">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A353" t="s">
+        <v>488</v>
+      </c>
+      <c r="B353">
+        <v>1</v>
+      </c>
+      <c r="C353">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A354" t="s">
+        <v>488</v>
+      </c>
+      <c r="B354">
+        <v>2</v>
+      </c>
+      <c r="C354">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A355" t="s">
+        <v>488</v>
+      </c>
+      <c r="B355">
+        <v>3</v>
+      </c>
+      <c r="C355">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A356" t="s">
+        <v>488</v>
+      </c>
+      <c r="B356">
+        <v>4</v>
+      </c>
+      <c r="C356">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A357" t="s">
+        <v>488</v>
+      </c>
+      <c r="B357">
+        <v>5</v>
+      </c>
+      <c r="C357">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A358" t="s">
+        <v>488</v>
+      </c>
+      <c r="B358">
+        <v>6</v>
+      </c>
+      <c r="C358">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A359" t="s">
+        <v>488</v>
+      </c>
+      <c r="B359">
+        <v>8</v>
+      </c>
+      <c r="C359">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A360" t="s">
+        <v>488</v>
+      </c>
+      <c r="B360">
+        <v>9</v>
+      </c>
+      <c r="C360">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A361" t="s">
+        <v>489</v>
+      </c>
+      <c r="B361">
+        <v>0</v>
+      </c>
+      <c r="C361">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A362" t="s">
+        <v>489</v>
+      </c>
+      <c r="B362">
+        <v>1</v>
+      </c>
+      <c r="C362">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A363" t="s">
+        <v>489</v>
+      </c>
+      <c r="B363">
+        <v>2</v>
+      </c>
+      <c r="C363">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A364" t="s">
+        <v>489</v>
+      </c>
+      <c r="B364">
+        <v>3</v>
+      </c>
+      <c r="C364">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A365" t="s">
+        <v>489</v>
+      </c>
+      <c r="B365">
+        <v>4</v>
+      </c>
+      <c r="C365">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A366" t="s">
+        <v>489</v>
+      </c>
+      <c r="B366">
+        <v>8</v>
+      </c>
+      <c r="C366">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A367" t="s">
+        <v>489</v>
+      </c>
+      <c r="B367">
+        <v>9</v>
+      </c>
+      <c r="C367">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A368" t="s">
+        <v>490</v>
+      </c>
+      <c r="B368">
+        <v>0</v>
+      </c>
+      <c r="C368">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A369" t="s">
+        <v>490</v>
+      </c>
+      <c r="B369">
+        <v>1</v>
+      </c>
+      <c r="C369">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A370" t="s">
+        <v>490</v>
+      </c>
+      <c r="B370">
+        <v>2</v>
+      </c>
+      <c r="C370">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A371" t="s">
+        <v>490</v>
+      </c>
+      <c r="B371">
+        <v>3</v>
+      </c>
+      <c r="C371">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A372" t="s">
+        <v>490</v>
+      </c>
+      <c r="B372">
+        <v>4</v>
+      </c>
+      <c r="C372">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A373" t="s">
+        <v>490</v>
+      </c>
+      <c r="B373">
+        <v>8</v>
+      </c>
+      <c r="C373">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A374" t="s">
+        <v>490</v>
+      </c>
+      <c r="B374">
+        <v>9</v>
+      </c>
+      <c r="C374">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A375" t="s">
+        <v>491</v>
+      </c>
+      <c r="B375">
+        <v>0</v>
+      </c>
+      <c r="C375">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A376" t="s">
+        <v>491</v>
+      </c>
+      <c r="B376">
+        <v>10</v>
+      </c>
+      <c r="C376">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A377" t="s">
+        <v>491</v>
+      </c>
+      <c r="B377">
+        <v>20</v>
+      </c>
+      <c r="C377">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A378" t="s">
+        <v>491</v>
+      </c>
+      <c r="B378">
+        <v>31</v>
+      </c>
+      <c r="C378">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A379" t="s">
+        <v>491</v>
+      </c>
+      <c r="B379">
+        <v>32</v>
+      </c>
+      <c r="C379">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A380" t="s">
+        <v>491</v>
+      </c>
+      <c r="B380">
+        <v>33</v>
+      </c>
+      <c r="C380">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A381" t="s">
+        <v>491</v>
+      </c>
+      <c r="B381">
+        <v>34</v>
+      </c>
+      <c r="C381">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A382" t="s">
+        <v>491</v>
+      </c>
+      <c r="B382">
+        <v>40</v>
+      </c>
+      <c r="C382">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A383" t="s">
+        <v>491</v>
+      </c>
+      <c r="B383">
+        <v>98</v>
+      </c>
+      <c r="C383">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A384" t="s">
+        <v>491</v>
+      </c>
+      <c r="B384">
+        <v>99</v>
+      </c>
+      <c r="C384">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A385" t="s">
+        <v>492</v>
+      </c>
+      <c r="B385">
+        <v>0</v>
+      </c>
+      <c r="C385">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A386" t="s">
+        <v>492</v>
+      </c>
+      <c r="B386">
+        <v>1</v>
+      </c>
+      <c r="C386">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A387" t="s">
+        <v>492</v>
+      </c>
+      <c r="B387">
+        <v>2</v>
+      </c>
+      <c r="C387">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A388" t="s">
+        <v>492</v>
+      </c>
+      <c r="B388">
+        <v>3</v>
+      </c>
+      <c r="C388">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A389" t="s">
+        <v>492</v>
+      </c>
+      <c r="B389">
+        <v>4</v>
+      </c>
+      <c r="C389">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A390" t="s">
+        <v>492</v>
+      </c>
+      <c r="B390">
+        <v>5</v>
+      </c>
+      <c r="C390">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A391" t="s">
+        <v>492</v>
+      </c>
+      <c r="B391">
+        <v>6</v>
+      </c>
+      <c r="C391">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A392" t="s">
+        <v>492</v>
+      </c>
+      <c r="B392">
+        <v>8</v>
+      </c>
+      <c r="C392">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A393" t="s">
+        <v>493</v>
+      </c>
+      <c r="B393">
+        <v>0</v>
+      </c>
+      <c r="C393">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A394" t="s">
+        <v>493</v>
+      </c>
+      <c r="B394">
+        <v>1</v>
+      </c>
+      <c r="C394">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A395" t="s">
+        <v>493</v>
+      </c>
+      <c r="B395">
+        <v>2</v>
+      </c>
+      <c r="C395">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A396" t="s">
+        <v>493</v>
+      </c>
+      <c r="B396">
+        <v>3</v>
+      </c>
+      <c r="C396">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A397" t="s">
+        <v>493</v>
+      </c>
+      <c r="B397">
+        <v>4</v>
+      </c>
+      <c r="C397">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A398" t="s">
+        <v>493</v>
+      </c>
+      <c r="B398">
+        <v>5</v>
+      </c>
+      <c r="C398">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A399" t="s">
+        <v>493</v>
+      </c>
+      <c r="B399">
+        <v>8</v>
+      </c>
+      <c r="C399">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A400" t="s">
+        <v>494</v>
+      </c>
+      <c r="B400">
+        <v>0</v>
+      </c>
+      <c r="C400">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A401" t="s">
+        <v>494</v>
+      </c>
+      <c r="B401">
+        <v>1</v>
+      </c>
+      <c r="C401">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A402" t="s">
+        <v>494</v>
+      </c>
+      <c r="B402">
+        <v>2</v>
+      </c>
+      <c r="C402">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A403" t="s">
+        <v>494</v>
+      </c>
+      <c r="B403">
+        <v>3</v>
+      </c>
+      <c r="C403">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A404" t="s">
+        <v>494</v>
+      </c>
+      <c r="B404">
+        <v>4</v>
+      </c>
+      <c r="C404">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A405" t="s">
+        <v>494</v>
+      </c>
+      <c r="B405">
+        <v>8</v>
+      </c>
+      <c r="C405">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A406" t="s">
+        <v>494</v>
+      </c>
+      <c r="B406">
+        <v>9</v>
+      </c>
+      <c r="C406">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A407" t="s">
+        <v>495</v>
+      </c>
+      <c r="B407">
+        <v>0</v>
+      </c>
+      <c r="C407">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A408" t="s">
+        <v>495</v>
+      </c>
+      <c r="B408">
+        <v>1</v>
+      </c>
+      <c r="C408" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A409" t="s">
+        <v>495</v>
+      </c>
+      <c r="B409">
+        <v>2</v>
+      </c>
+      <c r="C409" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A410" t="s">
+        <v>495</v>
+      </c>
+      <c r="B410">
+        <v>3</v>
+      </c>
+      <c r="C410" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A411" t="s">
+        <v>495</v>
+      </c>
+      <c r="B411">
+        <v>4</v>
+      </c>
+      <c r="C411" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A412" t="s">
+        <v>495</v>
+      </c>
+      <c r="B412">
+        <v>8</v>
+      </c>
+      <c r="C412" s="3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A413" t="s">
+        <v>496</v>
+      </c>
+      <c r="B413">
+        <v>0</v>
+      </c>
+      <c r="C413">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A414" t="s">
+        <v>496</v>
+      </c>
+      <c r="B414">
+        <v>1</v>
+      </c>
+      <c r="C414" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A415" t="s">
+        <v>496</v>
+      </c>
+      <c r="B415">
+        <v>2</v>
+      </c>
+      <c r="C415" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A416" t="s">
+        <v>496</v>
+      </c>
+      <c r="B416">
+        <v>3</v>
+      </c>
+      <c r="C416">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A417" t="s">
+        <v>496</v>
+      </c>
+      <c r="B417">
+        <v>4</v>
+      </c>
+      <c r="C417">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A418" t="s">
+        <v>496</v>
+      </c>
+      <c r="B418">
+        <v>8</v>
+      </c>
+      <c r="C418">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A419" t="s">
+        <v>497</v>
+      </c>
+      <c r="B419">
+        <v>0</v>
+      </c>
+      <c r="C419">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A420" t="s">
+        <v>497</v>
+      </c>
+      <c r="B420">
+        <v>1</v>
+      </c>
+      <c r="C420" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A421" t="s">
+        <v>497</v>
+      </c>
+      <c r="B421">
+        <v>2</v>
+      </c>
+      <c r="C421" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A422" t="s">
+        <v>497</v>
+      </c>
+      <c r="B422">
+        <v>3</v>
+      </c>
+      <c r="C422">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A423" t="s">
+        <v>497</v>
+      </c>
+      <c r="B423">
+        <v>4</v>
+      </c>
+      <c r="C423">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A424" t="s">
+        <v>497</v>
+      </c>
+      <c r="B424">
+        <v>5</v>
+      </c>
+      <c r="C424">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A425" t="s">
+        <v>497</v>
+      </c>
+      <c r="B425">
+        <v>6</v>
+      </c>
+      <c r="C425">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A426" t="s">
+        <v>497</v>
+      </c>
+      <c r="B426">
+        <v>8</v>
+      </c>
+      <c r="C426">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A427" t="s">
+        <v>498</v>
+      </c>
+      <c r="B427">
+        <v>0</v>
+      </c>
+      <c r="C427">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A428" t="s">
+        <v>498</v>
+      </c>
+      <c r="B428">
+        <v>1</v>
+      </c>
+      <c r="C428">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A429" t="s">
+        <v>498</v>
+      </c>
+      <c r="B429" s="3">
+        <v>2</v>
+      </c>
+      <c r="C429">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A430" t="s">
+        <v>498</v>
+      </c>
+      <c r="B430">
+        <v>3</v>
+      </c>
+      <c r="C430">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A431" t="s">
+        <v>498</v>
+      </c>
+      <c r="B431">
+        <v>4</v>
+      </c>
+      <c r="C431">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A432" t="s">
+        <v>498</v>
+      </c>
+      <c r="B432">
+        <v>5</v>
+      </c>
+      <c r="C432">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A433" t="s">
+        <v>498</v>
+      </c>
+      <c r="B433">
+        <v>8</v>
+      </c>
+      <c r="C433">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A434" t="s">
+        <v>499</v>
+      </c>
+      <c r="B434">
+        <v>0</v>
+      </c>
+      <c r="C434">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A435" t="s">
+        <v>499</v>
+      </c>
+      <c r="B435">
+        <v>1</v>
+      </c>
+      <c r="C435">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A436" t="s">
+        <v>499</v>
+      </c>
+      <c r="B436">
+        <v>2</v>
+      </c>
+      <c r="C436">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A437" t="s">
+        <v>499</v>
+      </c>
+      <c r="B437">
+        <v>3</v>
+      </c>
+      <c r="C437">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A438" t="s">
+        <v>499</v>
+      </c>
+      <c r="B438">
+        <v>4</v>
+      </c>
+      <c r="C438">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A439" t="s">
+        <v>499</v>
+      </c>
+      <c r="B439">
+        <v>8</v>
+      </c>
+      <c r="C439">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A440" t="s">
+        <v>499</v>
+      </c>
+      <c r="B440">
+        <v>9</v>
+      </c>
+      <c r="C440">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A441" t="s">
+        <v>500</v>
+      </c>
+      <c r="B441">
+        <v>0</v>
+      </c>
+      <c r="C441">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A442" t="s">
+        <v>500</v>
+      </c>
+      <c r="B442">
+        <v>1</v>
+      </c>
+      <c r="C442" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A443" t="s">
+        <v>500</v>
+      </c>
+      <c r="B443">
+        <v>2</v>
+      </c>
+      <c r="C443" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A444" t="s">
+        <v>500</v>
+      </c>
+      <c r="B444">
+        <v>3</v>
+      </c>
+      <c r="C444" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A445" t="s">
+        <v>500</v>
+      </c>
+      <c r="B445">
+        <v>4</v>
+      </c>
+      <c r="C445" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A446" t="s">
+        <v>500</v>
+      </c>
+      <c r="B446">
+        <v>8</v>
+      </c>
+      <c r="C446" s="3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A447" t="s">
+        <v>500</v>
+      </c>
+      <c r="B447">
+        <v>9</v>
+      </c>
+      <c r="C447" s="3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A448" t="s">
+        <v>501</v>
+      </c>
+      <c r="B448">
+        <v>0</v>
+      </c>
+      <c r="C448">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A449" t="s">
+        <v>501</v>
+      </c>
+      <c r="B449">
+        <v>1</v>
+      </c>
+      <c r="C449" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A450" t="s">
+        <v>501</v>
+      </c>
+      <c r="B450">
+        <v>2</v>
+      </c>
+      <c r="C450">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A451" t="s">
+        <v>501</v>
+      </c>
+      <c r="B451">
+        <v>3</v>
+      </c>
+      <c r="C451">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A452" t="s">
+        <v>501</v>
+      </c>
+      <c r="B452">
+        <v>9</v>
+      </c>
+      <c r="C452">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A453" t="s">
+        <v>502</v>
+      </c>
+      <c r="B453">
+        <v>0</v>
+      </c>
+      <c r="C453">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A454" t="s">
+        <v>502</v>
+      </c>
+      <c r="B454">
+        <v>1</v>
+      </c>
+      <c r="C454">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A455" t="s">
+        <v>502</v>
+      </c>
+      <c r="B455" s="3">
+        <v>2</v>
+      </c>
+      <c r="C455" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A456" t="s">
+        <v>502</v>
+      </c>
+      <c r="B456">
+        <v>3</v>
+      </c>
+      <c r="C456">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A457" t="s">
+        <v>502</v>
+      </c>
+      <c r="B457">
+        <v>4</v>
+      </c>
+      <c r="C457">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A458" t="s">
+        <v>502</v>
+      </c>
+      <c r="B458">
+        <v>8</v>
+      </c>
+      <c r="C458">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A459" t="s">
+        <v>502</v>
+      </c>
+      <c r="B459">
+        <v>9</v>
+      </c>
+      <c r="C459">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A460" t="s">
+        <v>503</v>
+      </c>
+      <c r="B460">
+        <v>0</v>
+      </c>
+      <c r="C460">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A461" t="s">
+        <v>503</v>
+      </c>
+      <c r="B461" s="3">
+        <v>1</v>
+      </c>
+      <c r="C461">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A462" t="s">
+        <v>503</v>
+      </c>
+      <c r="B462">
+        <v>2</v>
+      </c>
+      <c r="C462">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A463" t="s">
+        <v>503</v>
+      </c>
+      <c r="B463">
+        <v>3</v>
+      </c>
+      <c r="C463">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A464" t="s">
+        <v>504</v>
+      </c>
+      <c r="B464">
+        <v>0</v>
+      </c>
+      <c r="C464">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A465" t="s">
+        <v>504</v>
+      </c>
+      <c r="B465">
+        <v>1</v>
+      </c>
+      <c r="C465" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A466" t="s">
+        <v>504</v>
+      </c>
+      <c r="B466">
+        <v>2</v>
+      </c>
+      <c r="C466" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A467" t="s">
+        <v>504</v>
+      </c>
+      <c r="B467">
+        <v>3</v>
+      </c>
+      <c r="C467">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A468" t="s">
+        <v>504</v>
+      </c>
+      <c r="B468">
+        <v>4</v>
+      </c>
+      <c r="C468">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A469" t="s">
+        <v>504</v>
+      </c>
+      <c r="B469">
+        <v>9</v>
+      </c>
+      <c r="C469">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A470" t="s">
+        <v>505</v>
+      </c>
+      <c r="B470">
+        <v>0</v>
+      </c>
+      <c r="C470">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A471" t="s">
+        <v>505</v>
+      </c>
+      <c r="B471">
+        <v>1</v>
+      </c>
+      <c r="C471">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A472" t="s">
+        <v>505</v>
+      </c>
+      <c r="B472" s="3">
+        <v>2</v>
+      </c>
+      <c r="C472">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A473" t="s">
+        <v>505</v>
+      </c>
+      <c r="B473">
+        <v>3</v>
+      </c>
+      <c r="C473">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A474" t="s">
+        <v>505</v>
+      </c>
+      <c r="B474">
+        <v>4</v>
+      </c>
+      <c r="C474">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A475" t="s">
+        <v>505</v>
+      </c>
+      <c r="B475">
+        <v>5</v>
+      </c>
+      <c r="C475">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A476" t="s">
+        <v>505</v>
+      </c>
+      <c r="B476">
+        <v>8</v>
+      </c>
+      <c r="C476">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A477" t="s">
+        <v>506</v>
+      </c>
+      <c r="B477">
+        <v>0</v>
+      </c>
+      <c r="C477">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A478" t="s">
+        <v>506</v>
+      </c>
+      <c r="B478">
+        <v>1</v>
+      </c>
+      <c r="C478">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A479" t="s">
+        <v>506</v>
+      </c>
+      <c r="B479">
+        <v>2</v>
+      </c>
+      <c r="C479">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A480" t="s">
+        <v>506</v>
+      </c>
+      <c r="B480">
+        <v>3</v>
+      </c>
+      <c r="C480">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A481" t="s">
+        <v>506</v>
+      </c>
+      <c r="B481">
+        <v>4</v>
+      </c>
+      <c r="C481">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A482" t="s">
+        <v>506</v>
+      </c>
+      <c r="B482">
+        <v>5</v>
+      </c>
+      <c r="C482">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A483" t="s">
+        <v>506</v>
+      </c>
+      <c r="B483">
+        <v>8</v>
+      </c>
+      <c r="C483">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A484" t="s">
+        <v>507</v>
+      </c>
+      <c r="B484">
+        <v>0</v>
+      </c>
+      <c r="C484">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A485" t="s">
+        <v>507</v>
+      </c>
+      <c r="B485">
+        <v>1</v>
+      </c>
+      <c r="C485">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A486" t="s">
+        <v>507</v>
+      </c>
+      <c r="B486">
+        <v>2</v>
+      </c>
+      <c r="C486">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A487" t="s">
+        <v>507</v>
+      </c>
+      <c r="B487">
+        <v>3</v>
+      </c>
+      <c r="C487">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A488" t="s">
+        <v>507</v>
+      </c>
+      <c r="B488">
+        <v>4</v>
+      </c>
+      <c r="C488">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A489" t="s">
+        <v>507</v>
+      </c>
+      <c r="B489">
+        <v>5</v>
+      </c>
+      <c r="C489">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A490" t="s">
+        <v>507</v>
+      </c>
+      <c r="B490">
+        <v>6</v>
+      </c>
+      <c r="C490">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A491" t="s">
+        <v>507</v>
+      </c>
+      <c r="B491">
+        <v>7</v>
+      </c>
+      <c r="C491">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A492" t="s">
+        <v>507</v>
+      </c>
+      <c r="B492">
+        <v>8</v>
+      </c>
+      <c r="C492">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A493" t="s">
+        <v>507</v>
+      </c>
+      <c r="B493">
+        <v>98</v>
+      </c>
+      <c r="C493">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A494" t="s">
+        <v>525</v>
+      </c>
+      <c r="B494" s="3">
+        <v>0</v>
+      </c>
+      <c r="C494" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A495" t="s">
+        <v>525</v>
+      </c>
+      <c r="B495">
+        <v>1</v>
+      </c>
+      <c r="C495" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A496" t="s">
+        <v>525</v>
+      </c>
+      <c r="B496">
+        <v>2</v>
+      </c>
+      <c r="C496">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A497" t="s">
+        <v>525</v>
+      </c>
+      <c r="B497" s="3">
+        <v>3</v>
+      </c>
+      <c r="C497">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A498" t="s">
+        <v>525</v>
+      </c>
+      <c r="B498">
+        <v>4</v>
+      </c>
+      <c r="C498" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A499" t="s">
+        <v>525</v>
+      </c>
+      <c r="B499" s="3">
+        <v>5</v>
+      </c>
+      <c r="C499" s="3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A500" t="s">
+        <v>525</v>
+      </c>
+      <c r="B500" s="3">
+        <v>6</v>
+      </c>
+      <c r="C500" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A501" t="s">
+        <v>525</v>
+      </c>
+      <c r="B501">
+        <v>7</v>
+      </c>
+      <c r="C501" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A502" t="s">
+        <v>525</v>
+      </c>
+      <c r="B502">
+        <v>8</v>
+      </c>
+      <c r="C502" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A503" t="s">
+        <v>525</v>
+      </c>
+      <c r="B503">
+        <v>9</v>
+      </c>
+      <c r="C503" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A504" t="s">
+        <v>525</v>
+      </c>
+      <c r="B504">
+        <v>98</v>
+      </c>
+      <c r="C504" s="3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A505" t="s">
+        <v>525</v>
+      </c>
+      <c r="B505">
+        <v>99</v>
+      </c>
+      <c r="C505" s="3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A506" t="s">
+        <v>526</v>
+      </c>
+      <c r="B506" s="3">
+        <v>0</v>
+      </c>
+      <c r="C506" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A507" t="s">
+        <v>526</v>
+      </c>
+      <c r="B507" s="3">
+        <v>1</v>
+      </c>
+      <c r="C507" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A508" t="s">
+        <v>526</v>
+      </c>
+      <c r="B508" s="3">
+        <v>2</v>
+      </c>
+      <c r="C508" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A509" t="s">
+        <v>526</v>
+      </c>
+      <c r="B509" s="3">
+        <v>3</v>
+      </c>
+      <c r="C509" s="4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A510" t="s">
+        <v>526</v>
+      </c>
+      <c r="B510">
+        <v>4</v>
+      </c>
+      <c r="C510" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A511" t="s">
+        <v>526</v>
+      </c>
+      <c r="B511">
+        <v>8</v>
+      </c>
+      <c r="C511" s="3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A512" t="s">
+        <v>526</v>
+      </c>
+      <c r="B512">
+        <v>9</v>
+      </c>
+      <c r="C512" s="3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A513" t="s">
+        <v>527</v>
+      </c>
+      <c r="B513" s="3">
+        <v>0</v>
+      </c>
+      <c r="C513" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A514" t="s">
+        <v>527</v>
+      </c>
+      <c r="B514" s="3">
+        <v>1</v>
+      </c>
+      <c r="C514" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A515" t="s">
+        <v>527</v>
+      </c>
+      <c r="B515" s="3">
+        <v>2</v>
+      </c>
+      <c r="C515" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A516" t="s">
+        <v>527</v>
+      </c>
+      <c r="B516" s="3">
+        <v>3</v>
+      </c>
+      <c r="C516" s="4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A517" t="s">
+        <v>527</v>
+      </c>
+      <c r="B517" s="3">
+        <v>4</v>
+      </c>
+      <c r="C517" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A518" t="s">
+        <v>527</v>
+      </c>
+      <c r="B518">
+        <v>5</v>
+      </c>
+      <c r="C518" s="3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A519" t="s">
+        <v>527</v>
+      </c>
+      <c r="B519">
+        <v>8</v>
+      </c>
+      <c r="C519" s="3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A520" t="s">
+        <v>527</v>
+      </c>
+      <c r="B520">
+        <v>9</v>
+      </c>
+      <c r="C520" s="3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A521" t="s">
+        <v>528</v>
+      </c>
+      <c r="B521">
+        <v>0</v>
+      </c>
+      <c r="C521">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A522" t="s">
+        <v>528</v>
+      </c>
+      <c r="B522" s="3">
+        <v>1</v>
+      </c>
+      <c r="C522" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A523" t="s">
+        <v>528</v>
+      </c>
+      <c r="B523" s="3">
+        <v>2</v>
+      </c>
+      <c r="C523" s="4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A524" t="s">
+        <v>528</v>
+      </c>
+      <c r="B524" s="3">
+        <v>4</v>
+      </c>
+      <c r="C524" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A525" t="s">
+        <v>528</v>
+      </c>
+      <c r="B525">
+        <v>5</v>
+      </c>
+      <c r="C525" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A526" t="s">
+        <v>528</v>
+      </c>
+      <c r="B526">
+        <v>8</v>
+      </c>
+      <c r="C526" s="3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A527" t="s">
+        <v>528</v>
+      </c>
+      <c r="B527">
+        <v>9</v>
+      </c>
+      <c r="C527" s="3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A528" t="s">
+        <v>511</v>
+      </c>
+      <c r="B528" s="3">
+        <v>0</v>
+      </c>
+      <c r="C528" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A529" t="s">
+        <v>511</v>
+      </c>
+      <c r="B529" s="3">
+        <v>1</v>
+      </c>
+      <c r="C529" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A530" t="s">
+        <v>511</v>
+      </c>
+      <c r="B530" s="3">
+        <v>2</v>
+      </c>
+      <c r="C530" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A531" t="s">
+        <v>511</v>
+      </c>
+      <c r="B531" s="3">
+        <v>3</v>
+      </c>
+      <c r="C531" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A532" t="s">
+        <v>511</v>
+      </c>
+      <c r="B532">
+        <v>8</v>
+      </c>
+      <c r="C532" s="3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A533" t="s">
+        <v>529</v>
+      </c>
+      <c r="B533">
+        <v>0</v>
+      </c>
+      <c r="C533">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A534" t="s">
+        <v>529</v>
+      </c>
+      <c r="B534" s="3">
+        <v>11</v>
+      </c>
+      <c r="C534">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A535" t="s">
+        <v>529</v>
+      </c>
+      <c r="B535">
+        <v>12</v>
+      </c>
+      <c r="C535">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A536" t="s">
+        <v>529</v>
+      </c>
+      <c r="B536">
+        <v>13</v>
+      </c>
+      <c r="C536">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A537" t="s">
+        <v>529</v>
+      </c>
+      <c r="B537">
+        <v>14</v>
+      </c>
+      <c r="C537">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A538" t="s">
+        <v>529</v>
+      </c>
+      <c r="B538">
+        <v>15</v>
+      </c>
+      <c r="C538" s="3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A539" t="s">
+        <v>529</v>
+      </c>
+      <c r="B539">
+        <v>16</v>
+      </c>
+      <c r="C539">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A540" t="s">
+        <v>529</v>
+      </c>
+      <c r="B540">
+        <v>17</v>
+      </c>
+      <c r="C540">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A541" t="s">
+        <v>529</v>
+      </c>
+      <c r="B541">
+        <v>18</v>
+      </c>
+      <c r="C541">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A542" t="s">
+        <v>529</v>
+      </c>
+      <c r="B542">
+        <v>98</v>
+      </c>
+      <c r="C542">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A543" t="s">
+        <v>529</v>
+      </c>
+      <c r="B543">
+        <v>99</v>
+      </c>
+      <c r="C543">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A544" t="s">
+        <v>530</v>
+      </c>
+      <c r="B544">
+        <v>0</v>
+      </c>
+      <c r="C544">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A545" t="s">
+        <v>530</v>
+      </c>
+      <c r="B545" s="3">
+        <v>1</v>
+      </c>
+      <c r="C545">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A546" t="s">
+        <v>530</v>
+      </c>
+      <c r="B546" s="3">
+        <v>2</v>
+      </c>
+      <c r="C546" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A547" t="s">
+        <v>530</v>
+      </c>
+      <c r="B547">
+        <v>4</v>
+      </c>
+      <c r="C547">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A548" t="s">
+        <v>530</v>
+      </c>
+      <c r="B548">
+        <v>5</v>
+      </c>
+      <c r="C548">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A549" t="s">
+        <v>530</v>
+      </c>
+      <c r="B549">
+        <v>8</v>
+      </c>
+      <c r="C549">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A550" t="s">
+        <v>531</v>
+      </c>
+      <c r="B550" s="3">
+        <v>0</v>
+      </c>
+      <c r="C550" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A551" t="s">
+        <v>531</v>
+      </c>
+      <c r="B551" s="3">
+        <v>1</v>
+      </c>
+      <c r="C551" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A552" t="s">
+        <v>531</v>
+      </c>
+      <c r="B552" s="3">
+        <v>2</v>
+      </c>
+      <c r="C552" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A553" t="s">
+        <v>531</v>
+      </c>
+      <c r="B553" s="3">
+        <v>3</v>
+      </c>
+      <c r="C553" s="4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A554" t="s">
+        <v>531</v>
+      </c>
+      <c r="B554" s="3">
+        <v>4</v>
+      </c>
+      <c r="C554" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A555" t="s">
+        <v>531</v>
+      </c>
+      <c r="B555" s="3">
+        <v>5</v>
+      </c>
+      <c r="C555" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A556" t="s">
+        <v>531</v>
+      </c>
+      <c r="B556" s="3">
+        <v>6</v>
+      </c>
+      <c r="C556" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A557" t="s">
+        <v>531</v>
+      </c>
+      <c r="B557">
+        <v>7</v>
+      </c>
+      <c r="C557" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A558" t="s">
+        <v>531</v>
+      </c>
+      <c r="B558">
+        <v>9</v>
+      </c>
+      <c r="C558" s="3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="559" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A559" t="s">
+        <v>509</v>
+      </c>
+      <c r="B559">
+        <v>0</v>
+      </c>
+      <c r="C559">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A560" t="s">
+        <v>509</v>
+      </c>
+      <c r="B560" s="3">
+        <v>10</v>
+      </c>
+      <c r="C560" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A561" t="s">
+        <v>509</v>
+      </c>
+      <c r="B561" s="3">
+        <v>20</v>
+      </c>
+      <c r="C561" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A562" t="s">
+        <v>509</v>
+      </c>
+      <c r="B562">
+        <v>21</v>
+      </c>
+      <c r="C562">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A563" t="s">
+        <v>509</v>
+      </c>
+      <c r="B563" s="3">
+        <v>30</v>
+      </c>
+      <c r="C563" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A564" t="s">
+        <v>509</v>
+      </c>
+      <c r="B564">
+        <v>31</v>
+      </c>
+      <c r="C564" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A565" t="s">
+        <v>509</v>
+      </c>
+      <c r="B565">
+        <v>40</v>
+      </c>
+      <c r="C565" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A566" t="s">
+        <v>509</v>
+      </c>
+      <c r="B566">
+        <v>41</v>
+      </c>
+      <c r="C566" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A567" t="s">
+        <v>509</v>
+      </c>
+      <c r="B567">
+        <v>98</v>
+      </c>
+      <c r="C567" s="3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="568" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A568" t="s">
+        <v>512</v>
+      </c>
+      <c r="B568">
+        <v>0</v>
+      </c>
+      <c r="C568" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A569" t="s">
+        <v>512</v>
+      </c>
+      <c r="B569">
+        <v>1</v>
+      </c>
+      <c r="C569" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A570" t="s">
+        <v>512</v>
+      </c>
+      <c r="B570">
+        <v>2</v>
+      </c>
+      <c r="C570" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="571" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A571" t="s">
+        <v>512</v>
+      </c>
+      <c r="B571">
+        <v>3</v>
+      </c>
+      <c r="C571" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="572" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A572" t="s">
+        <v>512</v>
+      </c>
+      <c r="B572">
+        <v>4</v>
+      </c>
+      <c r="C572" s="3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="573" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A573" t="s">
+        <v>512</v>
+      </c>
+      <c r="B573">
+        <v>5</v>
+      </c>
+      <c r="C573" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="574" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A574" t="s">
+        <v>512</v>
+      </c>
+      <c r="B574">
+        <v>8</v>
+      </c>
+      <c r="C574" s="3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="575" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A575" t="s">
+        <v>512</v>
+      </c>
+      <c r="B575">
+        <v>9</v>
+      </c>
+      <c r="C575" s="3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="576" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A576" t="s">
+        <v>532</v>
+      </c>
+      <c r="B576" s="3">
+        <v>0</v>
+      </c>
+      <c r="C576" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="577" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A577" t="s">
+        <v>532</v>
+      </c>
+      <c r="B577" s="3">
+        <v>1</v>
+      </c>
+      <c r="C577" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="578" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A578" t="s">
+        <v>532</v>
+      </c>
+      <c r="B578" s="3">
+        <v>2</v>
+      </c>
+      <c r="C578" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="579" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A579" t="s">
+        <v>532</v>
+      </c>
+      <c r="B579" s="3">
+        <v>4</v>
+      </c>
+      <c r="C579" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="580" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A580" t="s">
+        <v>532</v>
+      </c>
+      <c r="B580">
+        <v>8</v>
+      </c>
+      <c r="C580" s="3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="581" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A581" t="s">
+        <v>532</v>
+      </c>
+      <c r="B581">
+        <v>9</v>
+      </c>
+      <c r="C581" s="3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="582" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A582" t="s">
+        <v>533</v>
+      </c>
+      <c r="B582">
+        <v>0</v>
+      </c>
+      <c r="C582">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="583" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A583" t="s">
+        <v>533</v>
+      </c>
+      <c r="B583" s="3">
+        <v>1</v>
+      </c>
+      <c r="C583" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="584" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A584" t="s">
+        <v>533</v>
+      </c>
+      <c r="B584" s="3">
+        <v>2</v>
+      </c>
+      <c r="C584" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="585" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A585" t="s">
+        <v>533</v>
+      </c>
+      <c r="B585" s="3">
+        <v>3</v>
+      </c>
+      <c r="C585" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="586" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A586" t="s">
+        <v>533</v>
+      </c>
+      <c r="B586" s="3">
+        <v>4</v>
+      </c>
+      <c r="C586" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="587" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A587" t="s">
+        <v>533</v>
+      </c>
+      <c r="B587">
+        <v>5</v>
+      </c>
+      <c r="C587" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="588" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A588" t="s">
+        <v>533</v>
+      </c>
+      <c r="B588">
+        <v>6</v>
+      </c>
+      <c r="C588">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="589" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A589" t="s">
+        <v>533</v>
+      </c>
+      <c r="B589" s="3">
+        <v>7</v>
+      </c>
+      <c r="C589" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="590" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A590" t="s">
+        <v>533</v>
+      </c>
+      <c r="B590">
+        <v>8</v>
+      </c>
+      <c r="C590">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="591" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A591" t="s">
+        <v>533</v>
+      </c>
+      <c r="B591">
+        <v>98</v>
+      </c>
+      <c r="C591">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="592" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A592" t="s">
+        <v>533</v>
+      </c>
+      <c r="B592">
+        <v>99</v>
+      </c>
+      <c r="C592">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="593" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A593" t="s">
+        <v>515</v>
+      </c>
+      <c r="B593" s="3">
+        <v>0</v>
+      </c>
+      <c r="C593" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="594" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A594" t="s">
+        <v>515</v>
+      </c>
+      <c r="B594" s="3">
+        <v>1</v>
+      </c>
+      <c r="C594" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="595" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A595" t="s">
+        <v>515</v>
+      </c>
+      <c r="B595" s="3">
+        <v>2</v>
+      </c>
+      <c r="C595" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="596" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A596" t="s">
+        <v>515</v>
+      </c>
+      <c r="B596" s="3">
+        <v>3</v>
+      </c>
+      <c r="C596" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="597" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A597" t="s">
+        <v>515</v>
+      </c>
+      <c r="B597" s="3">
+        <v>4</v>
+      </c>
+      <c r="C597" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="598" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A598" t="s">
+        <v>515</v>
+      </c>
+      <c r="B598" s="3">
+        <v>5</v>
+      </c>
+      <c r="C598" s="4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="599" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A599" t="s">
+        <v>515</v>
+      </c>
+      <c r="B599" s="3">
+        <v>6</v>
+      </c>
+      <c r="C599" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="600" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A600" t="s">
+        <v>515</v>
+      </c>
+      <c r="B600">
+        <v>9</v>
+      </c>
+      <c r="C600" s="3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="601" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A601" t="s">
+        <v>510</v>
+      </c>
+      <c r="B601" s="3">
+        <v>0</v>
+      </c>
+      <c r="C601" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="602" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A602" t="s">
+        <v>510</v>
+      </c>
+      <c r="B602" s="3">
+        <v>1</v>
+      </c>
+      <c r="C602" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="603" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A603" t="s">
+        <v>510</v>
+      </c>
+      <c r="B603" s="3">
+        <v>2</v>
+      </c>
+      <c r="C603" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="604" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A604" t="s">
+        <v>510</v>
+      </c>
+      <c r="B604">
+        <v>3</v>
+      </c>
+      <c r="C604" s="3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="605" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A605" t="s">
+        <v>510</v>
+      </c>
+      <c r="B605">
+        <v>4</v>
+      </c>
+      <c r="C605" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="606" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A606" t="s">
+        <v>510</v>
+      </c>
+      <c r="B606">
+        <v>5</v>
+      </c>
+      <c r="C606" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="607" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A607" t="s">
+        <v>510</v>
+      </c>
+      <c r="B607">
+        <v>8</v>
+      </c>
+      <c r="C607" s="3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="608" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A608" t="s">
+        <v>510</v>
+      </c>
+      <c r="B608">
+        <v>9</v>
+      </c>
+      <c r="C608" s="3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="609" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A609" t="s">
+        <v>513</v>
+      </c>
+      <c r="B609" s="3">
+        <v>0</v>
+      </c>
+      <c r="C609" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="610" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A610" t="s">
+        <v>513</v>
+      </c>
+      <c r="B610" s="3">
+        <v>1</v>
+      </c>
+      <c r="C610" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="611" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A611" t="s">
+        <v>513</v>
+      </c>
+      <c r="B611" s="3">
+        <v>2</v>
+      </c>
+      <c r="C611" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="612" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A612" t="s">
+        <v>513</v>
+      </c>
+      <c r="B612" s="3">
+        <v>3</v>
+      </c>
+      <c r="C612" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="613" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A613" t="s">
+        <v>513</v>
+      </c>
+      <c r="B613" s="3">
+        <v>4</v>
+      </c>
+      <c r="C613" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="614" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A614" t="s">
+        <v>513</v>
+      </c>
+      <c r="B614">
+        <v>8</v>
+      </c>
+      <c r="C614" s="3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="615" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A615" t="s">
+        <v>513</v>
+      </c>
+      <c r="B615">
+        <v>9</v>
+      </c>
+      <c r="C615" s="3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="616" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A616" t="s">
+        <v>514</v>
+      </c>
+      <c r="B616">
+        <v>0</v>
+      </c>
+      <c r="C616">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="617" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A617" t="s">
+        <v>514</v>
+      </c>
+      <c r="B617" s="3">
+        <v>1</v>
+      </c>
+      <c r="C617" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="618" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A618" t="s">
+        <v>514</v>
+      </c>
+      <c r="B618" s="3">
+        <v>2</v>
+      </c>
+      <c r="C618" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="619" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A619" t="s">
+        <v>514</v>
+      </c>
+      <c r="B619" s="3">
+        <v>3</v>
+      </c>
+      <c r="C619" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="620" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A620" t="s">
+        <v>514</v>
+      </c>
+      <c r="B620">
+        <v>4</v>
+      </c>
+      <c r="C620" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="621" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A621" t="s">
+        <v>514</v>
+      </c>
+      <c r="B621">
+        <v>5</v>
+      </c>
+      <c r="C621" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="622" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A622" t="s">
+        <v>514</v>
+      </c>
+      <c r="B622">
+        <v>8</v>
+      </c>
+      <c r="C622" s="3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="623" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A623" t="s">
+        <v>514</v>
+      </c>
+      <c r="B623">
+        <v>9</v>
+      </c>
+      <c r="C623" s="3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="624" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A624" t="s">
+        <v>540</v>
+      </c>
+      <c r="B624">
+        <v>0</v>
+      </c>
+      <c r="C624" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="625" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A625" t="s">
+        <v>540</v>
+      </c>
+      <c r="B625">
+        <v>1</v>
+      </c>
+      <c r="C625" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="626" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A626" t="s">
+        <v>540</v>
+      </c>
+      <c r="B626">
+        <v>2</v>
+      </c>
+      <c r="C626" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="627" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A627" t="s">
+        <v>540</v>
+      </c>
+      <c r="B627">
+        <v>3</v>
+      </c>
+      <c r="C627" s="3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="628" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A628" t="s">
+        <v>540</v>
+      </c>
+      <c r="B628">
+        <v>4</v>
+      </c>
+      <c r="C628" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="629" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A629" t="s">
+        <v>540</v>
+      </c>
+      <c r="B629">
+        <v>8</v>
+      </c>
+      <c r="C629" s="3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="630" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A630" t="s">
+        <v>540</v>
+      </c>
+      <c r="B630">
+        <v>9</v>
+      </c>
+      <c r="C630" s="3">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B21"/>
